--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55019CB0-AE0A-45D4-A854-5B98C6684DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4AEC57-6869-4471-AE88-CEDD06E489A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,10 +780,10 @@
         <v>4000000</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>1242</v>
       </c>
       <c r="D16" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4AEC57-6869-4471-AE88-CEDD06E489A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F75A3-4F24-42F7-9DF5-36DE5D4069FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4472,6 +4472,2406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>50250000</v>
+      </c>
+      <c r="C201" s="2">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2">
+        <v>30</v>
+      </c>
+      <c r="E201" s="2">
+        <v>14</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="C202" s="1">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>5</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>50750000</v>
+      </c>
+      <c r="C203" s="1">
+        <v>30</v>
+      </c>
+      <c r="D203" s="1">
+        <v>800</v>
+      </c>
+      <c r="E203" s="1">
+        <v>30</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>51000000</v>
+      </c>
+      <c r="C204" s="1">
+        <v>20</v>
+      </c>
+      <c r="D204" s="1">
+        <v>500</v>
+      </c>
+      <c r="E204" s="1">
+        <v>20</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>51250000</v>
+      </c>
+      <c r="C205" s="1">
+        <v>46</v>
+      </c>
+      <c r="D205" s="1">
+        <v>500</v>
+      </c>
+      <c r="E205" s="1">
+        <v>46</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>51500000</v>
+      </c>
+      <c r="C206" s="2">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2">
+        <v>30</v>
+      </c>
+      <c r="E206" s="2">
+        <v>14</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>51750000</v>
+      </c>
+      <c r="C207" s="1">
+        <v>5</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>5</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>52000000</v>
+      </c>
+      <c r="C208" s="1">
+        <v>30</v>
+      </c>
+      <c r="D208" s="1">
+        <v>800</v>
+      </c>
+      <c r="E208" s="1">
+        <v>30</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>52250000</v>
+      </c>
+      <c r="C209" s="1">
+        <v>20</v>
+      </c>
+      <c r="D209" s="1">
+        <v>500</v>
+      </c>
+      <c r="E209" s="1">
+        <v>20</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>52500000</v>
+      </c>
+      <c r="C210" s="1">
+        <v>46</v>
+      </c>
+      <c r="D210" s="1">
+        <v>500</v>
+      </c>
+      <c r="E210" s="1">
+        <v>46</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>52750000</v>
+      </c>
+      <c r="C211" s="2">
+        <v>14</v>
+      </c>
+      <c r="D211" s="2">
+        <v>30</v>
+      </c>
+      <c r="E211" s="2">
+        <v>14</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>53000000</v>
+      </c>
+      <c r="C212" s="1">
+        <v>5</v>
+      </c>
+      <c r="D212" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>5</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>53250000</v>
+      </c>
+      <c r="C213" s="1">
+        <v>30</v>
+      </c>
+      <c r="D213" s="1">
+        <v>800</v>
+      </c>
+      <c r="E213" s="1">
+        <v>30</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>53500000</v>
+      </c>
+      <c r="C214" s="1">
+        <v>20</v>
+      </c>
+      <c r="D214" s="1">
+        <v>500</v>
+      </c>
+      <c r="E214" s="1">
+        <v>20</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>53750000</v>
+      </c>
+      <c r="C215" s="1">
+        <v>46</v>
+      </c>
+      <c r="D215" s="1">
+        <v>500</v>
+      </c>
+      <c r="E215" s="1">
+        <v>46</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>54000000</v>
+      </c>
+      <c r="C216" s="2">
+        <v>14</v>
+      </c>
+      <c r="D216" s="2">
+        <v>30</v>
+      </c>
+      <c r="E216" s="2">
+        <v>14</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>54250000</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>5</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>54500000</v>
+      </c>
+      <c r="C218" s="1">
+        <v>30</v>
+      </c>
+      <c r="D218" s="1">
+        <v>800</v>
+      </c>
+      <c r="E218" s="1">
+        <v>30</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>54750000</v>
+      </c>
+      <c r="C219" s="1">
+        <v>20</v>
+      </c>
+      <c r="D219" s="1">
+        <v>500</v>
+      </c>
+      <c r="E219" s="1">
+        <v>20</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="C220" s="1">
+        <v>46</v>
+      </c>
+      <c r="D220" s="1">
+        <v>500</v>
+      </c>
+      <c r="E220" s="1">
+        <v>46</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>55250000</v>
+      </c>
+      <c r="C221" s="2">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2">
+        <v>30</v>
+      </c>
+      <c r="E221" s="2">
+        <v>14</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>55500000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>5</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>55750000</v>
+      </c>
+      <c r="C223" s="1">
+        <v>30</v>
+      </c>
+      <c r="D223" s="1">
+        <v>800</v>
+      </c>
+      <c r="E223" s="1">
+        <v>30</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="C224" s="1">
+        <v>20</v>
+      </c>
+      <c r="D224" s="1">
+        <v>500</v>
+      </c>
+      <c r="E224" s="1">
+        <v>20</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>56250000</v>
+      </c>
+      <c r="C225" s="1">
+        <v>46</v>
+      </c>
+      <c r="D225" s="1">
+        <v>500</v>
+      </c>
+      <c r="E225" s="1">
+        <v>46</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>56500000</v>
+      </c>
+      <c r="C226" s="2">
+        <v>14</v>
+      </c>
+      <c r="D226" s="2">
+        <v>30</v>
+      </c>
+      <c r="E226" s="2">
+        <v>14</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>56750000</v>
+      </c>
+      <c r="C227" s="1">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>5</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>57000000</v>
+      </c>
+      <c r="C228" s="1">
+        <v>30</v>
+      </c>
+      <c r="D228" s="1">
+        <v>800</v>
+      </c>
+      <c r="E228" s="1">
+        <v>30</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>57250000</v>
+      </c>
+      <c r="C229" s="1">
+        <v>20</v>
+      </c>
+      <c r="D229" s="1">
+        <v>500</v>
+      </c>
+      <c r="E229" s="1">
+        <v>20</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>57500000</v>
+      </c>
+      <c r="C230" s="1">
+        <v>46</v>
+      </c>
+      <c r="D230" s="1">
+        <v>500</v>
+      </c>
+      <c r="E230" s="1">
+        <v>46</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>57750000</v>
+      </c>
+      <c r="C231" s="2">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2">
+        <v>30</v>
+      </c>
+      <c r="E231" s="2">
+        <v>14</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>58000000</v>
+      </c>
+      <c r="C232" s="1">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>5</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>58250000</v>
+      </c>
+      <c r="C233" s="1">
+        <v>30</v>
+      </c>
+      <c r="D233" s="1">
+        <v>800</v>
+      </c>
+      <c r="E233" s="1">
+        <v>30</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>58500000</v>
+      </c>
+      <c r="C234" s="1">
+        <v>20</v>
+      </c>
+      <c r="D234" s="1">
+        <v>500</v>
+      </c>
+      <c r="E234" s="1">
+        <v>20</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>58750000</v>
+      </c>
+      <c r="C235" s="1">
+        <v>46</v>
+      </c>
+      <c r="D235" s="1">
+        <v>500</v>
+      </c>
+      <c r="E235" s="1">
+        <v>46</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>59000000</v>
+      </c>
+      <c r="C236" s="2">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2">
+        <v>30</v>
+      </c>
+      <c r="E236" s="2">
+        <v>14</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>59250000</v>
+      </c>
+      <c r="C237" s="1">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>5</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>59500000</v>
+      </c>
+      <c r="C238" s="1">
+        <v>30</v>
+      </c>
+      <c r="D238" s="1">
+        <v>800</v>
+      </c>
+      <c r="E238" s="1">
+        <v>30</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>59750000</v>
+      </c>
+      <c r="C239" s="1">
+        <v>20</v>
+      </c>
+      <c r="D239" s="1">
+        <v>500</v>
+      </c>
+      <c r="E239" s="1">
+        <v>20</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="C240" s="1">
+        <v>46</v>
+      </c>
+      <c r="D240" s="1">
+        <v>500</v>
+      </c>
+      <c r="E240" s="1">
+        <v>46</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>60250000</v>
+      </c>
+      <c r="C241" s="2">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2">
+        <v>30</v>
+      </c>
+      <c r="E241" s="2">
+        <v>14</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>60500000</v>
+      </c>
+      <c r="C242" s="1">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>5</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>60750000</v>
+      </c>
+      <c r="C243" s="1">
+        <v>30</v>
+      </c>
+      <c r="D243" s="1">
+        <v>800</v>
+      </c>
+      <c r="E243" s="1">
+        <v>30</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>61000000</v>
+      </c>
+      <c r="C244" s="1">
+        <v>20</v>
+      </c>
+      <c r="D244" s="1">
+        <v>500</v>
+      </c>
+      <c r="E244" s="1">
+        <v>20</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>61250000</v>
+      </c>
+      <c r="C245" s="1">
+        <v>46</v>
+      </c>
+      <c r="D245" s="1">
+        <v>500</v>
+      </c>
+      <c r="E245" s="1">
+        <v>46</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>61500000</v>
+      </c>
+      <c r="C246" s="2">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2">
+        <v>30</v>
+      </c>
+      <c r="E246" s="2">
+        <v>14</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>61750000</v>
+      </c>
+      <c r="C247" s="1">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>5</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>62000000</v>
+      </c>
+      <c r="C248" s="1">
+        <v>30</v>
+      </c>
+      <c r="D248" s="1">
+        <v>800</v>
+      </c>
+      <c r="E248" s="1">
+        <v>30</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>62250000</v>
+      </c>
+      <c r="C249" s="1">
+        <v>20</v>
+      </c>
+      <c r="D249" s="1">
+        <v>500</v>
+      </c>
+      <c r="E249" s="1">
+        <v>20</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>62500000</v>
+      </c>
+      <c r="C250" s="1">
+        <v>46</v>
+      </c>
+      <c r="D250" s="1">
+        <v>500</v>
+      </c>
+      <c r="E250" s="1">
+        <v>46</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>62750000</v>
+      </c>
+      <c r="C251" s="2">
+        <v>14</v>
+      </c>
+      <c r="D251" s="2">
+        <v>30</v>
+      </c>
+      <c r="E251" s="2">
+        <v>14</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>63000000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>5</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>63250000</v>
+      </c>
+      <c r="C253" s="1">
+        <v>30</v>
+      </c>
+      <c r="D253" s="1">
+        <v>800</v>
+      </c>
+      <c r="E253" s="1">
+        <v>30</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>63500000</v>
+      </c>
+      <c r="C254" s="1">
+        <v>20</v>
+      </c>
+      <c r="D254" s="1">
+        <v>500</v>
+      </c>
+      <c r="E254" s="1">
+        <v>20</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>63750000</v>
+      </c>
+      <c r="C255" s="1">
+        <v>46</v>
+      </c>
+      <c r="D255" s="1">
+        <v>500</v>
+      </c>
+      <c r="E255" s="1">
+        <v>46</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>64000000</v>
+      </c>
+      <c r="C256" s="2">
+        <v>14</v>
+      </c>
+      <c r="D256" s="2">
+        <v>30</v>
+      </c>
+      <c r="E256" s="2">
+        <v>14</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>64250000</v>
+      </c>
+      <c r="C257" s="1">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>5</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>64500000</v>
+      </c>
+      <c r="C258" s="1">
+        <v>30</v>
+      </c>
+      <c r="D258" s="1">
+        <v>800</v>
+      </c>
+      <c r="E258" s="1">
+        <v>30</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>64750000</v>
+      </c>
+      <c r="C259" s="1">
+        <v>20</v>
+      </c>
+      <c r="D259" s="1">
+        <v>500</v>
+      </c>
+      <c r="E259" s="1">
+        <v>20</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>65000000</v>
+      </c>
+      <c r="C260" s="1">
+        <v>46</v>
+      </c>
+      <c r="D260" s="1">
+        <v>500</v>
+      </c>
+      <c r="E260" s="1">
+        <v>46</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>65250000</v>
+      </c>
+      <c r="C261" s="2">
+        <v>14</v>
+      </c>
+      <c r="D261" s="2">
+        <v>30</v>
+      </c>
+      <c r="E261" s="2">
+        <v>14</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>65500000</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>5</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>65750000</v>
+      </c>
+      <c r="C263" s="1">
+        <v>30</v>
+      </c>
+      <c r="D263" s="1">
+        <v>800</v>
+      </c>
+      <c r="E263" s="1">
+        <v>30</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="C264" s="1">
+        <v>20</v>
+      </c>
+      <c r="D264" s="1">
+        <v>500</v>
+      </c>
+      <c r="E264" s="1">
+        <v>20</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66250000</v>
+      </c>
+      <c r="C265" s="1">
+        <v>46</v>
+      </c>
+      <c r="D265" s="1">
+        <v>500</v>
+      </c>
+      <c r="E265" s="1">
+        <v>46</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66500000</v>
+      </c>
+      <c r="C266" s="2">
+        <v>14</v>
+      </c>
+      <c r="D266" s="2">
+        <v>30</v>
+      </c>
+      <c r="E266" s="2">
+        <v>14</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66750000</v>
+      </c>
+      <c r="C267" s="1">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>5</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>67000000</v>
+      </c>
+      <c r="C268" s="1">
+        <v>30</v>
+      </c>
+      <c r="D268" s="1">
+        <v>800</v>
+      </c>
+      <c r="E268" s="1">
+        <v>30</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>67250000</v>
+      </c>
+      <c r="C269" s="1">
+        <v>20</v>
+      </c>
+      <c r="D269" s="1">
+        <v>500</v>
+      </c>
+      <c r="E269" s="1">
+        <v>20</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>67500000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>46</v>
+      </c>
+      <c r="D270" s="1">
+        <v>500</v>
+      </c>
+      <c r="E270" s="1">
+        <v>46</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>67750000</v>
+      </c>
+      <c r="C271" s="2">
+        <v>14</v>
+      </c>
+      <c r="D271" s="2">
+        <v>30</v>
+      </c>
+      <c r="E271" s="2">
+        <v>14</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>68000000</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>5</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>68250000</v>
+      </c>
+      <c r="C273" s="1">
+        <v>30</v>
+      </c>
+      <c r="D273" s="1">
+        <v>800</v>
+      </c>
+      <c r="E273" s="1">
+        <v>30</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>68500000</v>
+      </c>
+      <c r="C274" s="1">
+        <v>20</v>
+      </c>
+      <c r="D274" s="1">
+        <v>500</v>
+      </c>
+      <c r="E274" s="1">
+        <v>20</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>68750000</v>
+      </c>
+      <c r="C275" s="1">
+        <v>46</v>
+      </c>
+      <c r="D275" s="1">
+        <v>500</v>
+      </c>
+      <c r="E275" s="1">
+        <v>46</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>69000000</v>
+      </c>
+      <c r="C276" s="2">
+        <v>14</v>
+      </c>
+      <c r="D276" s="2">
+        <v>30</v>
+      </c>
+      <c r="E276" s="2">
+        <v>14</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>69250000</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E277" s="1">
+        <v>5</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>69500000</v>
+      </c>
+      <c r="C278" s="1">
+        <v>30</v>
+      </c>
+      <c r="D278" s="1">
+        <v>800</v>
+      </c>
+      <c r="E278" s="1">
+        <v>30</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>69750000</v>
+      </c>
+      <c r="C279" s="1">
+        <v>20</v>
+      </c>
+      <c r="D279" s="1">
+        <v>500</v>
+      </c>
+      <c r="E279" s="1">
+        <v>20</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="C280" s="1">
+        <v>46</v>
+      </c>
+      <c r="D280" s="1">
+        <v>500</v>
+      </c>
+      <c r="E280" s="1">
+        <v>46</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>70250000</v>
+      </c>
+      <c r="C281" s="2">
+        <v>14</v>
+      </c>
+      <c r="D281" s="2">
+        <v>30</v>
+      </c>
+      <c r="E281" s="2">
+        <v>14</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>70500000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>5</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>70750000</v>
+      </c>
+      <c r="C283" s="1">
+        <v>30</v>
+      </c>
+      <c r="D283" s="1">
+        <v>800</v>
+      </c>
+      <c r="E283" s="1">
+        <v>30</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>71000000</v>
+      </c>
+      <c r="C284" s="1">
+        <v>20</v>
+      </c>
+      <c r="D284" s="1">
+        <v>500</v>
+      </c>
+      <c r="E284" s="1">
+        <v>20</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>71250000</v>
+      </c>
+      <c r="C285" s="1">
+        <v>46</v>
+      </c>
+      <c r="D285" s="1">
+        <v>500</v>
+      </c>
+      <c r="E285" s="1">
+        <v>46</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>71500000</v>
+      </c>
+      <c r="C286" s="2">
+        <v>14</v>
+      </c>
+      <c r="D286" s="2">
+        <v>30</v>
+      </c>
+      <c r="E286" s="2">
+        <v>14</v>
+      </c>
+      <c r="F286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>71750000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E287" s="1">
+        <v>5</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>72000000</v>
+      </c>
+      <c r="C288" s="1">
+        <v>30</v>
+      </c>
+      <c r="D288" s="1">
+        <v>800</v>
+      </c>
+      <c r="E288" s="1">
+        <v>30</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>72250000</v>
+      </c>
+      <c r="C289" s="1">
+        <v>20</v>
+      </c>
+      <c r="D289" s="1">
+        <v>500</v>
+      </c>
+      <c r="E289" s="1">
+        <v>20</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>72500000</v>
+      </c>
+      <c r="C290" s="1">
+        <v>46</v>
+      </c>
+      <c r="D290" s="1">
+        <v>500</v>
+      </c>
+      <c r="E290" s="1">
+        <v>46</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>72750000</v>
+      </c>
+      <c r="C291" s="2">
+        <v>14</v>
+      </c>
+      <c r="D291" s="2">
+        <v>30</v>
+      </c>
+      <c r="E291" s="2">
+        <v>14</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>73000000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>73250000</v>
+      </c>
+      <c r="C293" s="1">
+        <v>30</v>
+      </c>
+      <c r="D293" s="1">
+        <v>800</v>
+      </c>
+      <c r="E293" s="1">
+        <v>30</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>73500000</v>
+      </c>
+      <c r="C294" s="1">
+        <v>20</v>
+      </c>
+      <c r="D294" s="1">
+        <v>500</v>
+      </c>
+      <c r="E294" s="1">
+        <v>20</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>73750000</v>
+      </c>
+      <c r="C295" s="1">
+        <v>46</v>
+      </c>
+      <c r="D295" s="1">
+        <v>500</v>
+      </c>
+      <c r="E295" s="1">
+        <v>46</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>74000000</v>
+      </c>
+      <c r="C296" s="2">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2">
+        <v>30</v>
+      </c>
+      <c r="E296" s="2">
+        <v>14</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>74250000</v>
+      </c>
+      <c r="C297" s="1">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E297" s="1">
+        <v>5</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>74500000</v>
+      </c>
+      <c r="C298" s="1">
+        <v>30</v>
+      </c>
+      <c r="D298" s="1">
+        <v>800</v>
+      </c>
+      <c r="E298" s="1">
+        <v>30</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>74750000</v>
+      </c>
+      <c r="C299" s="1">
+        <v>20</v>
+      </c>
+      <c r="D299" s="1">
+        <v>500</v>
+      </c>
+      <c r="E299" s="1">
+        <v>20</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>75000000</v>
+      </c>
+      <c r="C300" s="1">
+        <v>46</v>
+      </c>
+      <c r="D300" s="1">
+        <v>500</v>
+      </c>
+      <c r="E300" s="1">
+        <v>46</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>75250000</v>
+      </c>
+      <c r="C301" s="2">
+        <v>14</v>
+      </c>
+      <c r="D301" s="2">
+        <v>30</v>
+      </c>
+      <c r="E301" s="2">
+        <v>14</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>75500000</v>
+      </c>
+      <c r="C302" s="1">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E302" s="1">
+        <v>5</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>75750000</v>
+      </c>
+      <c r="C303" s="1">
+        <v>30</v>
+      </c>
+      <c r="D303" s="1">
+        <v>800</v>
+      </c>
+      <c r="E303" s="1">
+        <v>30</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>76000000</v>
+      </c>
+      <c r="C304" s="1">
+        <v>20</v>
+      </c>
+      <c r="D304" s="1">
+        <v>500</v>
+      </c>
+      <c r="E304" s="1">
+        <v>20</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>76250000</v>
+      </c>
+      <c r="C305" s="1">
+        <v>46</v>
+      </c>
+      <c r="D305" s="1">
+        <v>500</v>
+      </c>
+      <c r="E305" s="1">
+        <v>46</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>76500000</v>
+      </c>
+      <c r="C306" s="2">
+        <v>14</v>
+      </c>
+      <c r="D306" s="2">
+        <v>30</v>
+      </c>
+      <c r="E306" s="2">
+        <v>14</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>76750000</v>
+      </c>
+      <c r="C307" s="1">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E307" s="1">
+        <v>5</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>77000000</v>
+      </c>
+      <c r="C308" s="1">
+        <v>30</v>
+      </c>
+      <c r="D308" s="1">
+        <v>800</v>
+      </c>
+      <c r="E308" s="1">
+        <v>30</v>
+      </c>
+      <c r="F308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>77250000</v>
+      </c>
+      <c r="C309" s="1">
+        <v>20</v>
+      </c>
+      <c r="D309" s="1">
+        <v>500</v>
+      </c>
+      <c r="E309" s="1">
+        <v>20</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>77500000</v>
+      </c>
+      <c r="C310" s="1">
+        <v>46</v>
+      </c>
+      <c r="D310" s="1">
+        <v>500</v>
+      </c>
+      <c r="E310" s="1">
+        <v>46</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>77750000</v>
+      </c>
+      <c r="C311" s="2">
+        <v>14</v>
+      </c>
+      <c r="D311" s="2">
+        <v>30</v>
+      </c>
+      <c r="E311" s="2">
+        <v>14</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>78000000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>5</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>5</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>78250000</v>
+      </c>
+      <c r="C313" s="1">
+        <v>30</v>
+      </c>
+      <c r="D313" s="1">
+        <v>800</v>
+      </c>
+      <c r="E313" s="1">
+        <v>30</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>78500000</v>
+      </c>
+      <c r="C314" s="1">
+        <v>20</v>
+      </c>
+      <c r="D314" s="1">
+        <v>500</v>
+      </c>
+      <c r="E314" s="1">
+        <v>20</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>78750000</v>
+      </c>
+      <c r="C315" s="1">
+        <v>46</v>
+      </c>
+      <c r="D315" s="1">
+        <v>500</v>
+      </c>
+      <c r="E315" s="1">
+        <v>46</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="C316" s="2">
+        <v>14</v>
+      </c>
+      <c r="D316" s="2">
+        <v>30</v>
+      </c>
+      <c r="E316" s="2">
+        <v>14</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>79250000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>5</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>79500000</v>
+      </c>
+      <c r="C318" s="1">
+        <v>30</v>
+      </c>
+      <c r="D318" s="1">
+        <v>800</v>
+      </c>
+      <c r="E318" s="1">
+        <v>30</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>79750000</v>
+      </c>
+      <c r="C319" s="1">
+        <v>20</v>
+      </c>
+      <c r="D319" s="1">
+        <v>500</v>
+      </c>
+      <c r="E319" s="1">
+        <v>20</v>
+      </c>
+      <c r="F319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="C320" s="1">
+        <v>46</v>
+      </c>
+      <c r="D320" s="1">
+        <v>500</v>
+      </c>
+      <c r="E320" s="1">
+        <v>46</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F75A3-4F24-42F7-9DF5-36DE5D4069FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236D0C4-DCCB-40C5-95BD-DF9BB96795E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L371" sqref="L371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6872,6 +6872,1606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>80250000</v>
+      </c>
+      <c r="C321" s="2">
+        <v>14</v>
+      </c>
+      <c r="D321" s="2">
+        <v>30</v>
+      </c>
+      <c r="E321" s="2">
+        <v>14</v>
+      </c>
+      <c r="F321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>80500000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>5</v>
+      </c>
+      <c r="D322" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>5</v>
+      </c>
+      <c r="F322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>80750000</v>
+      </c>
+      <c r="C323" s="1">
+        <v>30</v>
+      </c>
+      <c r="D323" s="1">
+        <v>800</v>
+      </c>
+      <c r="E323" s="1">
+        <v>30</v>
+      </c>
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>81000000</v>
+      </c>
+      <c r="C324" s="1">
+        <v>20</v>
+      </c>
+      <c r="D324" s="1">
+        <v>500</v>
+      </c>
+      <c r="E324" s="1">
+        <v>20</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>81250000</v>
+      </c>
+      <c r="C325" s="1">
+        <v>46</v>
+      </c>
+      <c r="D325" s="1">
+        <v>500</v>
+      </c>
+      <c r="E325" s="1">
+        <v>46</v>
+      </c>
+      <c r="F325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>81500000</v>
+      </c>
+      <c r="C326" s="2">
+        <v>14</v>
+      </c>
+      <c r="D326" s="2">
+        <v>30</v>
+      </c>
+      <c r="E326" s="2">
+        <v>14</v>
+      </c>
+      <c r="F326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>81750000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>5</v>
+      </c>
+      <c r="D327" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>5</v>
+      </c>
+      <c r="F327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>82000000</v>
+      </c>
+      <c r="C328" s="1">
+        <v>30</v>
+      </c>
+      <c r="D328" s="1">
+        <v>800</v>
+      </c>
+      <c r="E328" s="1">
+        <v>30</v>
+      </c>
+      <c r="F328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>82250000</v>
+      </c>
+      <c r="C329" s="1">
+        <v>20</v>
+      </c>
+      <c r="D329" s="1">
+        <v>500</v>
+      </c>
+      <c r="E329" s="1">
+        <v>20</v>
+      </c>
+      <c r="F329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>82500000</v>
+      </c>
+      <c r="C330" s="1">
+        <v>46</v>
+      </c>
+      <c r="D330" s="1">
+        <v>500</v>
+      </c>
+      <c r="E330" s="1">
+        <v>46</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>82750000</v>
+      </c>
+      <c r="C331" s="2">
+        <v>14</v>
+      </c>
+      <c r="D331" s="2">
+        <v>30</v>
+      </c>
+      <c r="E331" s="2">
+        <v>14</v>
+      </c>
+      <c r="F331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>83000000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>5</v>
+      </c>
+      <c r="F332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>83250000</v>
+      </c>
+      <c r="C333" s="1">
+        <v>30</v>
+      </c>
+      <c r="D333" s="1">
+        <v>800</v>
+      </c>
+      <c r="E333" s="1">
+        <v>30</v>
+      </c>
+      <c r="F333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>83500000</v>
+      </c>
+      <c r="C334" s="1">
+        <v>20</v>
+      </c>
+      <c r="D334" s="1">
+        <v>500</v>
+      </c>
+      <c r="E334" s="1">
+        <v>20</v>
+      </c>
+      <c r="F334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>83750000</v>
+      </c>
+      <c r="C335" s="1">
+        <v>46</v>
+      </c>
+      <c r="D335" s="1">
+        <v>500</v>
+      </c>
+      <c r="E335" s="1">
+        <v>46</v>
+      </c>
+      <c r="F335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="C336" s="2">
+        <v>14</v>
+      </c>
+      <c r="D336" s="2">
+        <v>30</v>
+      </c>
+      <c r="E336" s="2">
+        <v>14</v>
+      </c>
+      <c r="F336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1">
+        <v>84250000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>5</v>
+      </c>
+      <c r="D337" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E337" s="1">
+        <v>5</v>
+      </c>
+      <c r="F337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>84500000</v>
+      </c>
+      <c r="C338" s="1">
+        <v>30</v>
+      </c>
+      <c r="D338" s="1">
+        <v>800</v>
+      </c>
+      <c r="E338" s="1">
+        <v>30</v>
+      </c>
+      <c r="F338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1">
+        <v>84750000</v>
+      </c>
+      <c r="C339" s="1">
+        <v>20</v>
+      </c>
+      <c r="D339" s="1">
+        <v>500</v>
+      </c>
+      <c r="E339" s="1">
+        <v>20</v>
+      </c>
+      <c r="F339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="C340" s="1">
+        <v>46</v>
+      </c>
+      <c r="D340" s="1">
+        <v>500</v>
+      </c>
+      <c r="E340" s="1">
+        <v>46</v>
+      </c>
+      <c r="F340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1">
+        <v>85250000</v>
+      </c>
+      <c r="C341" s="2">
+        <v>14</v>
+      </c>
+      <c r="D341" s="2">
+        <v>30</v>
+      </c>
+      <c r="E341" s="2">
+        <v>14</v>
+      </c>
+      <c r="F341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>85500000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>5</v>
+      </c>
+      <c r="F342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>85750000</v>
+      </c>
+      <c r="C343" s="1">
+        <v>30</v>
+      </c>
+      <c r="D343" s="1">
+        <v>800</v>
+      </c>
+      <c r="E343" s="1">
+        <v>30</v>
+      </c>
+      <c r="F343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1">
+        <v>86000000</v>
+      </c>
+      <c r="C344" s="1">
+        <v>20</v>
+      </c>
+      <c r="D344" s="1">
+        <v>500</v>
+      </c>
+      <c r="E344" s="1">
+        <v>20</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>86250000</v>
+      </c>
+      <c r="C345" s="1">
+        <v>46</v>
+      </c>
+      <c r="D345" s="1">
+        <v>500</v>
+      </c>
+      <c r="E345" s="1">
+        <v>46</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1">
+        <v>86500000</v>
+      </c>
+      <c r="C346" s="2">
+        <v>14</v>
+      </c>
+      <c r="D346" s="2">
+        <v>30</v>
+      </c>
+      <c r="E346" s="2">
+        <v>14</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>86750000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>5</v>
+      </c>
+      <c r="D347" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>5</v>
+      </c>
+      <c r="F347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1">
+        <v>87000000</v>
+      </c>
+      <c r="C348" s="1">
+        <v>30</v>
+      </c>
+      <c r="D348" s="1">
+        <v>800</v>
+      </c>
+      <c r="E348" s="1">
+        <v>30</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>87250000</v>
+      </c>
+      <c r="C349" s="1">
+        <v>20</v>
+      </c>
+      <c r="D349" s="1">
+        <v>500</v>
+      </c>
+      <c r="E349" s="1">
+        <v>20</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>87500000</v>
+      </c>
+      <c r="C350" s="1">
+        <v>46</v>
+      </c>
+      <c r="D350" s="1">
+        <v>500</v>
+      </c>
+      <c r="E350" s="1">
+        <v>46</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1">
+        <v>87750000</v>
+      </c>
+      <c r="C351" s="2">
+        <v>14</v>
+      </c>
+      <c r="D351" s="2">
+        <v>30</v>
+      </c>
+      <c r="E351" s="2">
+        <v>14</v>
+      </c>
+      <c r="F351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>88000000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>5</v>
+      </c>
+      <c r="D352" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>5</v>
+      </c>
+      <c r="F352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>88250000</v>
+      </c>
+      <c r="C353" s="1">
+        <v>30</v>
+      </c>
+      <c r="D353" s="1">
+        <v>800</v>
+      </c>
+      <c r="E353" s="1">
+        <v>30</v>
+      </c>
+      <c r="F353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>88500000</v>
+      </c>
+      <c r="C354" s="1">
+        <v>20</v>
+      </c>
+      <c r="D354" s="1">
+        <v>500</v>
+      </c>
+      <c r="E354" s="1">
+        <v>20</v>
+      </c>
+      <c r="F354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1">
+        <v>88750000</v>
+      </c>
+      <c r="C355" s="1">
+        <v>46</v>
+      </c>
+      <c r="D355" s="1">
+        <v>500</v>
+      </c>
+      <c r="E355" s="1">
+        <v>46</v>
+      </c>
+      <c r="F355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1">
+        <v>89000000</v>
+      </c>
+      <c r="C356" s="2">
+        <v>14</v>
+      </c>
+      <c r="D356" s="2">
+        <v>30</v>
+      </c>
+      <c r="E356" s="2">
+        <v>14</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1">
+        <v>89250000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>5</v>
+      </c>
+      <c r="D357" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>5</v>
+      </c>
+      <c r="F357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1">
+        <v>89500000</v>
+      </c>
+      <c r="C358" s="1">
+        <v>30</v>
+      </c>
+      <c r="D358" s="1">
+        <v>800</v>
+      </c>
+      <c r="E358" s="1">
+        <v>30</v>
+      </c>
+      <c r="F358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>89750000</v>
+      </c>
+      <c r="C359" s="1">
+        <v>20</v>
+      </c>
+      <c r="D359" s="1">
+        <v>500</v>
+      </c>
+      <c r="E359" s="1">
+        <v>20</v>
+      </c>
+      <c r="F359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="C360" s="1">
+        <v>46</v>
+      </c>
+      <c r="D360" s="1">
+        <v>500</v>
+      </c>
+      <c r="E360" s="1">
+        <v>46</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1">
+        <v>90250000</v>
+      </c>
+      <c r="C361" s="2">
+        <v>14</v>
+      </c>
+      <c r="D361" s="2">
+        <v>30</v>
+      </c>
+      <c r="E361" s="2">
+        <v>14</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>90500000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>5</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>90750000</v>
+      </c>
+      <c r="C363" s="1">
+        <v>30</v>
+      </c>
+      <c r="D363" s="1">
+        <v>800</v>
+      </c>
+      <c r="E363" s="1">
+        <v>30</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>91000000</v>
+      </c>
+      <c r="C364" s="1">
+        <v>20</v>
+      </c>
+      <c r="D364" s="1">
+        <v>500</v>
+      </c>
+      <c r="E364" s="1">
+        <v>20</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>91250000</v>
+      </c>
+      <c r="C365" s="1">
+        <v>46</v>
+      </c>
+      <c r="D365" s="1">
+        <v>500</v>
+      </c>
+      <c r="E365" s="1">
+        <v>46</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1">
+        <v>91500000</v>
+      </c>
+      <c r="C366" s="2">
+        <v>14</v>
+      </c>
+      <c r="D366" s="2">
+        <v>30</v>
+      </c>
+      <c r="E366" s="2">
+        <v>14</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>91750000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>5</v>
+      </c>
+      <c r="D367" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>5</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>92000000</v>
+      </c>
+      <c r="C368" s="1">
+        <v>30</v>
+      </c>
+      <c r="D368" s="1">
+        <v>800</v>
+      </c>
+      <c r="E368" s="1">
+        <v>30</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>92250000</v>
+      </c>
+      <c r="C369" s="1">
+        <v>20</v>
+      </c>
+      <c r="D369" s="1">
+        <v>500</v>
+      </c>
+      <c r="E369" s="1">
+        <v>20</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>92500000</v>
+      </c>
+      <c r="C370" s="1">
+        <v>46</v>
+      </c>
+      <c r="D370" s="1">
+        <v>500</v>
+      </c>
+      <c r="E370" s="1">
+        <v>46</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>92750000</v>
+      </c>
+      <c r="C371" s="2">
+        <v>14</v>
+      </c>
+      <c r="D371" s="2">
+        <v>30</v>
+      </c>
+      <c r="E371" s="2">
+        <v>14</v>
+      </c>
+      <c r="F371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>93000000</v>
+      </c>
+      <c r="C372" s="1">
+        <v>5</v>
+      </c>
+      <c r="D372" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E372" s="1">
+        <v>5</v>
+      </c>
+      <c r="F372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>93250000</v>
+      </c>
+      <c r="C373" s="1">
+        <v>30</v>
+      </c>
+      <c r="D373" s="1">
+        <v>800</v>
+      </c>
+      <c r="E373" s="1">
+        <v>30</v>
+      </c>
+      <c r="F373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>93500000</v>
+      </c>
+      <c r="C374" s="1">
+        <v>20</v>
+      </c>
+      <c r="D374" s="1">
+        <v>500</v>
+      </c>
+      <c r="E374" s="1">
+        <v>20</v>
+      </c>
+      <c r="F374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>93750000</v>
+      </c>
+      <c r="C375" s="1">
+        <v>46</v>
+      </c>
+      <c r="D375" s="1">
+        <v>500</v>
+      </c>
+      <c r="E375" s="1">
+        <v>46</v>
+      </c>
+      <c r="F375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1">
+        <v>94000000</v>
+      </c>
+      <c r="C376" s="2">
+        <v>14</v>
+      </c>
+      <c r="D376" s="2">
+        <v>30</v>
+      </c>
+      <c r="E376" s="2">
+        <v>14</v>
+      </c>
+      <c r="F376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>94250000</v>
+      </c>
+      <c r="C377" s="1">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E377" s="1">
+        <v>5</v>
+      </c>
+      <c r="F377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>94500000</v>
+      </c>
+      <c r="C378" s="1">
+        <v>30</v>
+      </c>
+      <c r="D378" s="1">
+        <v>800</v>
+      </c>
+      <c r="E378" s="1">
+        <v>30</v>
+      </c>
+      <c r="F378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>94750000</v>
+      </c>
+      <c r="C379" s="1">
+        <v>20</v>
+      </c>
+      <c r="D379" s="1">
+        <v>500</v>
+      </c>
+      <c r="E379" s="1">
+        <v>20</v>
+      </c>
+      <c r="F379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="C380" s="1">
+        <v>46</v>
+      </c>
+      <c r="D380" s="1">
+        <v>500</v>
+      </c>
+      <c r="E380" s="1">
+        <v>46</v>
+      </c>
+      <c r="F380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>95250000</v>
+      </c>
+      <c r="C381" s="2">
+        <v>14</v>
+      </c>
+      <c r="D381" s="2">
+        <v>30</v>
+      </c>
+      <c r="E381" s="2">
+        <v>14</v>
+      </c>
+      <c r="F381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>95500000</v>
+      </c>
+      <c r="C382" s="1">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E382" s="1">
+        <v>5</v>
+      </c>
+      <c r="F382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>95750000</v>
+      </c>
+      <c r="C383" s="1">
+        <v>30</v>
+      </c>
+      <c r="D383" s="1">
+        <v>800</v>
+      </c>
+      <c r="E383" s="1">
+        <v>30</v>
+      </c>
+      <c r="F383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>96000000</v>
+      </c>
+      <c r="C384" s="1">
+        <v>20</v>
+      </c>
+      <c r="D384" s="1">
+        <v>500</v>
+      </c>
+      <c r="E384" s="1">
+        <v>20</v>
+      </c>
+      <c r="F384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>96250000</v>
+      </c>
+      <c r="C385" s="1">
+        <v>46</v>
+      </c>
+      <c r="D385" s="1">
+        <v>500</v>
+      </c>
+      <c r="E385" s="1">
+        <v>46</v>
+      </c>
+      <c r="F385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>96500000</v>
+      </c>
+      <c r="C386" s="2">
+        <v>14</v>
+      </c>
+      <c r="D386" s="2">
+        <v>30</v>
+      </c>
+      <c r="E386" s="2">
+        <v>14</v>
+      </c>
+      <c r="F386" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>96750000</v>
+      </c>
+      <c r="C387" s="1">
+        <v>5</v>
+      </c>
+      <c r="D387" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E387" s="1">
+        <v>5</v>
+      </c>
+      <c r="F387" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>97000000</v>
+      </c>
+      <c r="C388" s="1">
+        <v>30</v>
+      </c>
+      <c r="D388" s="1">
+        <v>800</v>
+      </c>
+      <c r="E388" s="1">
+        <v>30</v>
+      </c>
+      <c r="F388" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>97250000</v>
+      </c>
+      <c r="C389" s="1">
+        <v>20</v>
+      </c>
+      <c r="D389" s="1">
+        <v>500</v>
+      </c>
+      <c r="E389" s="1">
+        <v>20</v>
+      </c>
+      <c r="F389" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>97500000</v>
+      </c>
+      <c r="C390" s="1">
+        <v>46</v>
+      </c>
+      <c r="D390" s="1">
+        <v>500</v>
+      </c>
+      <c r="E390" s="1">
+        <v>46</v>
+      </c>
+      <c r="F390" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>97750000</v>
+      </c>
+      <c r="C391" s="2">
+        <v>14</v>
+      </c>
+      <c r="D391" s="2">
+        <v>30</v>
+      </c>
+      <c r="E391" s="2">
+        <v>14</v>
+      </c>
+      <c r="F391" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="C392" s="1">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>5</v>
+      </c>
+      <c r="F392" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>98250000</v>
+      </c>
+      <c r="C393" s="1">
+        <v>30</v>
+      </c>
+      <c r="D393" s="1">
+        <v>800</v>
+      </c>
+      <c r="E393" s="1">
+        <v>30</v>
+      </c>
+      <c r="F393" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>98500000</v>
+      </c>
+      <c r="C394" s="1">
+        <v>20</v>
+      </c>
+      <c r="D394" s="1">
+        <v>500</v>
+      </c>
+      <c r="E394" s="1">
+        <v>20</v>
+      </c>
+      <c r="F394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>98750000</v>
+      </c>
+      <c r="C395" s="1">
+        <v>46</v>
+      </c>
+      <c r="D395" s="1">
+        <v>500</v>
+      </c>
+      <c r="E395" s="1">
+        <v>46</v>
+      </c>
+      <c r="F395" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>99000000</v>
+      </c>
+      <c r="C396" s="2">
+        <v>14</v>
+      </c>
+      <c r="D396" s="2">
+        <v>30</v>
+      </c>
+      <c r="E396" s="2">
+        <v>14</v>
+      </c>
+      <c r="F396" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>99250000</v>
+      </c>
+      <c r="C397" s="1">
+        <v>5</v>
+      </c>
+      <c r="D397" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E397" s="1">
+        <v>5</v>
+      </c>
+      <c r="F397" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>99500000</v>
+      </c>
+      <c r="C398" s="1">
+        <v>30</v>
+      </c>
+      <c r="D398" s="1">
+        <v>800</v>
+      </c>
+      <c r="E398" s="1">
+        <v>30</v>
+      </c>
+      <c r="F398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>99750000</v>
+      </c>
+      <c r="C399" s="1">
+        <v>20</v>
+      </c>
+      <c r="D399" s="1">
+        <v>500</v>
+      </c>
+      <c r="E399" s="1">
+        <v>20</v>
+      </c>
+      <c r="F399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="C400" s="1">
+        <v>46</v>
+      </c>
+      <c r="D400" s="1">
+        <v>500</v>
+      </c>
+      <c r="E400" s="1">
+        <v>46</v>
+      </c>
+      <c r="F400" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0D22D-30C1-4849-86E6-22BEEE2BCBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3C80E-8AE8-4F7C-BF1C-8D52299283C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E412" sqref="E412"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D402" sqref="D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,13 +583,13 @@
         <v>73</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2">
         <v>73</v>
       </c>
       <c r="F6" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>88</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1">
         <v>88</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>73</v>
       </c>
       <c r="D12" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2">
         <v>73</v>
       </c>
       <c r="F12" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>88</v>
       </c>
       <c r="D13" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1">
         <v>88</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>73</v>
       </c>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E18" s="2">
         <v>73</v>
       </c>
       <c r="F18" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>88</v>
       </c>
       <c r="D19" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1">
         <v>88</v>
       </c>
       <c r="F19" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>73</v>
       </c>
       <c r="D24" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E24" s="2">
         <v>73</v>
       </c>
       <c r="F24" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +963,13 @@
         <v>88</v>
       </c>
       <c r="D25" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1">
         <v>88</v>
       </c>
       <c r="F25" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>73</v>
       </c>
       <c r="D30" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2">
         <v>73</v>
       </c>
       <c r="F30" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
         <v>88</v>
       </c>
       <c r="D31" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1">
         <v>88</v>
       </c>
       <c r="F31" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>73</v>
       </c>
       <c r="D36" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E36" s="2">
         <v>73</v>
       </c>
       <c r="F36" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>88</v>
       </c>
       <c r="D37" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1">
         <v>88</v>
       </c>
       <c r="F37" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>73</v>
       </c>
       <c r="D42" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E42" s="2">
         <v>73</v>
       </c>
       <c r="F42" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>88</v>
       </c>
       <c r="D43" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1">
         <v>88</v>
       </c>
       <c r="F43" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,13 +1423,13 @@
         <v>73</v>
       </c>
       <c r="D48" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E48" s="2">
         <v>73</v>
       </c>
       <c r="F48" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,13 +1443,13 @@
         <v>88</v>
       </c>
       <c r="D49" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1">
         <v>88</v>
       </c>
       <c r="F49" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>73</v>
       </c>
       <c r="D54" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E54" s="2">
         <v>73</v>
       </c>
       <c r="F54" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>88</v>
       </c>
       <c r="D55" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1">
         <v>88</v>
       </c>
       <c r="F55" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>73</v>
       </c>
       <c r="D60" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E60" s="2">
         <v>73</v>
       </c>
       <c r="F60" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>88</v>
       </c>
       <c r="D61" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E61" s="1">
         <v>88</v>
       </c>
       <c r="F61" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>73</v>
       </c>
       <c r="D66" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E66" s="2">
         <v>73</v>
       </c>
       <c r="F66" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>88</v>
       </c>
       <c r="D67" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E67" s="1">
         <v>88</v>
       </c>
       <c r="F67" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,13 +1903,13 @@
         <v>73</v>
       </c>
       <c r="D72" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2">
         <v>73</v>
       </c>
       <c r="F72" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>88</v>
       </c>
       <c r="D73" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E73" s="1">
         <v>88</v>
       </c>
       <c r="F73" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>73</v>
       </c>
       <c r="D78" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2">
         <v>73</v>
       </c>
       <c r="F78" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>88</v>
       </c>
       <c r="D79" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E79" s="1">
         <v>88</v>
       </c>
       <c r="F79" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>73</v>
       </c>
       <c r="D84" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2">
         <v>73</v>
       </c>
       <c r="F84" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>88</v>
       </c>
       <c r="D85" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E85" s="1">
         <v>88</v>
       </c>
       <c r="F85" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>73</v>
       </c>
       <c r="D90" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2">
         <v>73</v>
       </c>
       <c r="F90" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,13 +2283,13 @@
         <v>88</v>
       </c>
       <c r="D91" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E91" s="1">
         <v>88</v>
       </c>
       <c r="F91" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>73</v>
       </c>
       <c r="D96" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2">
         <v>73</v>
       </c>
       <c r="F96" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2403,13 @@
         <v>88</v>
       </c>
       <c r="D97" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E97" s="1">
         <v>88</v>
       </c>
       <c r="F97" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>73</v>
       </c>
       <c r="D102" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2">
         <v>73</v>
       </c>
       <c r="F102" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>88</v>
       </c>
       <c r="D103" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E103" s="1">
         <v>88</v>
       </c>
       <c r="F103" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,13 +2623,13 @@
         <v>73</v>
       </c>
       <c r="D108" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2">
         <v>73</v>
       </c>
       <c r="F108" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,13 +2643,13 @@
         <v>88</v>
       </c>
       <c r="D109" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E109" s="1">
         <v>88</v>
       </c>
       <c r="F109" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>73</v>
       </c>
       <c r="D114" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2">
         <v>73</v>
       </c>
       <c r="F114" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>88</v>
       </c>
       <c r="D115" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E115" s="1">
         <v>88</v>
       </c>
       <c r="F115" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,13 +2863,13 @@
         <v>73</v>
       </c>
       <c r="D120" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2">
         <v>73</v>
       </c>
       <c r="F120" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>88</v>
       </c>
       <c r="D121" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E121" s="1">
         <v>88</v>
       </c>
       <c r="F121" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>73</v>
       </c>
       <c r="D126" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2">
         <v>73</v>
       </c>
       <c r="F126" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3003,13 @@
         <v>88</v>
       </c>
       <c r="D127" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E127" s="1">
         <v>88</v>
       </c>
       <c r="F127" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>73</v>
       </c>
       <c r="D132" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2">
         <v>73</v>
       </c>
       <c r="F132" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,13 +3123,13 @@
         <v>88</v>
       </c>
       <c r="D133" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E133" s="1">
         <v>88</v>
       </c>
       <c r="F133" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>73</v>
       </c>
       <c r="D138" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2">
         <v>73</v>
       </c>
       <c r="F138" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>88</v>
       </c>
       <c r="D139" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E139" s="1">
         <v>88</v>
       </c>
       <c r="F139" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
         <v>73</v>
       </c>
       <c r="D144" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2">
         <v>73</v>
       </c>
       <c r="F144" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3363,13 +3363,13 @@
         <v>88</v>
       </c>
       <c r="D145" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E145" s="1">
         <v>88</v>
       </c>
       <c r="F145" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,13 +3463,13 @@
         <v>73</v>
       </c>
       <c r="D150" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2">
         <v>73</v>
       </c>
       <c r="F150" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>88</v>
       </c>
       <c r="D151" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E151" s="1">
         <v>88</v>
       </c>
       <c r="F151" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3583,13 +3583,13 @@
         <v>73</v>
       </c>
       <c r="D156" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2">
         <v>73</v>
       </c>
       <c r="F156" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>88</v>
       </c>
       <c r="D157" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E157" s="1">
         <v>88</v>
       </c>
       <c r="F157" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,13 +3703,13 @@
         <v>73</v>
       </c>
       <c r="D162" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2">
         <v>73</v>
       </c>
       <c r="F162" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>88</v>
       </c>
       <c r="D163" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E163" s="1">
         <v>88</v>
       </c>
       <c r="F163" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,13 +3823,13 @@
         <v>73</v>
       </c>
       <c r="D168" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2">
         <v>73</v>
       </c>
       <c r="F168" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>88</v>
       </c>
       <c r="D169" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E169" s="1">
         <v>88</v>
       </c>
       <c r="F169" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>73</v>
       </c>
       <c r="D174" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2">
         <v>73</v>
       </c>
       <c r="F174" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3963,13 +3963,13 @@
         <v>88</v>
       </c>
       <c r="D175" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E175" s="1">
         <v>88</v>
       </c>
       <c r="F175" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,13 +4063,13 @@
         <v>73</v>
       </c>
       <c r="D180" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E180" s="2">
         <v>73</v>
       </c>
       <c r="F180" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>88</v>
       </c>
       <c r="D181" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E181" s="1">
         <v>88</v>
       </c>
       <c r="F181" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>73</v>
       </c>
       <c r="D186" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E186" s="2">
         <v>73</v>
       </c>
       <c r="F186" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,13 +4203,13 @@
         <v>88</v>
       </c>
       <c r="D187" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E187" s="1">
         <v>88</v>
       </c>
       <c r="F187" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,13 +4303,13 @@
         <v>73</v>
       </c>
       <c r="D192" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2">
         <v>73</v>
       </c>
       <c r="F192" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4323,13 +4323,13 @@
         <v>88</v>
       </c>
       <c r="D193" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E193" s="1">
         <v>88</v>
       </c>
       <c r="F193" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,13 +4423,13 @@
         <v>73</v>
       </c>
       <c r="D198" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E198" s="2">
         <v>73</v>
       </c>
       <c r="F198" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>88</v>
       </c>
       <c r="D199" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E199" s="1">
         <v>88</v>
       </c>
       <c r="F199" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>73</v>
       </c>
       <c r="D204" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E204" s="2">
         <v>73</v>
       </c>
       <c r="F204" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,13 +4563,13 @@
         <v>88</v>
       </c>
       <c r="D205" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E205" s="1">
         <v>88</v>
       </c>
       <c r="F205" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,13 +4663,13 @@
         <v>73</v>
       </c>
       <c r="D210" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2">
         <v>73</v>
       </c>
       <c r="F210" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,13 +4683,13 @@
         <v>88</v>
       </c>
       <c r="D211" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E211" s="1">
         <v>88</v>
       </c>
       <c r="F211" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>73</v>
       </c>
       <c r="D216" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E216" s="2">
         <v>73</v>
       </c>
       <c r="F216" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,13 +4803,13 @@
         <v>88</v>
       </c>
       <c r="D217" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E217" s="1">
         <v>88</v>
       </c>
       <c r="F217" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>73</v>
       </c>
       <c r="D222" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E222" s="2">
         <v>73</v>
       </c>
       <c r="F222" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,13 +4923,13 @@
         <v>88</v>
       </c>
       <c r="D223" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E223" s="1">
         <v>88</v>
       </c>
       <c r="F223" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,13 +5023,13 @@
         <v>73</v>
       </c>
       <c r="D228" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E228" s="2">
         <v>73</v>
       </c>
       <c r="F228" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>88</v>
       </c>
       <c r="D229" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E229" s="1">
         <v>88</v>
       </c>
       <c r="F229" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,13 +5143,13 @@
         <v>73</v>
       </c>
       <c r="D234" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E234" s="2">
         <v>73</v>
       </c>
       <c r="F234" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,13 +5163,13 @@
         <v>88</v>
       </c>
       <c r="D235" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E235" s="1">
         <v>88</v>
       </c>
       <c r="F235" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,13 +5263,13 @@
         <v>73</v>
       </c>
       <c r="D240" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E240" s="2">
         <v>73</v>
       </c>
       <c r="F240" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5283,13 +5283,13 @@
         <v>88</v>
       </c>
       <c r="D241" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E241" s="1">
         <v>88</v>
       </c>
       <c r="F241" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,13 +5383,13 @@
         <v>73</v>
       </c>
       <c r="D246" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E246" s="2">
         <v>73</v>
       </c>
       <c r="F246" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>88</v>
       </c>
       <c r="D247" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E247" s="1">
         <v>88</v>
       </c>
       <c r="F247" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,13 +5503,13 @@
         <v>73</v>
       </c>
       <c r="D252" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E252" s="2">
         <v>73</v>
       </c>
       <c r="F252" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>88</v>
       </c>
       <c r="D253" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E253" s="1">
         <v>88</v>
       </c>
       <c r="F253" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,13 +5623,13 @@
         <v>73</v>
       </c>
       <c r="D258" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E258" s="2">
         <v>73</v>
       </c>
       <c r="F258" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,13 +5643,13 @@
         <v>88</v>
       </c>
       <c r="D259" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E259" s="1">
         <v>88</v>
       </c>
       <c r="F259" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>73</v>
       </c>
       <c r="D264" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E264" s="2">
         <v>73</v>
       </c>
       <c r="F264" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,13 +5763,13 @@
         <v>88</v>
       </c>
       <c r="D265" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E265" s="1">
         <v>88</v>
       </c>
       <c r="F265" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,13 +5863,13 @@
         <v>73</v>
       </c>
       <c r="D270" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E270" s="2">
         <v>73</v>
       </c>
       <c r="F270" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,13 +5883,13 @@
         <v>88</v>
       </c>
       <c r="D271" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E271" s="1">
         <v>88</v>
       </c>
       <c r="F271" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>73</v>
       </c>
       <c r="D276" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E276" s="2">
         <v>73</v>
       </c>
       <c r="F276" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>88</v>
       </c>
       <c r="D277" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E277" s="1">
         <v>88</v>
       </c>
       <c r="F277" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,13 +6103,13 @@
         <v>73</v>
       </c>
       <c r="D282" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E282" s="2">
         <v>73</v>
       </c>
       <c r="F282" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6123,13 +6123,13 @@
         <v>88</v>
       </c>
       <c r="D283" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E283" s="1">
         <v>88</v>
       </c>
       <c r="F283" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,13 +6223,13 @@
         <v>73</v>
       </c>
       <c r="D288" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E288" s="2">
         <v>73</v>
       </c>
       <c r="F288" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,13 +6243,13 @@
         <v>88</v>
       </c>
       <c r="D289" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E289" s="1">
         <v>88</v>
       </c>
       <c r="F289" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6343,13 +6343,13 @@
         <v>73</v>
       </c>
       <c r="D294" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E294" s="2">
         <v>73</v>
       </c>
       <c r="F294" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,13 +6363,13 @@
         <v>88</v>
       </c>
       <c r="D295" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E295" s="1">
         <v>88</v>
       </c>
       <c r="F295" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6463,13 +6463,13 @@
         <v>73</v>
       </c>
       <c r="D300" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E300" s="2">
         <v>73</v>
       </c>
       <c r="F300" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,13 +6483,13 @@
         <v>88</v>
       </c>
       <c r="D301" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E301" s="1">
         <v>88</v>
       </c>
       <c r="F301" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6583,13 +6583,13 @@
         <v>73</v>
       </c>
       <c r="D306" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E306" s="2">
         <v>73</v>
       </c>
       <c r="F306" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,13 +6603,13 @@
         <v>88</v>
       </c>
       <c r="D307" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E307" s="1">
         <v>88</v>
       </c>
       <c r="F307" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>73</v>
       </c>
       <c r="D312" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E312" s="2">
         <v>73</v>
       </c>
       <c r="F312" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,13 +6723,13 @@
         <v>88</v>
       </c>
       <c r="D313" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E313" s="1">
         <v>88</v>
       </c>
       <c r="F313" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6823,13 +6823,13 @@
         <v>73</v>
       </c>
       <c r="D318" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E318" s="2">
         <v>73</v>
       </c>
       <c r="F318" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6843,13 +6843,13 @@
         <v>88</v>
       </c>
       <c r="D319" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E319" s="1">
         <v>88</v>
       </c>
       <c r="F319" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,13 +6943,13 @@
         <v>73</v>
       </c>
       <c r="D324" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E324" s="2">
         <v>73</v>
       </c>
       <c r="F324" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,13 +6963,13 @@
         <v>88</v>
       </c>
       <c r="D325" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E325" s="1">
         <v>88</v>
       </c>
       <c r="F325" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7063,13 +7063,13 @@
         <v>73</v>
       </c>
       <c r="D330" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E330" s="2">
         <v>73</v>
       </c>
       <c r="F330" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,13 +7083,13 @@
         <v>88</v>
       </c>
       <c r="D331" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E331" s="1">
         <v>88</v>
       </c>
       <c r="F331" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7183,13 +7183,13 @@
         <v>73</v>
       </c>
       <c r="D336" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E336" s="2">
         <v>73</v>
       </c>
       <c r="F336" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>88</v>
       </c>
       <c r="D337" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E337" s="1">
         <v>88</v>
       </c>
       <c r="F337" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,13 +7303,13 @@
         <v>73</v>
       </c>
       <c r="D342" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E342" s="2">
         <v>73</v>
       </c>
       <c r="F342" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,13 +7323,13 @@
         <v>88</v>
       </c>
       <c r="D343" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E343" s="1">
         <v>88</v>
       </c>
       <c r="F343" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,13 +7423,13 @@
         <v>73</v>
       </c>
       <c r="D348" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E348" s="2">
         <v>73</v>
       </c>
       <c r="F348" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7443,13 +7443,13 @@
         <v>88</v>
       </c>
       <c r="D349" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E349" s="1">
         <v>88</v>
       </c>
       <c r="F349" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -7543,13 +7543,13 @@
         <v>73</v>
       </c>
       <c r="D354" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E354" s="2">
         <v>73</v>
       </c>
       <c r="F354" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>88</v>
       </c>
       <c r="D355" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E355" s="1">
         <v>88</v>
       </c>
       <c r="F355" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7663,13 +7663,13 @@
         <v>73</v>
       </c>
       <c r="D360" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E360" s="2">
         <v>73</v>
       </c>
       <c r="F360" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7683,13 +7683,13 @@
         <v>88</v>
       </c>
       <c r="D361" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E361" s="1">
         <v>88</v>
       </c>
       <c r="F361" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7783,13 +7783,13 @@
         <v>73</v>
       </c>
       <c r="D366" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E366" s="2">
         <v>73</v>
       </c>
       <c r="F366" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,13 +7803,13 @@
         <v>88</v>
       </c>
       <c r="D367" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E367" s="1">
         <v>88</v>
       </c>
       <c r="F367" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,13 +7903,13 @@
         <v>73</v>
       </c>
       <c r="D372" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E372" s="2">
         <v>73</v>
       </c>
       <c r="F372" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,13 +7923,13 @@
         <v>88</v>
       </c>
       <c r="D373" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E373" s="1">
         <v>88</v>
       </c>
       <c r="F373" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,13 +8023,13 @@
         <v>73</v>
       </c>
       <c r="D378" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E378" s="2">
         <v>73</v>
       </c>
       <c r="F378" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8043,13 +8043,13 @@
         <v>88</v>
       </c>
       <c r="D379" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E379" s="1">
         <v>88</v>
       </c>
       <c r="F379" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8143,13 +8143,13 @@
         <v>73</v>
       </c>
       <c r="D384" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E384" s="2">
         <v>73</v>
       </c>
       <c r="F384" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8163,13 +8163,13 @@
         <v>88</v>
       </c>
       <c r="D385" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E385" s="1">
         <v>88</v>
       </c>
       <c r="F385" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8263,13 +8263,13 @@
         <v>73</v>
       </c>
       <c r="D390" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E390" s="2">
         <v>73</v>
       </c>
       <c r="F390" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8283,13 +8283,13 @@
         <v>88</v>
       </c>
       <c r="D391" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E391" s="1">
         <v>88</v>
       </c>
       <c r="F391" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8383,13 +8383,13 @@
         <v>73</v>
       </c>
       <c r="D396" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E396" s="2">
         <v>73</v>
       </c>
       <c r="F396" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,13 +8403,13 @@
         <v>88</v>
       </c>
       <c r="D397" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E397" s="1">
         <v>88</v>
       </c>
       <c r="F397" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3C80E-8AE8-4F7C-BF1C-8D52299283C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C273A-2CC1-439B-AFDF-0E4EC3E8CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OneYearAtten!$A$1:$F$400</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D402" sqref="D402"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2454,19 +2457,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="B100" s="1">
-        <v>79400000</v>
+        <v>78750000</v>
       </c>
       <c r="C100" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1">
         <v>1000</v>
       </c>
       <c r="E100" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F100" s="1">
         <v>1000</v>
@@ -2474,130 +2477,130 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="B101" s="1">
-        <v>80200000</v>
+        <v>79000000</v>
       </c>
       <c r="C101" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="B102" s="1">
-        <v>81000000</v>
-      </c>
-      <c r="C102" s="2">
-        <v>73</v>
-      </c>
-      <c r="D102" s="2">
-        <v>150</v>
-      </c>
-      <c r="E102" s="2">
-        <v>73</v>
-      </c>
-      <c r="F102" s="2">
-        <v>150</v>
+        <v>79250000</v>
+      </c>
+      <c r="C102" s="1">
+        <v>46</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E102" s="1">
+        <v>46</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1250</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B103" s="1">
-        <v>81800000</v>
+        <v>79400000</v>
       </c>
       <c r="C103" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E103" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F103" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>316</v>
       </c>
       <c r="B104" s="1">
-        <v>82600000</v>
-      </c>
-      <c r="C104" s="1">
-        <v>5</v>
-      </c>
-      <c r="D104" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E104" s="1">
-        <v>5</v>
-      </c>
-      <c r="F104" s="1">
-        <v>10000000</v>
+        <v>79500000</v>
+      </c>
+      <c r="C104" s="2">
+        <v>73</v>
+      </c>
+      <c r="D104" s="2">
+        <v>150</v>
+      </c>
+      <c r="E104" s="2">
+        <v>73</v>
+      </c>
+      <c r="F104" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="B105" s="1">
-        <v>83400000</v>
+        <v>79750000</v>
       </c>
       <c r="C105" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D105" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E105" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F105" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="B106" s="1">
-        <v>84200000</v>
+        <v>80000000</v>
       </c>
       <c r="C106" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E106" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F106" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B107" s="1">
-        <v>85000000</v>
+        <v>80200000</v>
       </c>
       <c r="C107" s="1">
         <v>46</v>
@@ -2614,199 +2617,199 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="B108" s="1">
-        <v>85800000</v>
-      </c>
-      <c r="C108" s="2">
-        <v>73</v>
-      </c>
-      <c r="D108" s="2">
-        <v>150</v>
-      </c>
-      <c r="E108" s="2">
-        <v>73</v>
-      </c>
-      <c r="F108" s="2">
-        <v>150</v>
+        <v>80250000</v>
+      </c>
+      <c r="C108" s="1">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>30</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="B109" s="1">
-        <v>86600000</v>
+        <v>80500000</v>
       </c>
       <c r="C109" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F109" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>321</v>
       </c>
       <c r="B110" s="1">
-        <v>87400000</v>
+        <v>80750000</v>
       </c>
       <c r="C110" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D110" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
       <c r="E110" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F110" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B111" s="1">
-        <v>88200000</v>
-      </c>
-      <c r="C111" s="1">
-        <v>30</v>
-      </c>
-      <c r="D111" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E111" s="1">
-        <v>30</v>
-      </c>
-      <c r="F111" s="1">
-        <v>1000</v>
+        <v>81000000</v>
+      </c>
+      <c r="C111" s="2">
+        <v>73</v>
+      </c>
+      <c r="D111" s="2">
+        <v>150</v>
+      </c>
+      <c r="E111" s="2">
+        <v>73</v>
+      </c>
+      <c r="F111" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="B112" s="1">
-        <v>89000000</v>
-      </c>
-      <c r="C112" s="1">
-        <v>20</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E112" s="1">
-        <v>20</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1000</v>
+        <v>81000000</v>
+      </c>
+      <c r="C112" s="2">
+        <v>73</v>
+      </c>
+      <c r="D112" s="2">
+        <v>150</v>
+      </c>
+      <c r="E112" s="2">
+        <v>73</v>
+      </c>
+      <c r="F112" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="B113" s="1">
-        <v>89800000</v>
+        <v>81250000</v>
       </c>
       <c r="C113" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D113" s="1">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="E113" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F113" s="1">
-        <v>1250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="B114" s="1">
-        <v>90600000</v>
-      </c>
-      <c r="C114" s="2">
-        <v>73</v>
-      </c>
-      <c r="D114" s="2">
-        <v>150</v>
-      </c>
-      <c r="E114" s="2">
-        <v>73</v>
-      </c>
-      <c r="F114" s="2">
-        <v>150</v>
+        <v>81500000</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>10000000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="B115" s="1">
-        <v>91400000</v>
+        <v>81750000</v>
       </c>
       <c r="C115" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D115" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E115" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F115" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1">
-        <v>92200000</v>
+        <v>81800000</v>
       </c>
       <c r="C116" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D116" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
       <c r="E116" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="F116" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>326</v>
       </c>
       <c r="B117" s="1">
-        <v>93000000</v>
+        <v>82000000</v>
       </c>
       <c r="C117" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1">
         <v>1000</v>
       </c>
       <c r="E117" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F117" s="1">
         <v>1000</v>
@@ -2814,70 +2817,70 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>327</v>
       </c>
       <c r="B118" s="1">
-        <v>93800000</v>
+        <v>82250000</v>
       </c>
       <c r="C118" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D118" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E118" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F118" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="B119" s="1">
-        <v>94600000</v>
-      </c>
-      <c r="C119" s="1">
-        <v>46</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E119" s="1">
-        <v>46</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1250</v>
+        <v>82500000</v>
+      </c>
+      <c r="C119" s="2">
+        <v>73</v>
+      </c>
+      <c r="D119" s="2">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2">
+        <v>73</v>
+      </c>
+      <c r="F119" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B120" s="1">
-        <v>95400000</v>
-      </c>
-      <c r="C120" s="2">
-        <v>73</v>
-      </c>
-      <c r="D120" s="2">
-        <v>150</v>
-      </c>
-      <c r="E120" s="2">
-        <v>73</v>
-      </c>
-      <c r="F120" s="2">
-        <v>150</v>
+        <v>82600000</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>10000000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="B121" s="1">
-        <v>96200000</v>
+        <v>82750000</v>
       </c>
       <c r="C121" s="1">
         <v>88</v>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="B122" s="1">
-        <v>97000000</v>
+        <v>83000000</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -2913,11 +2916,11 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>331</v>
       </c>
       <c r="B123" s="1">
-        <v>97800000</v>
+        <v>83250000</v>
       </c>
       <c r="C123" s="1">
         <v>30</v>
@@ -2934,19 +2937,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B124" s="1">
-        <v>98600000</v>
+        <v>83400000</v>
       </c>
       <c r="C124" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D124" s="1">
         <v>1000</v>
       </c>
       <c r="E124" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F124" s="1">
         <v>1000</v>
@@ -2954,430 +2957,430 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="B125" s="1">
-        <v>99400000</v>
+        <v>83500000</v>
       </c>
       <c r="C125" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D125" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E125" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F125" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="B126" s="1">
-        <v>100200000</v>
-      </c>
-      <c r="C126" s="2">
-        <v>73</v>
-      </c>
-      <c r="D126" s="2">
-        <v>150</v>
-      </c>
-      <c r="E126" s="2">
-        <v>73</v>
-      </c>
-      <c r="F126" s="2">
-        <v>150</v>
+        <v>83750000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>46</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E126" s="1">
+        <v>46</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1250</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="B127" s="1">
-        <v>101000000</v>
-      </c>
-      <c r="C127" s="1">
-        <v>88</v>
-      </c>
-      <c r="D127" s="1">
-        <v>75</v>
-      </c>
-      <c r="E127" s="1">
-        <v>88</v>
-      </c>
-      <c r="F127" s="1">
-        <v>75</v>
+        <v>84000000</v>
+      </c>
+      <c r="C127" s="2">
+        <v>73</v>
+      </c>
+      <c r="D127" s="2">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2">
+        <v>73</v>
+      </c>
+      <c r="F127" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B128" s="1">
-        <v>101800000</v>
+        <v>84200000</v>
       </c>
       <c r="C128" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D128" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E128" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>335</v>
       </c>
       <c r="B129" s="1">
-        <v>102600000</v>
+        <v>84250000</v>
       </c>
       <c r="C129" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D129" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E129" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F129" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>336</v>
       </c>
       <c r="B130" s="1">
-        <v>103400000</v>
+        <v>84500000</v>
       </c>
       <c r="C130" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E130" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F130" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="B131" s="1">
-        <v>104200000</v>
+        <v>84750000</v>
       </c>
       <c r="C131" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D131" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E131" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F131" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B132" s="1">
-        <v>105000000</v>
-      </c>
-      <c r="C132" s="2">
-        <v>73</v>
-      </c>
-      <c r="D132" s="2">
-        <v>150</v>
-      </c>
-      <c r="E132" s="2">
-        <v>73</v>
-      </c>
-      <c r="F132" s="2">
-        <v>150</v>
+        <v>85000000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>46</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E132" s="1">
+        <v>46</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1250</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="B133" s="1">
-        <v>105800000</v>
+        <v>85000000</v>
       </c>
       <c r="C133" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D133" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E133" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F133" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="B134" s="1">
-        <v>106600000</v>
+        <v>85250000</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D134" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
       <c r="E134" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F134" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="B135" s="1">
-        <v>107400000</v>
-      </c>
-      <c r="C135" s="1">
-        <v>30</v>
-      </c>
-      <c r="D135" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E135" s="1">
-        <v>30</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1000</v>
+        <v>85500000</v>
+      </c>
+      <c r="C135" s="2">
+        <v>73</v>
+      </c>
+      <c r="D135" s="2">
+        <v>150</v>
+      </c>
+      <c r="E135" s="2">
+        <v>73</v>
+      </c>
+      <c r="F135" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>341</v>
       </c>
       <c r="B136" s="1">
-        <v>108200000</v>
+        <v>85750000</v>
       </c>
       <c r="C136" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D136" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E136" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F136" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B137" s="1">
-        <v>109000000</v>
-      </c>
-      <c r="C137" s="1">
-        <v>46</v>
-      </c>
-      <c r="D137" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E137" s="1">
-        <v>46</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1250</v>
+        <v>85800000</v>
+      </c>
+      <c r="C137" s="2">
+        <v>73</v>
+      </c>
+      <c r="D137" s="2">
+        <v>150</v>
+      </c>
+      <c r="E137" s="2">
+        <v>73</v>
+      </c>
+      <c r="F137" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="B138" s="1">
-        <v>109800000</v>
-      </c>
-      <c r="C138" s="2">
-        <v>73</v>
-      </c>
-      <c r="D138" s="2">
-        <v>150</v>
-      </c>
-      <c r="E138" s="2">
-        <v>73</v>
-      </c>
-      <c r="F138" s="2">
-        <v>150</v>
+        <v>86000000</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>10000000</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="B139" s="1">
-        <v>110600000</v>
+        <v>86250000</v>
       </c>
       <c r="C139" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D139" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E139" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F139" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="B140" s="1">
-        <v>111400000</v>
+        <v>86500000</v>
       </c>
       <c r="C140" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D140" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E140" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F140" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B141" s="1">
-        <v>112200000</v>
+        <v>86600000</v>
       </c>
       <c r="C141" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D141" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E141" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F141" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="B142" s="1">
-        <v>113000000</v>
+        <v>86750000</v>
       </c>
       <c r="C142" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D142" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E142" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F142" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>346</v>
       </c>
       <c r="B143" s="1">
-        <v>113800000</v>
-      </c>
-      <c r="C143" s="1">
-        <v>46</v>
-      </c>
-      <c r="D143" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E143" s="1">
-        <v>46</v>
-      </c>
-      <c r="F143" s="1">
-        <v>1250</v>
+        <v>87000000</v>
+      </c>
+      <c r="C143" s="2">
+        <v>73</v>
+      </c>
+      <c r="D143" s="2">
+        <v>150</v>
+      </c>
+      <c r="E143" s="2">
+        <v>73</v>
+      </c>
+      <c r="F143" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="B144" s="1">
-        <v>114600000</v>
-      </c>
-      <c r="C144" s="2">
-        <v>73</v>
-      </c>
-      <c r="D144" s="2">
-        <v>150</v>
-      </c>
-      <c r="E144" s="2">
-        <v>73</v>
-      </c>
-      <c r="F144" s="2">
-        <v>150</v>
+        <v>87250000</v>
+      </c>
+      <c r="C144" s="1">
+        <v>88</v>
+      </c>
+      <c r="D144" s="1">
+        <v>75</v>
+      </c>
+      <c r="E144" s="1">
+        <v>88</v>
+      </c>
+      <c r="F144" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B145" s="1">
-        <v>115400000</v>
+        <v>87400000</v>
       </c>
       <c r="C145" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
       <c r="E145" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F145" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="B146" s="1">
-        <v>116200000</v>
+        <v>87500000</v>
       </c>
       <c r="C146" s="1">
         <v>5</v>
@@ -3394,10 +3397,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="B147" s="1">
-        <v>117000000</v>
+        <v>87750000</v>
       </c>
       <c r="C147" s="1">
         <v>30</v>
@@ -3414,10 +3417,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="B148" s="1">
-        <v>117800000</v>
+        <v>88000000</v>
       </c>
       <c r="C148" s="1">
         <v>20</v>
@@ -3434,99 +3437,99 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B149" s="1">
-        <v>118600000</v>
+        <v>88200000</v>
       </c>
       <c r="C149" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D149" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E149" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F149" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>351</v>
       </c>
       <c r="B150" s="1">
-        <v>119400000</v>
-      </c>
-      <c r="C150" s="2">
-        <v>73</v>
-      </c>
-      <c r="D150" s="2">
-        <v>150</v>
-      </c>
-      <c r="E150" s="2">
-        <v>73</v>
-      </c>
-      <c r="F150" s="2">
-        <v>150</v>
+        <v>88250000</v>
+      </c>
+      <c r="C150" s="1">
+        <v>46</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E150" s="1">
+        <v>46</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1250</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="B151" s="1">
-        <v>120200000</v>
-      </c>
-      <c r="C151" s="1">
-        <v>88</v>
-      </c>
-      <c r="D151" s="1">
-        <v>75</v>
-      </c>
-      <c r="E151" s="1">
-        <v>88</v>
-      </c>
-      <c r="F151" s="1">
-        <v>75</v>
+        <v>88500000</v>
+      </c>
+      <c r="C151" s="2">
+        <v>73</v>
+      </c>
+      <c r="D151" s="2">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2">
+        <v>73</v>
+      </c>
+      <c r="F151" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>353</v>
       </c>
       <c r="B152" s="1">
-        <v>121000000</v>
+        <v>88750000</v>
       </c>
       <c r="C152" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D152" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
       <c r="E152" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="F152" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="B153" s="1">
-        <v>121800000</v>
+        <v>89000000</v>
       </c>
       <c r="C153" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D153" s="1">
         <v>1000</v>
       </c>
       <c r="E153" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F153" s="1">
         <v>1000</v>
@@ -3534,170 +3537,170 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="B154" s="1">
-        <v>122600000</v>
+        <v>89000000</v>
       </c>
       <c r="C154" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E154" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F154" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="B155" s="1">
-        <v>123400000</v>
+        <v>89250000</v>
       </c>
       <c r="C155" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D155" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E155" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F155" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>356</v>
       </c>
       <c r="B156" s="1">
-        <v>124200000</v>
-      </c>
-      <c r="C156" s="2">
-        <v>73</v>
-      </c>
-      <c r="D156" s="2">
-        <v>150</v>
-      </c>
-      <c r="E156" s="2">
-        <v>73</v>
-      </c>
-      <c r="F156" s="2">
-        <v>150</v>
+        <v>89500000</v>
+      </c>
+      <c r="C156" s="1">
+        <v>20</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E156" s="1">
+        <v>20</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>357</v>
       </c>
       <c r="B157" s="1">
-        <v>125000000</v>
+        <v>89750000</v>
       </c>
       <c r="C157" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D157" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E157" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F157" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B158" s="1">
-        <v>125800000</v>
+        <v>89800000</v>
       </c>
       <c r="C158" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D158" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
       <c r="E158" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F158" s="1">
-        <v>10000000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="B159" s="1">
-        <v>126600000</v>
-      </c>
-      <c r="C159" s="1">
-        <v>30</v>
-      </c>
-      <c r="D159" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E159" s="1">
-        <v>30</v>
-      </c>
-      <c r="F159" s="1">
-        <v>1000</v>
+        <v>90000000</v>
+      </c>
+      <c r="C159" s="2">
+        <v>73</v>
+      </c>
+      <c r="D159" s="2">
+        <v>150</v>
+      </c>
+      <c r="E159" s="2">
+        <v>73</v>
+      </c>
+      <c r="F159" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="B160" s="1">
-        <v>127400000</v>
+        <v>90250000</v>
       </c>
       <c r="C160" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D160" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E160" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F160" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="B161" s="1">
-        <v>128200000</v>
+        <v>90500000</v>
       </c>
       <c r="C161" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
       <c r="E161" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F161" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B162" s="1">
-        <v>129000000</v>
+        <v>90600000</v>
       </c>
       <c r="C162" s="2">
         <v>73</v>
@@ -3713,151 +3716,151 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>361</v>
       </c>
       <c r="B163" s="1">
-        <v>129800000</v>
+        <v>90750000</v>
       </c>
       <c r="C163" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D163" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E163" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F163" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="B164" s="1">
-        <v>130600000</v>
+        <v>91000000</v>
       </c>
       <c r="C164" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D164" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E164" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F164" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="B165" s="1">
-        <v>131400000</v>
+        <v>91250000</v>
       </c>
       <c r="C165" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D165" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E165" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F165" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B166" s="1">
-        <v>132200000</v>
+        <v>91400000</v>
       </c>
       <c r="C166" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D166" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E166" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F166" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="B167" s="1">
-        <v>133000000</v>
-      </c>
-      <c r="C167" s="1">
-        <v>46</v>
-      </c>
-      <c r="D167" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E167" s="1">
-        <v>46</v>
-      </c>
-      <c r="F167" s="1">
-        <v>1250</v>
+        <v>91500000</v>
+      </c>
+      <c r="C167" s="2">
+        <v>73</v>
+      </c>
+      <c r="D167" s="2">
+        <v>150</v>
+      </c>
+      <c r="E167" s="2">
+        <v>73</v>
+      </c>
+      <c r="F167" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="B168" s="1">
-        <v>133800000</v>
-      </c>
-      <c r="C168" s="2">
-        <v>73</v>
-      </c>
-      <c r="D168" s="2">
-        <v>150</v>
-      </c>
-      <c r="E168" s="2">
-        <v>73</v>
-      </c>
-      <c r="F168" s="2">
-        <v>150</v>
+        <v>91750000</v>
+      </c>
+      <c r="C168" s="1">
+        <v>88</v>
+      </c>
+      <c r="D168" s="1">
+        <v>75</v>
+      </c>
+      <c r="E168" s="1">
+        <v>88</v>
+      </c>
+      <c r="F168" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>366</v>
       </c>
       <c r="B169" s="1">
-        <v>134600000</v>
+        <v>92000000</v>
       </c>
       <c r="C169" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D169" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
       <c r="E169" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F169" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="B170" s="1">
-        <v>135400000</v>
+        <v>92200000</v>
       </c>
       <c r="C170" s="1">
         <v>5</v>
@@ -3874,10 +3877,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="B171" s="1">
-        <v>136200000</v>
+        <v>92250000</v>
       </c>
       <c r="C171" s="1">
         <v>30</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="B172" s="1">
-        <v>137000000</v>
+        <v>92500000</v>
       </c>
       <c r="C172" s="1">
         <v>20</v>
@@ -3914,10 +3917,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="B173" s="1">
-        <v>137800000</v>
+        <v>92750000</v>
       </c>
       <c r="C173" s="1">
         <v>46</v>
@@ -3934,99 +3937,99 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B174" s="1">
-        <v>138600000</v>
-      </c>
-      <c r="C174" s="2">
-        <v>73</v>
-      </c>
-      <c r="D174" s="2">
-        <v>150</v>
-      </c>
-      <c r="E174" s="2">
-        <v>73</v>
-      </c>
-      <c r="F174" s="2">
-        <v>150</v>
+        <v>93000000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>30</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>30</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>370</v>
       </c>
       <c r="B175" s="1">
-        <v>139400000</v>
-      </c>
-      <c r="C175" s="1">
-        <v>88</v>
-      </c>
-      <c r="D175" s="1">
-        <v>75</v>
-      </c>
-      <c r="E175" s="1">
-        <v>88</v>
-      </c>
-      <c r="F175" s="1">
-        <v>75</v>
+        <v>93000000</v>
+      </c>
+      <c r="C175" s="2">
+        <v>73</v>
+      </c>
+      <c r="D175" s="2">
+        <v>150</v>
+      </c>
+      <c r="E175" s="2">
+        <v>73</v>
+      </c>
+      <c r="F175" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>371</v>
       </c>
       <c r="B176" s="1">
-        <v>140200000</v>
+        <v>93250000</v>
       </c>
       <c r="C176" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D176" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
       <c r="E176" s="1">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="F176" s="1">
-        <v>10000000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="B177" s="1">
-        <v>141000000</v>
+        <v>93500000</v>
       </c>
       <c r="C177" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E177" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>373</v>
       </c>
       <c r="B178" s="1">
-        <v>141800000</v>
+        <v>93750000</v>
       </c>
       <c r="C178" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D178" s="1">
         <v>1000</v>
       </c>
       <c r="E178" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F178" s="1">
         <v>1000</v>
@@ -4034,350 +4037,350 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="B179" s="1">
-        <v>142600000</v>
+        <v>93800000</v>
       </c>
       <c r="C179" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D179" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E179" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F179" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="B180" s="1">
-        <v>143400000</v>
-      </c>
-      <c r="C180" s="2">
-        <v>73</v>
-      </c>
-      <c r="D180" s="2">
-        <v>150</v>
-      </c>
-      <c r="E180" s="2">
-        <v>73</v>
-      </c>
-      <c r="F180" s="2">
-        <v>150</v>
+        <v>94000000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>20</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>20</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="B181" s="1">
-        <v>144200000</v>
+        <v>94250000</v>
       </c>
       <c r="C181" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D181" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E181" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F181" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>376</v>
       </c>
       <c r="B182" s="1">
-        <v>145000000</v>
-      </c>
-      <c r="C182" s="1">
-        <v>5</v>
-      </c>
-      <c r="D182" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E182" s="1">
-        <v>5</v>
-      </c>
-      <c r="F182" s="1">
-        <v>10000000</v>
+        <v>94500000</v>
+      </c>
+      <c r="C182" s="2">
+        <v>73</v>
+      </c>
+      <c r="D182" s="2">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2">
+        <v>73</v>
+      </c>
+      <c r="F182" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B183" s="1">
-        <v>145800000</v>
+        <v>94600000</v>
       </c>
       <c r="C183" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D183" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E183" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F183" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>377</v>
       </c>
       <c r="B184" s="1">
-        <v>146600000</v>
+        <v>94750000</v>
       </c>
       <c r="C184" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D184" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E184" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F184" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="B185" s="1">
-        <v>147400000</v>
+        <v>95000000</v>
       </c>
       <c r="C185" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D185" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
       <c r="E185" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F185" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="B186" s="1">
-        <v>148200000</v>
-      </c>
-      <c r="C186" s="2">
-        <v>73</v>
-      </c>
-      <c r="D186" s="2">
-        <v>150</v>
-      </c>
-      <c r="E186" s="2">
-        <v>73</v>
-      </c>
-      <c r="F186" s="2">
-        <v>150</v>
+        <v>95250000</v>
+      </c>
+      <c r="C186" s="1">
+        <v>30</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E186" s="1">
+        <v>30</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="B187" s="1">
-        <v>149000000</v>
-      </c>
-      <c r="C187" s="1">
-        <v>88</v>
-      </c>
-      <c r="D187" s="1">
-        <v>75</v>
-      </c>
-      <c r="E187" s="1">
-        <v>88</v>
-      </c>
-      <c r="F187" s="1">
-        <v>75</v>
+        <v>95400000</v>
+      </c>
+      <c r="C187" s="2">
+        <v>73</v>
+      </c>
+      <c r="D187" s="2">
+        <v>150</v>
+      </c>
+      <c r="E187" s="2">
+        <v>73</v>
+      </c>
+      <c r="F187" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="B188" s="1">
-        <v>149800000</v>
+        <v>95500000</v>
       </c>
       <c r="C188" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D188" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E188" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F188" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>381</v>
       </c>
       <c r="B189" s="1">
-        <v>150600000</v>
+        <v>95750000</v>
       </c>
       <c r="C189" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D189" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E189" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F189" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="B190" s="1">
-        <v>151400000</v>
-      </c>
-      <c r="C190" s="1">
-        <v>20</v>
-      </c>
-      <c r="D190" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E190" s="1">
-        <v>20</v>
-      </c>
-      <c r="F190" s="1">
-        <v>1000</v>
+        <v>96000000</v>
+      </c>
+      <c r="C190" s="2">
+        <v>73</v>
+      </c>
+      <c r="D190" s="2">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2">
+        <v>73</v>
+      </c>
+      <c r="F190" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="B191" s="1">
-        <v>152200000</v>
+        <v>96200000</v>
       </c>
       <c r="C191" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D191" s="1">
-        <v>1250</v>
+        <v>75</v>
       </c>
       <c r="E191" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>1250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="B192" s="1">
-        <v>153000000</v>
-      </c>
-      <c r="C192" s="2">
-        <v>73</v>
-      </c>
-      <c r="D192" s="2">
-        <v>150</v>
-      </c>
-      <c r="E192" s="2">
-        <v>73</v>
-      </c>
-      <c r="F192" s="2">
-        <v>150</v>
+        <v>96250000</v>
+      </c>
+      <c r="C192" s="1">
+        <v>88</v>
+      </c>
+      <c r="D192" s="1">
+        <v>75</v>
+      </c>
+      <c r="E192" s="1">
+        <v>88</v>
+      </c>
+      <c r="F192" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
-        <v>153800000</v>
+        <v>96500000</v>
       </c>
       <c r="C193" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
       <c r="E193" s="1">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="F193" s="1">
-        <v>75</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="B194" s="1">
-        <v>154600000</v>
+        <v>96750000</v>
       </c>
       <c r="C194" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D194" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E194" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F194" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="B195" s="1">
-        <v>155400000</v>
+        <v>97000000</v>
       </c>
       <c r="C195" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D195" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E195" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F195" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>386</v>
       </c>
       <c r="B196" s="1">
-        <v>156200000</v>
+        <v>97000000</v>
       </c>
       <c r="C196" s="1">
         <v>20</v>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>157000000</v>
+        <v>97250000</v>
       </c>
       <c r="C197" s="1">
         <v>46</v>
@@ -4414,10 +4417,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>388</v>
       </c>
       <c r="B198" s="1">
-        <v>157800000</v>
+        <v>97500000</v>
       </c>
       <c r="C198" s="2">
         <v>73</v>
@@ -4434,10 +4437,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="B199" s="1">
-        <v>158600000</v>
+        <v>97750000</v>
       </c>
       <c r="C199" s="1">
         <v>88</v>
@@ -4454,59 +4457,59 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B200" s="1">
-        <v>159400000</v>
+        <v>97800000</v>
       </c>
       <c r="C200" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D200" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E200" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F200" s="1">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>390</v>
       </c>
       <c r="B201" s="1">
-        <v>160200000</v>
+        <v>98000000</v>
       </c>
       <c r="C201" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E201" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F201" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>391</v>
       </c>
       <c r="B202" s="1">
-        <v>161000000</v>
+        <v>98250000</v>
       </c>
       <c r="C202" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D202" s="1">
         <v>1000</v>
       </c>
       <c r="E202" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F202" s="1">
         <v>1000</v>
@@ -4514,3965 +4517,3970 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="B203" s="1">
-        <v>161800000</v>
+        <v>98500000</v>
       </c>
       <c r="C203" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D203" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E203" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F203" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B204" s="1">
-        <v>162600000</v>
-      </c>
-      <c r="C204" s="2">
-        <v>73</v>
-      </c>
-      <c r="D204" s="2">
-        <v>150</v>
-      </c>
-      <c r="E204" s="2">
-        <v>73</v>
-      </c>
-      <c r="F204" s="2">
-        <v>150</v>
+        <v>98600000</v>
+      </c>
+      <c r="C204" s="1">
+        <v>20</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>20</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>393</v>
       </c>
       <c r="B205" s="1">
-        <v>163400000</v>
+        <v>98750000</v>
       </c>
       <c r="C205" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D205" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E205" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F205" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="B206" s="1">
-        <v>164200000</v>
-      </c>
-      <c r="C206" s="1">
-        <v>5</v>
-      </c>
-      <c r="D206" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E206" s="1">
-        <v>5</v>
-      </c>
-      <c r="F206" s="1">
-        <v>10000000</v>
+        <v>99000000</v>
+      </c>
+      <c r="C206" s="2">
+        <v>73</v>
+      </c>
+      <c r="D206" s="2">
+        <v>150</v>
+      </c>
+      <c r="E206" s="2">
+        <v>73</v>
+      </c>
+      <c r="F206" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>395</v>
       </c>
       <c r="B207" s="1">
-        <v>165000000</v>
+        <v>99250000</v>
       </c>
       <c r="C207" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D207" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E207" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F207" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B208" s="1">
-        <v>165800000</v>
+        <v>99400000</v>
       </c>
       <c r="C208" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D208" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E208" s="1">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F208" s="1">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>396</v>
       </c>
       <c r="B209" s="1">
-        <v>166600000</v>
+        <v>99500000</v>
       </c>
       <c r="C209" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D209" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
       <c r="E209" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F209" s="1">
-        <v>1250</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="B210" s="1">
-        <v>167400000</v>
-      </c>
-      <c r="C210" s="2">
-        <v>73</v>
-      </c>
-      <c r="D210" s="2">
-        <v>150</v>
-      </c>
-      <c r="E210" s="2">
-        <v>73</v>
-      </c>
-      <c r="F210" s="2">
-        <v>150</v>
+        <v>99750000</v>
+      </c>
+      <c r="C210" s="1">
+        <v>30</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>30</v>
+      </c>
+      <c r="F210" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="B211" s="1">
-        <v>168200000</v>
+        <v>100000000</v>
       </c>
       <c r="C211" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D211" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E211" s="1">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F211" s="1">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="B212" s="1">
-        <v>169000000</v>
-      </c>
-      <c r="C212" s="1">
-        <v>5</v>
-      </c>
-      <c r="D212" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E212" s="1">
-        <v>5</v>
-      </c>
-      <c r="F212" s="1">
-        <v>10000000</v>
+        <v>100200000</v>
+      </c>
+      <c r="C212" s="2">
+        <v>73</v>
+      </c>
+      <c r="D212" s="2">
+        <v>150</v>
+      </c>
+      <c r="E212" s="2">
+        <v>73</v>
+      </c>
+      <c r="F212" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="B213" s="1">
-        <v>169800000</v>
+        <v>101000000</v>
       </c>
       <c r="C213" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D213" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E213" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F213" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="B214" s="1">
-        <v>170600000</v>
+        <v>101800000</v>
       </c>
       <c r="C214" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D214" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E214" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F214" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="B215" s="1">
-        <v>171400000</v>
+        <v>102600000</v>
       </c>
       <c r="C215" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D215" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E215" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F215" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="B216" s="1">
-        <v>172200000</v>
-      </c>
-      <c r="C216" s="2">
-        <v>73</v>
-      </c>
-      <c r="D216" s="2">
-        <v>150</v>
-      </c>
-      <c r="E216" s="2">
-        <v>73</v>
-      </c>
-      <c r="F216" s="2">
-        <v>150</v>
+        <v>103400000</v>
+      </c>
+      <c r="C216" s="1">
+        <v>20</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E216" s="1">
+        <v>20</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="B217" s="1">
-        <v>173000000</v>
+        <v>104200000</v>
       </c>
       <c r="C217" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D217" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E217" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F217" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="B218" s="1">
-        <v>173800000</v>
-      </c>
-      <c r="C218" s="1">
-        <v>5</v>
-      </c>
-      <c r="D218" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E218" s="1">
-        <v>5</v>
-      </c>
-      <c r="F218" s="1">
-        <v>10000000</v>
+        <v>105000000</v>
+      </c>
+      <c r="C218" s="2">
+        <v>73</v>
+      </c>
+      <c r="D218" s="2">
+        <v>150</v>
+      </c>
+      <c r="E218" s="2">
+        <v>73</v>
+      </c>
+      <c r="F218" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="B219" s="1">
-        <v>174600000</v>
+        <v>105800000</v>
       </c>
       <c r="C219" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D219" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E219" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F219" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="B220" s="1">
-        <v>175400000</v>
+        <v>106600000</v>
       </c>
       <c r="C220" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D220" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E220" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F220" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="B221" s="1">
-        <v>176200000</v>
+        <v>107400000</v>
       </c>
       <c r="C221" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D221" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E221" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F221" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="B222" s="1">
-        <v>177000000</v>
-      </c>
-      <c r="C222" s="2">
-        <v>73</v>
-      </c>
-      <c r="D222" s="2">
-        <v>150</v>
-      </c>
-      <c r="E222" s="2">
-        <v>73</v>
-      </c>
-      <c r="F222" s="2">
-        <v>150</v>
+        <v>108200000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>20</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>20</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="B223" s="1">
-        <v>177800000</v>
+        <v>109000000</v>
       </c>
       <c r="C223" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D223" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E223" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F223" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="B224" s="1">
-        <v>178600000</v>
-      </c>
-      <c r="C224" s="1">
-        <v>5</v>
-      </c>
-      <c r="D224" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E224" s="1">
-        <v>5</v>
-      </c>
-      <c r="F224" s="1">
-        <v>10000000</v>
+        <v>109800000</v>
+      </c>
+      <c r="C224" s="2">
+        <v>73</v>
+      </c>
+      <c r="D224" s="2">
+        <v>150</v>
+      </c>
+      <c r="E224" s="2">
+        <v>73</v>
+      </c>
+      <c r="F224" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="B225" s="1">
-        <v>179400000</v>
+        <v>110600000</v>
       </c>
       <c r="C225" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D225" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E225" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F225" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="B226" s="1">
-        <v>180200000</v>
+        <v>111400000</v>
       </c>
       <c r="C226" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D226" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E226" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F226" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="B227" s="1">
-        <v>181000000</v>
+        <v>112200000</v>
       </c>
       <c r="C227" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D227" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E227" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F227" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="B228" s="1">
-        <v>181800000</v>
-      </c>
-      <c r="C228" s="2">
-        <v>73</v>
-      </c>
-      <c r="D228" s="2">
-        <v>150</v>
-      </c>
-      <c r="E228" s="2">
-        <v>73</v>
-      </c>
-      <c r="F228" s="2">
-        <v>150</v>
+        <v>113000000</v>
+      </c>
+      <c r="C228" s="1">
+        <v>20</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>20</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="B229" s="1">
-        <v>182600000</v>
+        <v>113800000</v>
       </c>
       <c r="C229" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D229" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E229" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F229" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="B230" s="1">
-        <v>183400000</v>
-      </c>
-      <c r="C230" s="1">
-        <v>5</v>
-      </c>
-      <c r="D230" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E230" s="1">
-        <v>5</v>
-      </c>
-      <c r="F230" s="1">
-        <v>10000000</v>
+        <v>114600000</v>
+      </c>
+      <c r="C230" s="2">
+        <v>73</v>
+      </c>
+      <c r="D230" s="2">
+        <v>150</v>
+      </c>
+      <c r="E230" s="2">
+        <v>73</v>
+      </c>
+      <c r="F230" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="B231" s="1">
-        <v>184200000</v>
+        <v>115400000</v>
       </c>
       <c r="C231" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D231" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E231" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F231" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="B232" s="1">
-        <v>185000000</v>
+        <v>116200000</v>
       </c>
       <c r="C232" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E232" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F232" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="B233" s="1">
-        <v>185800000</v>
+        <v>117000000</v>
       </c>
       <c r="C233" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D233" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E233" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F233" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="B234" s="1">
-        <v>186600000</v>
-      </c>
-      <c r="C234" s="2">
-        <v>73</v>
-      </c>
-      <c r="D234" s="2">
-        <v>150</v>
-      </c>
-      <c r="E234" s="2">
-        <v>73</v>
-      </c>
-      <c r="F234" s="2">
-        <v>150</v>
+        <v>117800000</v>
+      </c>
+      <c r="C234" s="1">
+        <v>20</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>20</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="B235" s="1">
-        <v>187400000</v>
+        <v>118600000</v>
       </c>
       <c r="C235" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D235" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E235" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F235" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="B236" s="1">
-        <v>188200000</v>
-      </c>
-      <c r="C236" s="1">
-        <v>5</v>
-      </c>
-      <c r="D236" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E236" s="1">
-        <v>5</v>
-      </c>
-      <c r="F236" s="1">
-        <v>10000000</v>
+        <v>119400000</v>
+      </c>
+      <c r="C236" s="2">
+        <v>73</v>
+      </c>
+      <c r="D236" s="2">
+        <v>150</v>
+      </c>
+      <c r="E236" s="2">
+        <v>73</v>
+      </c>
+      <c r="F236" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="B237" s="1">
-        <v>189000000</v>
+        <v>120200000</v>
       </c>
       <c r="C237" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D237" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E237" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F237" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="B238" s="1">
-        <v>189800000</v>
+        <v>121000000</v>
       </c>
       <c r="C238" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D238" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E238" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F238" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B239" s="1">
-        <v>190600000</v>
+        <v>121800000</v>
       </c>
       <c r="C239" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D239" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E239" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F239" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="B240" s="1">
-        <v>191400000</v>
-      </c>
-      <c r="C240" s="2">
-        <v>73</v>
-      </c>
-      <c r="D240" s="2">
-        <v>150</v>
-      </c>
-      <c r="E240" s="2">
-        <v>73</v>
-      </c>
-      <c r="F240" s="2">
-        <v>150</v>
+        <v>122600000</v>
+      </c>
+      <c r="C240" s="1">
+        <v>20</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E240" s="1">
+        <v>20</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="B241" s="1">
-        <v>192200000</v>
+        <v>123400000</v>
       </c>
       <c r="C241" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D241" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E241" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F241" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B242" s="1">
-        <v>193000000</v>
-      </c>
-      <c r="C242" s="1">
-        <v>5</v>
-      </c>
-      <c r="D242" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E242" s="1">
-        <v>5</v>
-      </c>
-      <c r="F242" s="1">
-        <v>10000000</v>
+        <v>124200000</v>
+      </c>
+      <c r="C242" s="2">
+        <v>73</v>
+      </c>
+      <c r="D242" s="2">
+        <v>150</v>
+      </c>
+      <c r="E242" s="2">
+        <v>73</v>
+      </c>
+      <c r="F242" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="B243" s="1">
-        <v>193800000</v>
+        <v>125000000</v>
       </c>
       <c r="C243" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D243" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E243" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F243" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="B244" s="1">
-        <v>194600000</v>
+        <v>125800000</v>
       </c>
       <c r="C244" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D244" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E244" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F244" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="B245" s="1">
-        <v>195400000</v>
+        <v>126600000</v>
       </c>
       <c r="C245" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D245" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E245" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F245" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="B246" s="1">
-        <v>196200000</v>
-      </c>
-      <c r="C246" s="2">
-        <v>73</v>
-      </c>
-      <c r="D246" s="2">
-        <v>150</v>
-      </c>
-      <c r="E246" s="2">
-        <v>73</v>
-      </c>
-      <c r="F246" s="2">
-        <v>150</v>
+        <v>127400000</v>
+      </c>
+      <c r="C246" s="1">
+        <v>20</v>
+      </c>
+      <c r="D246" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E246" s="1">
+        <v>20</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="B247" s="1">
-        <v>197000000</v>
+        <v>128200000</v>
       </c>
       <c r="C247" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D247" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E247" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F247" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="B248" s="1">
-        <v>197800000</v>
-      </c>
-      <c r="C248" s="1">
-        <v>5</v>
-      </c>
-      <c r="D248" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E248" s="1">
-        <v>5</v>
-      </c>
-      <c r="F248" s="1">
-        <v>10000000</v>
+        <v>129000000</v>
+      </c>
+      <c r="C248" s="2">
+        <v>73</v>
+      </c>
+      <c r="D248" s="2">
+        <v>150</v>
+      </c>
+      <c r="E248" s="2">
+        <v>73</v>
+      </c>
+      <c r="F248" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="B249" s="1">
-        <v>198600000</v>
+        <v>129800000</v>
       </c>
       <c r="C249" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D249" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E249" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F249" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="B250" s="1">
-        <v>199400000</v>
+        <v>130600000</v>
       </c>
       <c r="C250" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D250" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E250" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F250" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="B251" s="1">
-        <v>200200000</v>
+        <v>131400000</v>
       </c>
       <c r="C251" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D251" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E251" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F251" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="B252" s="1">
-        <v>201000000</v>
-      </c>
-      <c r="C252" s="2">
-        <v>73</v>
-      </c>
-      <c r="D252" s="2">
-        <v>150</v>
-      </c>
-      <c r="E252" s="2">
-        <v>73</v>
-      </c>
-      <c r="F252" s="2">
-        <v>150</v>
+        <v>132200000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>20</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>20</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="B253" s="1">
-        <v>201800000</v>
+        <v>133000000</v>
       </c>
       <c r="C253" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D253" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E253" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F253" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="B254" s="1">
-        <v>202600000</v>
-      </c>
-      <c r="C254" s="1">
-        <v>5</v>
-      </c>
-      <c r="D254" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E254" s="1">
-        <v>5</v>
-      </c>
-      <c r="F254" s="1">
-        <v>10000000</v>
+        <v>133800000</v>
+      </c>
+      <c r="C254" s="2">
+        <v>73</v>
+      </c>
+      <c r="D254" s="2">
+        <v>150</v>
+      </c>
+      <c r="E254" s="2">
+        <v>73</v>
+      </c>
+      <c r="F254" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B255" s="1">
-        <v>203400000</v>
+        <v>134600000</v>
       </c>
       <c r="C255" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D255" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E255" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F255" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="B256" s="1">
-        <v>204200000</v>
+        <v>135400000</v>
       </c>
       <c r="C256" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D256" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E256" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F256" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="B257" s="1">
-        <v>205000000</v>
+        <v>136200000</v>
       </c>
       <c r="C257" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D257" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E257" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F257" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="B258" s="1">
-        <v>205800000</v>
-      </c>
-      <c r="C258" s="2">
-        <v>73</v>
-      </c>
-      <c r="D258" s="2">
-        <v>150</v>
-      </c>
-      <c r="E258" s="2">
-        <v>73</v>
-      </c>
-      <c r="F258" s="2">
-        <v>150</v>
+        <v>137000000</v>
+      </c>
+      <c r="C258" s="1">
+        <v>20</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>20</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="B259" s="1">
-        <v>206600000</v>
+        <v>137800000</v>
       </c>
       <c r="C259" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D259" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E259" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F259" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="B260" s="1">
-        <v>207400000</v>
-      </c>
-      <c r="C260" s="1">
-        <v>5</v>
-      </c>
-      <c r="D260" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E260" s="1">
-        <v>5</v>
-      </c>
-      <c r="F260" s="1">
-        <v>10000000</v>
+        <v>138600000</v>
+      </c>
+      <c r="C260" s="2">
+        <v>73</v>
+      </c>
+      <c r="D260" s="2">
+        <v>150</v>
+      </c>
+      <c r="E260" s="2">
+        <v>73</v>
+      </c>
+      <c r="F260" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="B261" s="1">
-        <v>208200000</v>
+        <v>139400000</v>
       </c>
       <c r="C261" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D261" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E261" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F261" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="B262" s="1">
-        <v>209000000</v>
+        <v>140200000</v>
       </c>
       <c r="C262" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D262" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E262" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F262" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="B263" s="1">
-        <v>209800000</v>
+        <v>141000000</v>
       </c>
       <c r="C263" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D263" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E263" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F263" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="B264" s="1">
-        <v>210600000</v>
-      </c>
-      <c r="C264" s="2">
-        <v>73</v>
-      </c>
-      <c r="D264" s="2">
-        <v>150</v>
-      </c>
-      <c r="E264" s="2">
-        <v>73</v>
-      </c>
-      <c r="F264" s="2">
-        <v>150</v>
+        <v>141800000</v>
+      </c>
+      <c r="C264" s="1">
+        <v>20</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E264" s="1">
+        <v>20</v>
+      </c>
+      <c r="F264" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="B265" s="1">
-        <v>211400000</v>
+        <v>142600000</v>
       </c>
       <c r="C265" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D265" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E265" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F265" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="B266" s="1">
-        <v>212200000</v>
-      </c>
-      <c r="C266" s="1">
-        <v>5</v>
-      </c>
-      <c r="D266" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E266" s="1">
-        <v>5</v>
-      </c>
-      <c r="F266" s="1">
-        <v>10000000</v>
+        <v>143400000</v>
+      </c>
+      <c r="C266" s="2">
+        <v>73</v>
+      </c>
+      <c r="D266" s="2">
+        <v>150</v>
+      </c>
+      <c r="E266" s="2">
+        <v>73</v>
+      </c>
+      <c r="F266" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="B267" s="1">
-        <v>213000000</v>
+        <v>144200000</v>
       </c>
       <c r="C267" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D267" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E267" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F267" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="B268" s="1">
-        <v>213800000</v>
+        <v>145000000</v>
       </c>
       <c r="C268" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D268" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E268" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F268" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="B269" s="1">
-        <v>214600000</v>
+        <v>145800000</v>
       </c>
       <c r="C269" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D269" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E269" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F269" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="B270" s="1">
-        <v>215400000</v>
-      </c>
-      <c r="C270" s="2">
-        <v>73</v>
-      </c>
-      <c r="D270" s="2">
-        <v>150</v>
-      </c>
-      <c r="E270" s="2">
-        <v>73</v>
-      </c>
-      <c r="F270" s="2">
-        <v>150</v>
+        <v>146600000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>20</v>
+      </c>
+      <c r="D270" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E270" s="1">
+        <v>20</v>
+      </c>
+      <c r="F270" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="B271" s="1">
-        <v>216200000</v>
+        <v>147400000</v>
       </c>
       <c r="C271" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D271" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E271" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F271" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="B272" s="1">
-        <v>217000000</v>
-      </c>
-      <c r="C272" s="1">
-        <v>5</v>
-      </c>
-      <c r="D272" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E272" s="1">
-        <v>5</v>
-      </c>
-      <c r="F272" s="1">
-        <v>10000000</v>
+        <v>148200000</v>
+      </c>
+      <c r="C272" s="2">
+        <v>73</v>
+      </c>
+      <c r="D272" s="2">
+        <v>150</v>
+      </c>
+      <c r="E272" s="2">
+        <v>73</v>
+      </c>
+      <c r="F272" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="B273" s="1">
-        <v>217800000</v>
+        <v>149000000</v>
       </c>
       <c r="C273" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D273" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E273" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F273" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="B274" s="1">
-        <v>218600000</v>
+        <v>149800000</v>
       </c>
       <c r="C274" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D274" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E274" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F274" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="B275" s="1">
-        <v>219400000</v>
+        <v>150600000</v>
       </c>
       <c r="C275" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D275" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E275" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F275" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="B276" s="1">
-        <v>220200000</v>
-      </c>
-      <c r="C276" s="2">
-        <v>73</v>
-      </c>
-      <c r="D276" s="2">
-        <v>150</v>
-      </c>
-      <c r="E276" s="2">
-        <v>73</v>
-      </c>
-      <c r="F276" s="2">
-        <v>150</v>
+        <v>151400000</v>
+      </c>
+      <c r="C276" s="1">
+        <v>20</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E276" s="1">
+        <v>20</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="B277" s="1">
-        <v>221000000</v>
+        <v>152200000</v>
       </c>
       <c r="C277" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D277" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E277" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F277" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="B278" s="1">
-        <v>221800000</v>
-      </c>
-      <c r="C278" s="1">
-        <v>5</v>
-      </c>
-      <c r="D278" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E278" s="1">
-        <v>5</v>
-      </c>
-      <c r="F278" s="1">
-        <v>10000000</v>
+        <v>153000000</v>
+      </c>
+      <c r="C278" s="2">
+        <v>73</v>
+      </c>
+      <c r="D278" s="2">
+        <v>150</v>
+      </c>
+      <c r="E278" s="2">
+        <v>73</v>
+      </c>
+      <c r="F278" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="B279" s="1">
-        <v>222600000</v>
+        <v>153800000</v>
       </c>
       <c r="C279" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D279" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E279" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F279" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="B280" s="1">
-        <v>223400000</v>
+        <v>154600000</v>
       </c>
       <c r="C280" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D280" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E280" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F280" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="B281" s="1">
-        <v>224200000</v>
+        <v>155400000</v>
       </c>
       <c r="C281" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D281" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E281" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F281" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="B282" s="1">
-        <v>225000000</v>
-      </c>
-      <c r="C282" s="2">
-        <v>73</v>
-      </c>
-      <c r="D282" s="2">
-        <v>150</v>
-      </c>
-      <c r="E282" s="2">
-        <v>73</v>
-      </c>
-      <c r="F282" s="2">
-        <v>150</v>
+        <v>156200000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>20</v>
+      </c>
+      <c r="D282" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>20</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="B283" s="1">
-        <v>225800000</v>
+        <v>157000000</v>
       </c>
       <c r="C283" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D283" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E283" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F283" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="B284" s="1">
-        <v>226600000</v>
-      </c>
-      <c r="C284" s="1">
-        <v>5</v>
-      </c>
-      <c r="D284" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E284" s="1">
-        <v>5</v>
-      </c>
-      <c r="F284" s="1">
-        <v>10000000</v>
+        <v>157800000</v>
+      </c>
+      <c r="C284" s="2">
+        <v>73</v>
+      </c>
+      <c r="D284" s="2">
+        <v>150</v>
+      </c>
+      <c r="E284" s="2">
+        <v>73</v>
+      </c>
+      <c r="F284" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="B285" s="1">
-        <v>227400000</v>
+        <v>158600000</v>
       </c>
       <c r="C285" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D285" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E285" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F285" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="B286" s="1">
-        <v>228200000</v>
+        <v>159400000</v>
       </c>
       <c r="C286" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D286" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E286" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F286" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="B287" s="1">
-        <v>229000000</v>
+        <v>160200000</v>
       </c>
       <c r="C287" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D287" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E287" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F287" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="B288" s="1">
-        <v>229800000</v>
-      </c>
-      <c r="C288" s="2">
-        <v>73</v>
-      </c>
-      <c r="D288" s="2">
-        <v>150</v>
-      </c>
-      <c r="E288" s="2">
-        <v>73</v>
-      </c>
-      <c r="F288" s="2">
-        <v>150</v>
+        <v>161000000</v>
+      </c>
+      <c r="C288" s="1">
+        <v>20</v>
+      </c>
+      <c r="D288" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E288" s="1">
+        <v>20</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="B289" s="1">
-        <v>230600000</v>
+        <v>161800000</v>
       </c>
       <c r="C289" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D289" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E289" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F289" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="B290" s="1">
-        <v>231400000</v>
-      </c>
-      <c r="C290" s="1">
-        <v>5</v>
-      </c>
-      <c r="D290" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E290" s="1">
-        <v>5</v>
-      </c>
-      <c r="F290" s="1">
-        <v>10000000</v>
+        <v>162600000</v>
+      </c>
+      <c r="C290" s="2">
+        <v>73</v>
+      </c>
+      <c r="D290" s="2">
+        <v>150</v>
+      </c>
+      <c r="E290" s="2">
+        <v>73</v>
+      </c>
+      <c r="F290" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="B291" s="1">
-        <v>232200000</v>
+        <v>163400000</v>
       </c>
       <c r="C291" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D291" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E291" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F291" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="B292" s="1">
-        <v>233000000</v>
+        <v>164200000</v>
       </c>
       <c r="C292" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D292" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E292" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F292" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="B293" s="1">
-        <v>233800000</v>
+        <v>165000000</v>
       </c>
       <c r="C293" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D293" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E293" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F293" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="B294" s="1">
-        <v>234600000</v>
-      </c>
-      <c r="C294" s="2">
-        <v>73</v>
-      </c>
-      <c r="D294" s="2">
-        <v>150</v>
-      </c>
-      <c r="E294" s="2">
-        <v>73</v>
-      </c>
-      <c r="F294" s="2">
-        <v>150</v>
+        <v>165800000</v>
+      </c>
+      <c r="C294" s="1">
+        <v>20</v>
+      </c>
+      <c r="D294" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E294" s="1">
+        <v>20</v>
+      </c>
+      <c r="F294" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="B295" s="1">
-        <v>235400000</v>
+        <v>166600000</v>
       </c>
       <c r="C295" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D295" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E295" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F295" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="B296" s="1">
-        <v>236200000</v>
-      </c>
-      <c r="C296" s="1">
-        <v>5</v>
-      </c>
-      <c r="D296" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E296" s="1">
-        <v>5</v>
-      </c>
-      <c r="F296" s="1">
-        <v>10000000</v>
+        <v>167400000</v>
+      </c>
+      <c r="C296" s="2">
+        <v>73</v>
+      </c>
+      <c r="D296" s="2">
+        <v>150</v>
+      </c>
+      <c r="E296" s="2">
+        <v>73</v>
+      </c>
+      <c r="F296" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="B297" s="1">
-        <v>237000000</v>
+        <v>168200000</v>
       </c>
       <c r="C297" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D297" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E297" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F297" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="B298" s="1">
-        <v>237800000</v>
+        <v>169000000</v>
       </c>
       <c r="C298" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D298" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E298" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F298" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="B299" s="1">
-        <v>238600000</v>
+        <v>169800000</v>
       </c>
       <c r="C299" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D299" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E299" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F299" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="B300" s="1">
-        <v>239400000</v>
-      </c>
-      <c r="C300" s="2">
-        <v>73</v>
-      </c>
-      <c r="D300" s="2">
-        <v>150</v>
-      </c>
-      <c r="E300" s="2">
-        <v>73</v>
-      </c>
-      <c r="F300" s="2">
-        <v>150</v>
+        <v>170600000</v>
+      </c>
+      <c r="C300" s="1">
+        <v>20</v>
+      </c>
+      <c r="D300" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E300" s="1">
+        <v>20</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="B301" s="1">
-        <v>240200000</v>
+        <v>171400000</v>
       </c>
       <c r="C301" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D301" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E301" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F301" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="B302" s="1">
-        <v>241000000</v>
-      </c>
-      <c r="C302" s="1">
-        <v>5</v>
-      </c>
-      <c r="D302" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E302" s="1">
-        <v>5</v>
-      </c>
-      <c r="F302" s="1">
-        <v>10000000</v>
+        <v>172200000</v>
+      </c>
+      <c r="C302" s="2">
+        <v>73</v>
+      </c>
+      <c r="D302" s="2">
+        <v>150</v>
+      </c>
+      <c r="E302" s="2">
+        <v>73</v>
+      </c>
+      <c r="F302" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="B303" s="1">
-        <v>241800000</v>
+        <v>173000000</v>
       </c>
       <c r="C303" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D303" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E303" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F303" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="B304" s="1">
-        <v>242600000</v>
+        <v>173800000</v>
       </c>
       <c r="C304" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D304" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E304" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F304" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="B305" s="1">
-        <v>243400000</v>
+        <v>174600000</v>
       </c>
       <c r="C305" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D305" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E305" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F305" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="B306" s="1">
-        <v>244200000</v>
-      </c>
-      <c r="C306" s="2">
-        <v>73</v>
-      </c>
-      <c r="D306" s="2">
-        <v>150</v>
-      </c>
-      <c r="E306" s="2">
-        <v>73</v>
-      </c>
-      <c r="F306" s="2">
-        <v>150</v>
+        <v>175400000</v>
+      </c>
+      <c r="C306" s="1">
+        <v>20</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E306" s="1">
+        <v>20</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="B307" s="1">
-        <v>245000000</v>
+        <v>176200000</v>
       </c>
       <c r="C307" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D307" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E307" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F307" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="B308" s="1">
-        <v>245800000</v>
-      </c>
-      <c r="C308" s="1">
-        <v>5</v>
-      </c>
-      <c r="D308" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E308" s="1">
-        <v>5</v>
-      </c>
-      <c r="F308" s="1">
-        <v>10000000</v>
+        <v>177000000</v>
+      </c>
+      <c r="C308" s="2">
+        <v>73</v>
+      </c>
+      <c r="D308" s="2">
+        <v>150</v>
+      </c>
+      <c r="E308" s="2">
+        <v>73</v>
+      </c>
+      <c r="F308" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="B309" s="1">
-        <v>246600000</v>
+        <v>177800000</v>
       </c>
       <c r="C309" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D309" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E309" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F309" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="B310" s="1">
-        <v>247400000</v>
+        <v>178600000</v>
       </c>
       <c r="C310" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D310" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E310" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F310" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="B311" s="1">
-        <v>248200000</v>
+        <v>179400000</v>
       </c>
       <c r="C311" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D311" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E311" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F311" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="B312" s="1">
-        <v>249000000</v>
-      </c>
-      <c r="C312" s="2">
-        <v>73</v>
-      </c>
-      <c r="D312" s="2">
-        <v>150</v>
-      </c>
-      <c r="E312" s="2">
-        <v>73</v>
-      </c>
-      <c r="F312" s="2">
-        <v>150</v>
+        <v>180200000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>20</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>20</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="B313" s="1">
-        <v>249800000</v>
+        <v>181000000</v>
       </c>
       <c r="C313" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D313" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E313" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F313" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="B314" s="1">
-        <v>250600000</v>
-      </c>
-      <c r="C314" s="1">
-        <v>5</v>
-      </c>
-      <c r="D314" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E314" s="1">
-        <v>5</v>
-      </c>
-      <c r="F314" s="1">
-        <v>10000000</v>
+        <v>181800000</v>
+      </c>
+      <c r="C314" s="2">
+        <v>73</v>
+      </c>
+      <c r="D314" s="2">
+        <v>150</v>
+      </c>
+      <c r="E314" s="2">
+        <v>73</v>
+      </c>
+      <c r="F314" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="B315" s="1">
-        <v>78750000</v>
+        <v>182600000</v>
       </c>
       <c r="C315" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D315" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E315" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F315" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="B316" s="1">
-        <v>79000000</v>
+        <v>183400000</v>
       </c>
       <c r="C316" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D316" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E316" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F316" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="B317" s="1">
-        <v>79250000</v>
+        <v>184200000</v>
       </c>
       <c r="C317" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D317" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E317" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F317" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="2">
-        <v>316</v>
+      <c r="A318" s="1">
+        <v>230</v>
       </c>
       <c r="B318" s="1">
-        <v>79500000</v>
-      </c>
-      <c r="C318" s="2">
-        <v>73</v>
-      </c>
-      <c r="D318" s="2">
-        <v>150</v>
-      </c>
-      <c r="E318" s="2">
-        <v>73</v>
-      </c>
-      <c r="F318" s="2">
-        <v>150</v>
+        <v>185000000</v>
+      </c>
+      <c r="C318" s="1">
+        <v>20</v>
+      </c>
+      <c r="D318" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E318" s="1">
+        <v>20</v>
+      </c>
+      <c r="F318" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="B319" s="1">
-        <v>79750000</v>
+        <v>185800000</v>
       </c>
       <c r="C319" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D319" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E319" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F319" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="B320" s="1">
-        <v>80000000</v>
-      </c>
-      <c r="C320" s="1">
-        <v>5</v>
-      </c>
-      <c r="D320" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E320" s="1">
-        <v>5</v>
-      </c>
-      <c r="F320" s="1">
-        <v>10000000</v>
+        <v>186600000</v>
+      </c>
+      <c r="C320" s="2">
+        <v>73</v>
+      </c>
+      <c r="D320" s="2">
+        <v>150</v>
+      </c>
+      <c r="E320" s="2">
+        <v>73</v>
+      </c>
+      <c r="F320" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="B321" s="1">
-        <v>80250000</v>
+        <v>187400000</v>
       </c>
       <c r="C321" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D321" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E321" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F321" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="B322" s="1">
-        <v>80500000</v>
+        <v>188200000</v>
       </c>
       <c r="C322" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D322" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E322" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F322" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="2">
-        <v>321</v>
+      <c r="A323" s="1">
+        <v>235</v>
       </c>
       <c r="B323" s="1">
-        <v>80750000</v>
+        <v>189000000</v>
       </c>
       <c r="C323" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D323" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E323" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F323" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="B324" s="1">
-        <v>81000000</v>
-      </c>
-      <c r="C324" s="2">
-        <v>73</v>
-      </c>
-      <c r="D324" s="2">
-        <v>150</v>
-      </c>
-      <c r="E324" s="2">
-        <v>73</v>
-      </c>
-      <c r="F324" s="2">
-        <v>150</v>
+        <v>189800000</v>
+      </c>
+      <c r="C324" s="1">
+        <v>20</v>
+      </c>
+      <c r="D324" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E324" s="1">
+        <v>20</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="B325" s="1">
-        <v>81250000</v>
+        <v>190600000</v>
       </c>
       <c r="C325" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D325" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E325" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F325" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B326" s="1">
-        <v>81500000</v>
-      </c>
-      <c r="C326" s="1">
-        <v>5</v>
-      </c>
-      <c r="D326" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E326" s="1">
-        <v>5</v>
-      </c>
-      <c r="F326" s="1">
-        <v>10000000</v>
+        <v>191400000</v>
+      </c>
+      <c r="C326" s="2">
+        <v>73</v>
+      </c>
+      <c r="D326" s="2">
+        <v>150</v>
+      </c>
+      <c r="E326" s="2">
+        <v>73</v>
+      </c>
+      <c r="F326" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="B327" s="1">
-        <v>81750000</v>
+        <v>192200000</v>
       </c>
       <c r="C327" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D327" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E327" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F327" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="2">
-        <v>326</v>
+      <c r="A328" s="1">
+        <v>240</v>
       </c>
       <c r="B328" s="1">
-        <v>82000000</v>
+        <v>193000000</v>
       </c>
       <c r="C328" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D328" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E328" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F328" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="B329" s="1">
-        <v>82250000</v>
+        <v>193800000</v>
       </c>
       <c r="C329" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D329" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E329" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F329" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="B330" s="1">
-        <v>82500000</v>
-      </c>
-      <c r="C330" s="2">
-        <v>73</v>
-      </c>
-      <c r="D330" s="2">
-        <v>150</v>
-      </c>
-      <c r="E330" s="2">
-        <v>73</v>
-      </c>
-      <c r="F330" s="2">
-        <v>150</v>
+        <v>194600000</v>
+      </c>
+      <c r="C330" s="1">
+        <v>20</v>
+      </c>
+      <c r="D330" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E330" s="1">
+        <v>20</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="B331" s="1">
-        <v>82750000</v>
+        <v>195400000</v>
       </c>
       <c r="C331" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D331" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E331" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F331" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="B332" s="1">
-        <v>83000000</v>
-      </c>
-      <c r="C332" s="1">
-        <v>5</v>
-      </c>
-      <c r="D332" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E332" s="1">
-        <v>5</v>
-      </c>
-      <c r="F332" s="1">
-        <v>10000000</v>
+        <v>196200000</v>
+      </c>
+      <c r="C332" s="2">
+        <v>73</v>
+      </c>
+      <c r="D332" s="2">
+        <v>150</v>
+      </c>
+      <c r="E332" s="2">
+        <v>73</v>
+      </c>
+      <c r="F332" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="2">
-        <v>331</v>
+      <c r="A333" s="1">
+        <v>245</v>
       </c>
       <c r="B333" s="1">
-        <v>83250000</v>
+        <v>197000000</v>
       </c>
       <c r="C333" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D333" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E333" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F333" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="B334" s="1">
-        <v>83500000</v>
+        <v>197800000</v>
       </c>
       <c r="C334" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D334" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E334" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F334" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="B335" s="1">
-        <v>83750000</v>
+        <v>198600000</v>
       </c>
       <c r="C335" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D335" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E335" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F335" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="B336" s="1">
-        <v>84000000</v>
-      </c>
-      <c r="C336" s="2">
-        <v>73</v>
-      </c>
-      <c r="D336" s="2">
-        <v>150</v>
-      </c>
-      <c r="E336" s="2">
-        <v>73</v>
-      </c>
-      <c r="F336" s="2">
-        <v>150</v>
+        <v>199400000</v>
+      </c>
+      <c r="C336" s="1">
+        <v>20</v>
+      </c>
+      <c r="D336" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E336" s="1">
+        <v>20</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="B337" s="1">
-        <v>84250000</v>
+        <v>200200000</v>
       </c>
       <c r="C337" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D337" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E337" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F337" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="2">
-        <v>336</v>
+      <c r="A338" s="1">
+        <v>250</v>
       </c>
       <c r="B338" s="1">
-        <v>84500000</v>
-      </c>
-      <c r="C338" s="1">
-        <v>5</v>
-      </c>
-      <c r="D338" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E338" s="1">
-        <v>5</v>
-      </c>
-      <c r="F338" s="1">
-        <v>10000000</v>
+        <v>201000000</v>
+      </c>
+      <c r="C338" s="2">
+        <v>73</v>
+      </c>
+      <c r="D338" s="2">
+        <v>150</v>
+      </c>
+      <c r="E338" s="2">
+        <v>73</v>
+      </c>
+      <c r="F338" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="B339" s="1">
-        <v>84750000</v>
+        <v>201800000</v>
       </c>
       <c r="C339" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D339" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E339" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F339" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="B340" s="1">
-        <v>85000000</v>
+        <v>202600000</v>
       </c>
       <c r="C340" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D340" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E340" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F340" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="B341" s="1">
-        <v>85250000</v>
+        <v>203400000</v>
       </c>
       <c r="C341" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D341" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E341" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F341" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="B342" s="1">
-        <v>85500000</v>
-      </c>
-      <c r="C342" s="2">
-        <v>73</v>
-      </c>
-      <c r="D342" s="2">
-        <v>150</v>
-      </c>
-      <c r="E342" s="2">
-        <v>73</v>
-      </c>
-      <c r="F342" s="2">
-        <v>150</v>
+        <v>204200000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>20</v>
+      </c>
+      <c r="D342" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>20</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="2">
-        <v>341</v>
+      <c r="A343" s="1">
+        <v>255</v>
       </c>
       <c r="B343" s="1">
-        <v>85750000</v>
+        <v>205000000</v>
       </c>
       <c r="C343" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D343" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E343" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F343" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="B344" s="1">
-        <v>86000000</v>
-      </c>
-      <c r="C344" s="1">
-        <v>5</v>
-      </c>
-      <c r="D344" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E344" s="1">
-        <v>5</v>
-      </c>
-      <c r="F344" s="1">
-        <v>10000000</v>
+        <v>205800000</v>
+      </c>
+      <c r="C344" s="2">
+        <v>73</v>
+      </c>
+      <c r="D344" s="2">
+        <v>150</v>
+      </c>
+      <c r="E344" s="2">
+        <v>73</v>
+      </c>
+      <c r="F344" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="B345" s="1">
-        <v>86250000</v>
+        <v>206600000</v>
       </c>
       <c r="C345" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D345" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E345" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F345" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="B346" s="1">
-        <v>86500000</v>
+        <v>207400000</v>
       </c>
       <c r="C346" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D346" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E346" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F346" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="B347" s="1">
-        <v>86750000</v>
+        <v>208200000</v>
       </c>
       <c r="C347" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D347" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E347" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F347" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="2">
-        <v>346</v>
+      <c r="A348" s="1">
+        <v>260</v>
       </c>
       <c r="B348" s="1">
-        <v>87000000</v>
-      </c>
-      <c r="C348" s="2">
-        <v>73</v>
-      </c>
-      <c r="D348" s="2">
-        <v>150</v>
-      </c>
-      <c r="E348" s="2">
-        <v>73</v>
-      </c>
-      <c r="F348" s="2">
-        <v>150</v>
+        <v>209000000</v>
+      </c>
+      <c r="C348" s="1">
+        <v>20</v>
+      </c>
+      <c r="D348" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E348" s="1">
+        <v>20</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="B349" s="1">
-        <v>87250000</v>
+        <v>209800000</v>
       </c>
       <c r="C349" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D349" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E349" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F349" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="B350" s="1">
-        <v>87500000</v>
-      </c>
-      <c r="C350" s="1">
-        <v>5</v>
-      </c>
-      <c r="D350" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E350" s="1">
-        <v>5</v>
-      </c>
-      <c r="F350" s="1">
-        <v>10000000</v>
+        <v>210600000</v>
+      </c>
+      <c r="C350" s="2">
+        <v>73</v>
+      </c>
+      <c r="D350" s="2">
+        <v>150</v>
+      </c>
+      <c r="E350" s="2">
+        <v>73</v>
+      </c>
+      <c r="F350" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>263</v>
       </c>
       <c r="B351" s="1">
-        <v>87750000</v>
+        <v>211400000</v>
       </c>
       <c r="C351" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D351" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E351" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F351" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="B352" s="1">
-        <v>88000000</v>
+        <v>212200000</v>
       </c>
       <c r="C352" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D352" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E352" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F352" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="2">
-        <v>351</v>
+      <c r="A353" s="1">
+        <v>265</v>
       </c>
       <c r="B353" s="1">
-        <v>88250000</v>
+        <v>213000000</v>
       </c>
       <c r="C353" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D353" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E353" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F353" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="B354" s="1">
-        <v>88500000</v>
-      </c>
-      <c r="C354" s="2">
-        <v>73</v>
-      </c>
-      <c r="D354" s="2">
-        <v>150</v>
-      </c>
-      <c r="E354" s="2">
-        <v>73</v>
-      </c>
-      <c r="F354" s="2">
-        <v>150</v>
+        <v>213800000</v>
+      </c>
+      <c r="C354" s="1">
+        <v>20</v>
+      </c>
+      <c r="D354" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E354" s="1">
+        <v>20</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="B355" s="1">
-        <v>88750000</v>
+        <v>214600000</v>
       </c>
       <c r="C355" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D355" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E355" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F355" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="B356" s="1">
-        <v>89000000</v>
-      </c>
-      <c r="C356" s="1">
-        <v>5</v>
-      </c>
-      <c r="D356" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E356" s="1">
-        <v>5</v>
-      </c>
-      <c r="F356" s="1">
-        <v>10000000</v>
+        <v>215400000</v>
+      </c>
+      <c r="C356" s="2">
+        <v>73</v>
+      </c>
+      <c r="D356" s="2">
+        <v>150</v>
+      </c>
+      <c r="E356" s="2">
+        <v>73</v>
+      </c>
+      <c r="F356" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="B357" s="1">
-        <v>89250000</v>
+        <v>216200000</v>
       </c>
       <c r="C357" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D357" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E357" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F357" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
-        <v>356</v>
+      <c r="A358" s="1">
+        <v>270</v>
       </c>
       <c r="B358" s="1">
-        <v>89500000</v>
+        <v>217000000</v>
       </c>
       <c r="C358" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D358" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E358" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F358" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="B359" s="1">
-        <v>89750000</v>
+        <v>217800000</v>
       </c>
       <c r="C359" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D359" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E359" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F359" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="B360" s="1">
-        <v>90000000</v>
-      </c>
-      <c r="C360" s="2">
-        <v>73</v>
-      </c>
-      <c r="D360" s="2">
-        <v>150</v>
-      </c>
-      <c r="E360" s="2">
-        <v>73</v>
-      </c>
-      <c r="F360" s="2">
-        <v>150</v>
+        <v>218600000</v>
+      </c>
+      <c r="C360" s="1">
+        <v>20</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E360" s="1">
+        <v>20</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="B361" s="1">
-        <v>90250000</v>
+        <v>219400000</v>
       </c>
       <c r="C361" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D361" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E361" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F361" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="B362" s="1">
-        <v>90500000</v>
-      </c>
-      <c r="C362" s="1">
-        <v>5</v>
-      </c>
-      <c r="D362" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E362" s="1">
-        <v>5</v>
-      </c>
-      <c r="F362" s="1">
-        <v>10000000</v>
+        <v>220200000</v>
+      </c>
+      <c r="C362" s="2">
+        <v>73</v>
+      </c>
+      <c r="D362" s="2">
+        <v>150</v>
+      </c>
+      <c r="E362" s="2">
+        <v>73</v>
+      </c>
+      <c r="F362" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="2">
-        <v>361</v>
+      <c r="A363" s="1">
+        <v>275</v>
       </c>
       <c r="B363" s="1">
-        <v>90750000</v>
+        <v>221000000</v>
       </c>
       <c r="C363" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D363" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E363" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F363" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="B364" s="1">
-        <v>91000000</v>
+        <v>221800000</v>
       </c>
       <c r="C364" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D364" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E364" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F364" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="B365" s="1">
-        <v>91250000</v>
+        <v>222600000</v>
       </c>
       <c r="C365" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D365" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E365" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F365" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="B366" s="1">
-        <v>91500000</v>
-      </c>
-      <c r="C366" s="2">
-        <v>73</v>
-      </c>
-      <c r="D366" s="2">
-        <v>150</v>
-      </c>
-      <c r="E366" s="2">
-        <v>73</v>
-      </c>
-      <c r="F366" s="2">
-        <v>150</v>
+        <v>223400000</v>
+      </c>
+      <c r="C366" s="1">
+        <v>20</v>
+      </c>
+      <c r="D366" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E366" s="1">
+        <v>20</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="B367" s="1">
-        <v>91750000</v>
+        <v>224200000</v>
       </c>
       <c r="C367" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D367" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E367" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F367" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="2">
-        <v>366</v>
+      <c r="A368" s="1">
+        <v>280</v>
       </c>
       <c r="B368" s="1">
-        <v>92000000</v>
-      </c>
-      <c r="C368" s="1">
-        <v>5</v>
-      </c>
-      <c r="D368" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E368" s="1">
-        <v>5</v>
-      </c>
-      <c r="F368" s="1">
-        <v>10000000</v>
+        <v>225000000</v>
+      </c>
+      <c r="C368" s="2">
+        <v>73</v>
+      </c>
+      <c r="D368" s="2">
+        <v>150</v>
+      </c>
+      <c r="E368" s="2">
+        <v>73</v>
+      </c>
+      <c r="F368" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="B369" s="1">
-        <v>92250000</v>
+        <v>225800000</v>
       </c>
       <c r="C369" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D369" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E369" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F369" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="B370" s="1">
-        <v>92500000</v>
+        <v>226600000</v>
       </c>
       <c r="C370" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D370" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E370" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F370" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="B371" s="1">
-        <v>92750000</v>
+        <v>227400000</v>
       </c>
       <c r="C371" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D371" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E371" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F371" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="B372" s="1">
-        <v>93000000</v>
-      </c>
-      <c r="C372" s="2">
-        <v>73</v>
-      </c>
-      <c r="D372" s="2">
-        <v>150</v>
-      </c>
-      <c r="E372" s="2">
-        <v>73</v>
-      </c>
-      <c r="F372" s="2">
-        <v>150</v>
+        <v>228200000</v>
+      </c>
+      <c r="C372" s="1">
+        <v>20</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E372" s="1">
+        <v>20</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="2">
-        <v>371</v>
+      <c r="A373" s="1">
+        <v>285</v>
       </c>
       <c r="B373" s="1">
-        <v>93250000</v>
+        <v>229000000</v>
       </c>
       <c r="C373" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D373" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E373" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F373" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="B374" s="1">
-        <v>93500000</v>
-      </c>
-      <c r="C374" s="1">
-        <v>5</v>
-      </c>
-      <c r="D374" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E374" s="1">
-        <v>5</v>
-      </c>
-      <c r="F374" s="1">
-        <v>10000000</v>
+        <v>229800000</v>
+      </c>
+      <c r="C374" s="2">
+        <v>73</v>
+      </c>
+      <c r="D374" s="2">
+        <v>150</v>
+      </c>
+      <c r="E374" s="2">
+        <v>73</v>
+      </c>
+      <c r="F374" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="B375" s="1">
-        <v>93750000</v>
+        <v>230600000</v>
       </c>
       <c r="C375" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D375" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E375" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F375" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>374</v>
+        <v>288</v>
       </c>
       <c r="B376" s="1">
-        <v>94000000</v>
+        <v>231400000</v>
       </c>
       <c r="C376" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D376" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E376" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F376" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="B377" s="1">
-        <v>94250000</v>
+        <v>232200000</v>
       </c>
       <c r="C377" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D377" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E377" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F377" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="2">
-        <v>376</v>
+      <c r="A378" s="1">
+        <v>290</v>
       </c>
       <c r="B378" s="1">
-        <v>94500000</v>
-      </c>
-      <c r="C378" s="2">
-        <v>73</v>
-      </c>
-      <c r="D378" s="2">
-        <v>150</v>
-      </c>
-      <c r="E378" s="2">
-        <v>73</v>
-      </c>
-      <c r="F378" s="2">
-        <v>150</v>
+        <v>233000000</v>
+      </c>
+      <c r="C378" s="1">
+        <v>20</v>
+      </c>
+      <c r="D378" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E378" s="1">
+        <v>20</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="B379" s="1">
-        <v>94750000</v>
+        <v>233800000</v>
       </c>
       <c r="C379" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D379" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E379" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F379" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="B380" s="1">
-        <v>95000000</v>
-      </c>
-      <c r="C380" s="1">
-        <v>5</v>
-      </c>
-      <c r="D380" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E380" s="1">
-        <v>5</v>
-      </c>
-      <c r="F380" s="1">
-        <v>10000000</v>
+        <v>234600000</v>
+      </c>
+      <c r="C380" s="2">
+        <v>73</v>
+      </c>
+      <c r="D380" s="2">
+        <v>150</v>
+      </c>
+      <c r="E380" s="2">
+        <v>73</v>
+      </c>
+      <c r="F380" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="B381" s="1">
-        <v>95250000</v>
+        <v>235400000</v>
       </c>
       <c r="C381" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D381" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E381" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F381" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="B382" s="1">
-        <v>95500000</v>
+        <v>236200000</v>
       </c>
       <c r="C382" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D382" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E382" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F382" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="2">
-        <v>381</v>
+      <c r="A383" s="1">
+        <v>295</v>
       </c>
       <c r="B383" s="1">
-        <v>95750000</v>
+        <v>237000000</v>
       </c>
       <c r="C383" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D383" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E383" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F383" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="B384" s="1">
-        <v>96000000</v>
-      </c>
-      <c r="C384" s="2">
-        <v>73</v>
-      </c>
-      <c r="D384" s="2">
-        <v>150</v>
-      </c>
-      <c r="E384" s="2">
-        <v>73</v>
-      </c>
-      <c r="F384" s="2">
-        <v>150</v>
+        <v>237800000</v>
+      </c>
+      <c r="C384" s="1">
+        <v>20</v>
+      </c>
+      <c r="D384" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E384" s="1">
+        <v>20</v>
+      </c>
+      <c r="F384" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="B385" s="1">
-        <v>96250000</v>
+        <v>238600000</v>
       </c>
       <c r="C385" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D385" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E385" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F385" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="B386" s="1">
-        <v>96500000</v>
-      </c>
-      <c r="C386" s="1">
-        <v>5</v>
-      </c>
-      <c r="D386" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E386" s="1">
-        <v>5</v>
-      </c>
-      <c r="F386" s="1">
-        <v>10000000</v>
+        <v>239400000</v>
+      </c>
+      <c r="C386" s="2">
+        <v>73</v>
+      </c>
+      <c r="D386" s="2">
+        <v>150</v>
+      </c>
+      <c r="E386" s="2">
+        <v>73</v>
+      </c>
+      <c r="F386" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="B387" s="1">
-        <v>96750000</v>
+        <v>240200000</v>
       </c>
       <c r="C387" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D387" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E387" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F387" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="2">
-        <v>386</v>
+      <c r="A388" s="1">
+        <v>300</v>
       </c>
       <c r="B388" s="1">
-        <v>97000000</v>
+        <v>241000000</v>
       </c>
       <c r="C388" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D388" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E388" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F388" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="B389" s="1">
-        <v>97250000</v>
+        <v>241800000</v>
       </c>
       <c r="C389" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D389" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E389" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F389" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="B390" s="1">
-        <v>97500000</v>
-      </c>
-      <c r="C390" s="2">
-        <v>73</v>
-      </c>
-      <c r="D390" s="2">
-        <v>150</v>
-      </c>
-      <c r="E390" s="2">
-        <v>73</v>
-      </c>
-      <c r="F390" s="2">
-        <v>150</v>
+        <v>242600000</v>
+      </c>
+      <c r="C390" s="1">
+        <v>20</v>
+      </c>
+      <c r="D390" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E390" s="1">
+        <v>20</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>389</v>
+        <v>303</v>
       </c>
       <c r="B391" s="1">
-        <v>97750000</v>
+        <v>243400000</v>
       </c>
       <c r="C391" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D391" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E391" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F391" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="B392" s="1">
-        <v>98000000</v>
-      </c>
-      <c r="C392" s="1">
-        <v>5</v>
-      </c>
-      <c r="D392" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E392" s="1">
-        <v>5</v>
-      </c>
-      <c r="F392" s="1">
-        <v>10000000</v>
+        <v>244200000</v>
+      </c>
+      <c r="C392" s="2">
+        <v>73</v>
+      </c>
+      <c r="D392" s="2">
+        <v>150</v>
+      </c>
+      <c r="E392" s="2">
+        <v>73</v>
+      </c>
+      <c r="F392" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="2">
-        <v>391</v>
+      <c r="A393" s="1">
+        <v>305</v>
       </c>
       <c r="B393" s="1">
-        <v>98250000</v>
+        <v>245000000</v>
       </c>
       <c r="C393" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D393" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E393" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F393" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="B394" s="1">
-        <v>98500000</v>
+        <v>245800000</v>
       </c>
       <c r="C394" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D394" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E394" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F394" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="B395" s="1">
-        <v>98750000</v>
+        <v>246600000</v>
       </c>
       <c r="C395" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D395" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E395" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F395" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="B396" s="1">
-        <v>99000000</v>
-      </c>
-      <c r="C396" s="2">
-        <v>73</v>
-      </c>
-      <c r="D396" s="2">
-        <v>150</v>
-      </c>
-      <c r="E396" s="2">
-        <v>73</v>
-      </c>
-      <c r="F396" s="2">
-        <v>150</v>
+        <v>247400000</v>
+      </c>
+      <c r="C396" s="1">
+        <v>20</v>
+      </c>
+      <c r="D396" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E396" s="1">
+        <v>20</v>
+      </c>
+      <c r="F396" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="B397" s="1">
-        <v>99250000</v>
+        <v>248200000</v>
       </c>
       <c r="C397" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D397" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="E397" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F397" s="1">
-        <v>75</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="2">
-        <v>396</v>
+      <c r="A398" s="1">
+        <v>310</v>
       </c>
       <c r="B398" s="1">
-        <v>99500000</v>
-      </c>
-      <c r="C398" s="1">
-        <v>5</v>
-      </c>
-      <c r="D398" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E398" s="1">
-        <v>5</v>
-      </c>
-      <c r="F398" s="1">
-        <v>10000000</v>
+        <v>249000000</v>
+      </c>
+      <c r="C398" s="2">
+        <v>73</v>
+      </c>
+      <c r="D398" s="2">
+        <v>150</v>
+      </c>
+      <c r="E398" s="2">
+        <v>73</v>
+      </c>
+      <c r="F398" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="B399" s="1">
-        <v>99750000</v>
+        <v>249800000</v>
       </c>
       <c r="C399" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D399" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="E399" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F399" s="1">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="B400" s="1">
-        <v>100000000</v>
+        <v>250600000</v>
       </c>
       <c r="C400" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D400" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="E400" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F400" s="1">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F400" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F400">
+      <sortCondition ref="B1:B400"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C273A-2CC1-439B-AFDF-0E4EC3E8CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8669BEE-85A9-472F-B77B-BF3C29471458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C536" sqref="C536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8475,6 +8475,2506 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>312</v>
+      </c>
+      <c r="B401" s="1">
+        <v>251400000</v>
+      </c>
+      <c r="C401" s="1">
+        <v>30</v>
+      </c>
+      <c r="D401" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E401" s="1">
+        <v>30</v>
+      </c>
+      <c r="F401" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>312</v>
+      </c>
+      <c r="B402" s="1">
+        <v>252200000</v>
+      </c>
+      <c r="C402" s="1">
+        <v>20</v>
+      </c>
+      <c r="D402" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E402" s="1">
+        <v>20</v>
+      </c>
+      <c r="F402" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>312</v>
+      </c>
+      <c r="B403" s="1">
+        <v>253000000</v>
+      </c>
+      <c r="C403" s="1">
+        <v>46</v>
+      </c>
+      <c r="D403" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E403" s="1">
+        <v>46</v>
+      </c>
+      <c r="F403" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>312</v>
+      </c>
+      <c r="B404" s="1">
+        <v>253800000</v>
+      </c>
+      <c r="C404" s="2">
+        <v>73</v>
+      </c>
+      <c r="D404" s="2">
+        <v>150</v>
+      </c>
+      <c r="E404" s="2">
+        <v>73</v>
+      </c>
+      <c r="F404" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>312</v>
+      </c>
+      <c r="B405" s="1">
+        <v>254600000</v>
+      </c>
+      <c r="C405" s="1">
+        <v>88</v>
+      </c>
+      <c r="D405" s="1">
+        <v>75</v>
+      </c>
+      <c r="E405" s="1">
+        <v>88</v>
+      </c>
+      <c r="F405" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>312</v>
+      </c>
+      <c r="B406" s="1">
+        <v>255400000</v>
+      </c>
+      <c r="C406" s="1">
+        <v>5</v>
+      </c>
+      <c r="D406" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E406" s="1">
+        <v>5</v>
+      </c>
+      <c r="F406" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>312</v>
+      </c>
+      <c r="B407" s="1">
+        <v>256200000</v>
+      </c>
+      <c r="C407" s="1">
+        <v>30</v>
+      </c>
+      <c r="D407" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E407" s="1">
+        <v>30</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>312</v>
+      </c>
+      <c r="B408" s="1">
+        <v>257000000</v>
+      </c>
+      <c r="C408" s="1">
+        <v>20</v>
+      </c>
+      <c r="D408" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E408" s="1">
+        <v>20</v>
+      </c>
+      <c r="F408" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>312</v>
+      </c>
+      <c r="B409" s="1">
+        <v>257800000</v>
+      </c>
+      <c r="C409" s="1">
+        <v>46</v>
+      </c>
+      <c r="D409" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E409" s="1">
+        <v>46</v>
+      </c>
+      <c r="F409" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>312</v>
+      </c>
+      <c r="B410" s="1">
+        <v>258600000</v>
+      </c>
+      <c r="C410" s="2">
+        <v>73</v>
+      </c>
+      <c r="D410" s="2">
+        <v>150</v>
+      </c>
+      <c r="E410" s="2">
+        <v>73</v>
+      </c>
+      <c r="F410" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>312</v>
+      </c>
+      <c r="B411" s="1">
+        <v>259400000</v>
+      </c>
+      <c r="C411" s="1">
+        <v>88</v>
+      </c>
+      <c r="D411" s="1">
+        <v>75</v>
+      </c>
+      <c r="E411" s="1">
+        <v>88</v>
+      </c>
+      <c r="F411" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>312</v>
+      </c>
+      <c r="B412" s="1">
+        <v>260200000</v>
+      </c>
+      <c r="C412" s="1">
+        <v>5</v>
+      </c>
+      <c r="D412" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E412" s="1">
+        <v>5</v>
+      </c>
+      <c r="F412" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>312</v>
+      </c>
+      <c r="B413" s="1">
+        <v>261000000</v>
+      </c>
+      <c r="C413" s="1">
+        <v>30</v>
+      </c>
+      <c r="D413" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E413" s="1">
+        <v>30</v>
+      </c>
+      <c r="F413" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>312</v>
+      </c>
+      <c r="B414" s="1">
+        <v>261800000</v>
+      </c>
+      <c r="C414" s="1">
+        <v>20</v>
+      </c>
+      <c r="D414" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E414" s="1">
+        <v>20</v>
+      </c>
+      <c r="F414" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>312</v>
+      </c>
+      <c r="B415" s="1">
+        <v>262600000</v>
+      </c>
+      <c r="C415" s="1">
+        <v>46</v>
+      </c>
+      <c r="D415" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E415" s="1">
+        <v>46</v>
+      </c>
+      <c r="F415" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>312</v>
+      </c>
+      <c r="B416" s="1">
+        <v>263400000</v>
+      </c>
+      <c r="C416" s="2">
+        <v>73</v>
+      </c>
+      <c r="D416" s="2">
+        <v>150</v>
+      </c>
+      <c r="E416" s="2">
+        <v>73</v>
+      </c>
+      <c r="F416" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>312</v>
+      </c>
+      <c r="B417" s="1">
+        <v>264200000</v>
+      </c>
+      <c r="C417" s="1">
+        <v>88</v>
+      </c>
+      <c r="D417" s="1">
+        <v>75</v>
+      </c>
+      <c r="E417" s="1">
+        <v>88</v>
+      </c>
+      <c r="F417" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>312</v>
+      </c>
+      <c r="B418" s="1">
+        <v>265000000</v>
+      </c>
+      <c r="C418" s="1">
+        <v>5</v>
+      </c>
+      <c r="D418" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E418" s="1">
+        <v>5</v>
+      </c>
+      <c r="F418" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>312</v>
+      </c>
+      <c r="B419" s="1">
+        <v>265800000</v>
+      </c>
+      <c r="C419" s="1">
+        <v>30</v>
+      </c>
+      <c r="D419" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E419" s="1">
+        <v>30</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>312</v>
+      </c>
+      <c r="B420" s="1">
+        <v>266600000</v>
+      </c>
+      <c r="C420" s="1">
+        <v>20</v>
+      </c>
+      <c r="D420" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E420" s="1">
+        <v>20</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>312</v>
+      </c>
+      <c r="B421" s="1">
+        <v>267400000</v>
+      </c>
+      <c r="C421" s="1">
+        <v>46</v>
+      </c>
+      <c r="D421" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E421" s="1">
+        <v>46</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>312</v>
+      </c>
+      <c r="B422" s="1">
+        <v>268200000</v>
+      </c>
+      <c r="C422" s="2">
+        <v>73</v>
+      </c>
+      <c r="D422" s="2">
+        <v>150</v>
+      </c>
+      <c r="E422" s="2">
+        <v>73</v>
+      </c>
+      <c r="F422" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>312</v>
+      </c>
+      <c r="B423" s="1">
+        <v>269000000</v>
+      </c>
+      <c r="C423" s="1">
+        <v>88</v>
+      </c>
+      <c r="D423" s="1">
+        <v>75</v>
+      </c>
+      <c r="E423" s="1">
+        <v>88</v>
+      </c>
+      <c r="F423" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>312</v>
+      </c>
+      <c r="B424" s="1">
+        <v>269800000</v>
+      </c>
+      <c r="C424" s="1">
+        <v>5</v>
+      </c>
+      <c r="D424" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E424" s="1">
+        <v>5</v>
+      </c>
+      <c r="F424" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>312</v>
+      </c>
+      <c r="B425" s="1">
+        <v>270600000</v>
+      </c>
+      <c r="C425" s="1">
+        <v>30</v>
+      </c>
+      <c r="D425" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E425" s="1">
+        <v>30</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>312</v>
+      </c>
+      <c r="B426" s="1">
+        <v>271400000</v>
+      </c>
+      <c r="C426" s="1">
+        <v>20</v>
+      </c>
+      <c r="D426" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E426" s="1">
+        <v>20</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>312</v>
+      </c>
+      <c r="B427" s="1">
+        <v>272200000</v>
+      </c>
+      <c r="C427" s="1">
+        <v>46</v>
+      </c>
+      <c r="D427" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E427" s="1">
+        <v>46</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>312</v>
+      </c>
+      <c r="B428" s="1">
+        <v>273000000</v>
+      </c>
+      <c r="C428" s="2">
+        <v>73</v>
+      </c>
+      <c r="D428" s="2">
+        <v>150</v>
+      </c>
+      <c r="E428" s="2">
+        <v>73</v>
+      </c>
+      <c r="F428" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>312</v>
+      </c>
+      <c r="B429" s="1">
+        <v>273800000</v>
+      </c>
+      <c r="C429" s="1">
+        <v>88</v>
+      </c>
+      <c r="D429" s="1">
+        <v>75</v>
+      </c>
+      <c r="E429" s="1">
+        <v>88</v>
+      </c>
+      <c r="F429" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>312</v>
+      </c>
+      <c r="B430" s="1">
+        <v>274600000</v>
+      </c>
+      <c r="C430" s="1">
+        <v>5</v>
+      </c>
+      <c r="D430" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E430" s="1">
+        <v>5</v>
+      </c>
+      <c r="F430" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>312</v>
+      </c>
+      <c r="B431" s="1">
+        <v>275400000</v>
+      </c>
+      <c r="C431" s="1">
+        <v>30</v>
+      </c>
+      <c r="D431" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E431" s="1">
+        <v>30</v>
+      </c>
+      <c r="F431" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>312</v>
+      </c>
+      <c r="B432" s="1">
+        <v>276200000</v>
+      </c>
+      <c r="C432" s="1">
+        <v>20</v>
+      </c>
+      <c r="D432" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E432" s="1">
+        <v>20</v>
+      </c>
+      <c r="F432" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>312</v>
+      </c>
+      <c r="B433" s="1">
+        <v>277000000</v>
+      </c>
+      <c r="C433" s="1">
+        <v>46</v>
+      </c>
+      <c r="D433" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E433" s="1">
+        <v>46</v>
+      </c>
+      <c r="F433" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>312</v>
+      </c>
+      <c r="B434" s="1">
+        <v>277800000</v>
+      </c>
+      <c r="C434" s="2">
+        <v>73</v>
+      </c>
+      <c r="D434" s="2">
+        <v>150</v>
+      </c>
+      <c r="E434" s="2">
+        <v>73</v>
+      </c>
+      <c r="F434" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>312</v>
+      </c>
+      <c r="B435" s="1">
+        <v>278600000</v>
+      </c>
+      <c r="C435" s="1">
+        <v>88</v>
+      </c>
+      <c r="D435" s="1">
+        <v>75</v>
+      </c>
+      <c r="E435" s="1">
+        <v>88</v>
+      </c>
+      <c r="F435" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>312</v>
+      </c>
+      <c r="B436" s="1">
+        <v>279400000</v>
+      </c>
+      <c r="C436" s="1">
+        <v>5</v>
+      </c>
+      <c r="D436" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E436" s="1">
+        <v>5</v>
+      </c>
+      <c r="F436" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>312</v>
+      </c>
+      <c r="B437" s="1">
+        <v>280200000</v>
+      </c>
+      <c r="C437" s="1">
+        <v>30</v>
+      </c>
+      <c r="D437" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E437" s="1">
+        <v>30</v>
+      </c>
+      <c r="F437" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>312</v>
+      </c>
+      <c r="B438" s="1">
+        <v>281000000</v>
+      </c>
+      <c r="C438" s="1">
+        <v>20</v>
+      </c>
+      <c r="D438" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E438" s="1">
+        <v>20</v>
+      </c>
+      <c r="F438" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>312</v>
+      </c>
+      <c r="B439" s="1">
+        <v>281800000</v>
+      </c>
+      <c r="C439" s="1">
+        <v>46</v>
+      </c>
+      <c r="D439" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E439" s="1">
+        <v>46</v>
+      </c>
+      <c r="F439" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>312</v>
+      </c>
+      <c r="B440" s="1">
+        <v>282600000</v>
+      </c>
+      <c r="C440" s="2">
+        <v>73</v>
+      </c>
+      <c r="D440" s="2">
+        <v>150</v>
+      </c>
+      <c r="E440" s="2">
+        <v>73</v>
+      </c>
+      <c r="F440" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>312</v>
+      </c>
+      <c r="B441" s="1">
+        <v>283400000</v>
+      </c>
+      <c r="C441" s="1">
+        <v>88</v>
+      </c>
+      <c r="D441" s="1">
+        <v>75</v>
+      </c>
+      <c r="E441" s="1">
+        <v>88</v>
+      </c>
+      <c r="F441" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>312</v>
+      </c>
+      <c r="B442" s="1">
+        <v>284200000</v>
+      </c>
+      <c r="C442" s="1">
+        <v>5</v>
+      </c>
+      <c r="D442" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E442" s="1">
+        <v>5</v>
+      </c>
+      <c r="F442" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>312</v>
+      </c>
+      <c r="B443" s="1">
+        <v>285000000</v>
+      </c>
+      <c r="C443" s="1">
+        <v>30</v>
+      </c>
+      <c r="D443" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E443" s="1">
+        <v>30</v>
+      </c>
+      <c r="F443" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>312</v>
+      </c>
+      <c r="B444" s="1">
+        <v>285800000</v>
+      </c>
+      <c r="C444" s="1">
+        <v>20</v>
+      </c>
+      <c r="D444" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E444" s="1">
+        <v>20</v>
+      </c>
+      <c r="F444" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>312</v>
+      </c>
+      <c r="B445" s="1">
+        <v>286600000</v>
+      </c>
+      <c r="C445" s="1">
+        <v>46</v>
+      </c>
+      <c r="D445" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E445" s="1">
+        <v>46</v>
+      </c>
+      <c r="F445" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>312</v>
+      </c>
+      <c r="B446" s="1">
+        <v>287400000</v>
+      </c>
+      <c r="C446" s="2">
+        <v>73</v>
+      </c>
+      <c r="D446" s="2">
+        <v>150</v>
+      </c>
+      <c r="E446" s="2">
+        <v>73</v>
+      </c>
+      <c r="F446" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>312</v>
+      </c>
+      <c r="B447" s="1">
+        <v>288200000</v>
+      </c>
+      <c r="C447" s="1">
+        <v>88</v>
+      </c>
+      <c r="D447" s="1">
+        <v>75</v>
+      </c>
+      <c r="E447" s="1">
+        <v>88</v>
+      </c>
+      <c r="F447" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>312</v>
+      </c>
+      <c r="B448" s="1">
+        <v>289000000</v>
+      </c>
+      <c r="C448" s="1">
+        <v>5</v>
+      </c>
+      <c r="D448" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E448" s="1">
+        <v>5</v>
+      </c>
+      <c r="F448" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>312</v>
+      </c>
+      <c r="B449" s="1">
+        <v>289800000</v>
+      </c>
+      <c r="C449" s="1">
+        <v>30</v>
+      </c>
+      <c r="D449" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E449" s="1">
+        <v>30</v>
+      </c>
+      <c r="F449" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>312</v>
+      </c>
+      <c r="B450" s="1">
+        <v>290600000</v>
+      </c>
+      <c r="C450" s="1">
+        <v>20</v>
+      </c>
+      <c r="D450" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E450" s="1">
+        <v>20</v>
+      </c>
+      <c r="F450" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>312</v>
+      </c>
+      <c r="B451" s="1">
+        <v>291400000</v>
+      </c>
+      <c r="C451" s="1">
+        <v>46</v>
+      </c>
+      <c r="D451" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E451" s="1">
+        <v>46</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>312</v>
+      </c>
+      <c r="B452" s="1">
+        <v>292200000</v>
+      </c>
+      <c r="C452" s="2">
+        <v>73</v>
+      </c>
+      <c r="D452" s="2">
+        <v>150</v>
+      </c>
+      <c r="E452" s="2">
+        <v>73</v>
+      </c>
+      <c r="F452" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>312</v>
+      </c>
+      <c r="B453" s="1">
+        <v>293000000</v>
+      </c>
+      <c r="C453" s="1">
+        <v>88</v>
+      </c>
+      <c r="D453" s="1">
+        <v>75</v>
+      </c>
+      <c r="E453" s="1">
+        <v>88</v>
+      </c>
+      <c r="F453" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>312</v>
+      </c>
+      <c r="B454" s="1">
+        <v>293800000</v>
+      </c>
+      <c r="C454" s="1">
+        <v>5</v>
+      </c>
+      <c r="D454" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E454" s="1">
+        <v>5</v>
+      </c>
+      <c r="F454" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>312</v>
+      </c>
+      <c r="B455" s="1">
+        <v>294600000</v>
+      </c>
+      <c r="C455" s="1">
+        <v>30</v>
+      </c>
+      <c r="D455" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E455" s="1">
+        <v>30</v>
+      </c>
+      <c r="F455" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>312</v>
+      </c>
+      <c r="B456" s="1">
+        <v>295400000</v>
+      </c>
+      <c r="C456" s="1">
+        <v>20</v>
+      </c>
+      <c r="D456" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E456" s="1">
+        <v>20</v>
+      </c>
+      <c r="F456" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>312</v>
+      </c>
+      <c r="B457" s="1">
+        <v>296200000</v>
+      </c>
+      <c r="C457" s="1">
+        <v>46</v>
+      </c>
+      <c r="D457" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E457" s="1">
+        <v>46</v>
+      </c>
+      <c r="F457" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>312</v>
+      </c>
+      <c r="B458" s="1">
+        <v>297000000</v>
+      </c>
+      <c r="C458" s="2">
+        <v>73</v>
+      </c>
+      <c r="D458" s="2">
+        <v>150</v>
+      </c>
+      <c r="E458" s="2">
+        <v>73</v>
+      </c>
+      <c r="F458" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>312</v>
+      </c>
+      <c r="B459" s="1">
+        <v>297800000</v>
+      </c>
+      <c r="C459" s="1">
+        <v>88</v>
+      </c>
+      <c r="D459" s="1">
+        <v>75</v>
+      </c>
+      <c r="E459" s="1">
+        <v>88</v>
+      </c>
+      <c r="F459" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>312</v>
+      </c>
+      <c r="B460" s="1">
+        <v>298600000</v>
+      </c>
+      <c r="C460" s="1">
+        <v>5</v>
+      </c>
+      <c r="D460" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E460" s="1">
+        <v>5</v>
+      </c>
+      <c r="F460" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>312</v>
+      </c>
+      <c r="B461" s="1">
+        <v>299400000</v>
+      </c>
+      <c r="C461" s="1">
+        <v>30</v>
+      </c>
+      <c r="D461" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E461" s="1">
+        <v>30</v>
+      </c>
+      <c r="F461" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>312</v>
+      </c>
+      <c r="B462" s="1">
+        <v>300200000</v>
+      </c>
+      <c r="C462" s="1">
+        <v>20</v>
+      </c>
+      <c r="D462" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E462" s="1">
+        <v>20</v>
+      </c>
+      <c r="F462" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>312</v>
+      </c>
+      <c r="B463" s="1">
+        <v>301000000</v>
+      </c>
+      <c r="C463" s="1">
+        <v>46</v>
+      </c>
+      <c r="D463" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E463" s="1">
+        <v>46</v>
+      </c>
+      <c r="F463" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>312</v>
+      </c>
+      <c r="B464" s="1">
+        <v>301800000</v>
+      </c>
+      <c r="C464" s="2">
+        <v>73</v>
+      </c>
+      <c r="D464" s="2">
+        <v>150</v>
+      </c>
+      <c r="E464" s="2">
+        <v>73</v>
+      </c>
+      <c r="F464" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>312</v>
+      </c>
+      <c r="B465" s="1">
+        <v>302600000</v>
+      </c>
+      <c r="C465" s="1">
+        <v>88</v>
+      </c>
+      <c r="D465" s="1">
+        <v>75</v>
+      </c>
+      <c r="E465" s="1">
+        <v>88</v>
+      </c>
+      <c r="F465" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>312</v>
+      </c>
+      <c r="B466" s="1">
+        <v>303400000</v>
+      </c>
+      <c r="C466" s="1">
+        <v>5</v>
+      </c>
+      <c r="D466" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E466" s="1">
+        <v>5</v>
+      </c>
+      <c r="F466" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>312</v>
+      </c>
+      <c r="B467" s="1">
+        <v>304200000</v>
+      </c>
+      <c r="C467" s="1">
+        <v>30</v>
+      </c>
+      <c r="D467" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E467" s="1">
+        <v>30</v>
+      </c>
+      <c r="F467" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>312</v>
+      </c>
+      <c r="B468" s="1">
+        <v>305000000</v>
+      </c>
+      <c r="C468" s="1">
+        <v>20</v>
+      </c>
+      <c r="D468" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E468" s="1">
+        <v>20</v>
+      </c>
+      <c r="F468" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>312</v>
+      </c>
+      <c r="B469" s="1">
+        <v>305800000</v>
+      </c>
+      <c r="C469" s="1">
+        <v>46</v>
+      </c>
+      <c r="D469" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E469" s="1">
+        <v>46</v>
+      </c>
+      <c r="F469" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>312</v>
+      </c>
+      <c r="B470" s="1">
+        <v>306600000</v>
+      </c>
+      <c r="C470" s="2">
+        <v>73</v>
+      </c>
+      <c r="D470" s="2">
+        <v>150</v>
+      </c>
+      <c r="E470" s="2">
+        <v>73</v>
+      </c>
+      <c r="F470" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>312</v>
+      </c>
+      <c r="B471" s="1">
+        <v>307400000</v>
+      </c>
+      <c r="C471" s="1">
+        <v>88</v>
+      </c>
+      <c r="D471" s="1">
+        <v>75</v>
+      </c>
+      <c r="E471" s="1">
+        <v>88</v>
+      </c>
+      <c r="F471" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>312</v>
+      </c>
+      <c r="B472" s="1">
+        <v>308200000</v>
+      </c>
+      <c r="C472" s="1">
+        <v>5</v>
+      </c>
+      <c r="D472" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E472" s="1">
+        <v>5</v>
+      </c>
+      <c r="F472" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>312</v>
+      </c>
+      <c r="B473" s="1">
+        <v>309000000</v>
+      </c>
+      <c r="C473" s="1">
+        <v>30</v>
+      </c>
+      <c r="D473" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E473" s="1">
+        <v>30</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>312</v>
+      </c>
+      <c r="B474" s="1">
+        <v>309800000</v>
+      </c>
+      <c r="C474" s="1">
+        <v>20</v>
+      </c>
+      <c r="D474" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E474" s="1">
+        <v>20</v>
+      </c>
+      <c r="F474" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>312</v>
+      </c>
+      <c r="B475" s="1">
+        <v>310600000</v>
+      </c>
+      <c r="C475" s="1">
+        <v>46</v>
+      </c>
+      <c r="D475" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E475" s="1">
+        <v>46</v>
+      </c>
+      <c r="F475" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>312</v>
+      </c>
+      <c r="B476" s="1">
+        <v>311400000</v>
+      </c>
+      <c r="C476" s="2">
+        <v>73</v>
+      </c>
+      <c r="D476" s="2">
+        <v>150</v>
+      </c>
+      <c r="E476" s="2">
+        <v>73</v>
+      </c>
+      <c r="F476" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>312</v>
+      </c>
+      <c r="B477" s="1">
+        <v>312200000</v>
+      </c>
+      <c r="C477" s="1">
+        <v>88</v>
+      </c>
+      <c r="D477" s="1">
+        <v>75</v>
+      </c>
+      <c r="E477" s="1">
+        <v>88</v>
+      </c>
+      <c r="F477" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>312</v>
+      </c>
+      <c r="B478" s="1">
+        <v>313000000</v>
+      </c>
+      <c r="C478" s="1">
+        <v>5</v>
+      </c>
+      <c r="D478" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E478" s="1">
+        <v>5</v>
+      </c>
+      <c r="F478" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>312</v>
+      </c>
+      <c r="B479" s="1">
+        <v>313800000</v>
+      </c>
+      <c r="C479" s="1">
+        <v>30</v>
+      </c>
+      <c r="D479" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E479" s="1">
+        <v>30</v>
+      </c>
+      <c r="F479" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>312</v>
+      </c>
+      <c r="B480" s="1">
+        <v>314600000</v>
+      </c>
+      <c r="C480" s="1">
+        <v>20</v>
+      </c>
+      <c r="D480" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E480" s="1">
+        <v>20</v>
+      </c>
+      <c r="F480" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>312</v>
+      </c>
+      <c r="B481" s="1">
+        <v>315400000</v>
+      </c>
+      <c r="C481" s="1">
+        <v>46</v>
+      </c>
+      <c r="D481" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E481" s="1">
+        <v>46</v>
+      </c>
+      <c r="F481" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>312</v>
+      </c>
+      <c r="B482" s="1">
+        <v>316200000</v>
+      </c>
+      <c r="C482" s="2">
+        <v>73</v>
+      </c>
+      <c r="D482" s="2">
+        <v>150</v>
+      </c>
+      <c r="E482" s="2">
+        <v>73</v>
+      </c>
+      <c r="F482" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>312</v>
+      </c>
+      <c r="B483" s="1">
+        <v>317000000</v>
+      </c>
+      <c r="C483" s="1">
+        <v>88</v>
+      </c>
+      <c r="D483" s="1">
+        <v>75</v>
+      </c>
+      <c r="E483" s="1">
+        <v>88</v>
+      </c>
+      <c r="F483" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>312</v>
+      </c>
+      <c r="B484" s="1">
+        <v>317800000</v>
+      </c>
+      <c r="C484" s="1">
+        <v>5</v>
+      </c>
+      <c r="D484" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E484" s="1">
+        <v>5</v>
+      </c>
+      <c r="F484" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>312</v>
+      </c>
+      <c r="B485" s="1">
+        <v>318600000</v>
+      </c>
+      <c r="C485" s="1">
+        <v>30</v>
+      </c>
+      <c r="D485" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E485" s="1">
+        <v>30</v>
+      </c>
+      <c r="F485" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>312</v>
+      </c>
+      <c r="B486" s="1">
+        <v>319400000</v>
+      </c>
+      <c r="C486" s="1">
+        <v>20</v>
+      </c>
+      <c r="D486" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E486" s="1">
+        <v>20</v>
+      </c>
+      <c r="F486" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>312</v>
+      </c>
+      <c r="B487" s="1">
+        <v>320200000</v>
+      </c>
+      <c r="C487" s="1">
+        <v>46</v>
+      </c>
+      <c r="D487" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E487" s="1">
+        <v>46</v>
+      </c>
+      <c r="F487" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>312</v>
+      </c>
+      <c r="B488" s="1">
+        <v>321000000</v>
+      </c>
+      <c r="C488" s="2">
+        <v>73</v>
+      </c>
+      <c r="D488" s="2">
+        <v>150</v>
+      </c>
+      <c r="E488" s="2">
+        <v>73</v>
+      </c>
+      <c r="F488" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>312</v>
+      </c>
+      <c r="B489" s="1">
+        <v>321800000</v>
+      </c>
+      <c r="C489" s="1">
+        <v>88</v>
+      </c>
+      <c r="D489" s="1">
+        <v>75</v>
+      </c>
+      <c r="E489" s="1">
+        <v>88</v>
+      </c>
+      <c r="F489" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>312</v>
+      </c>
+      <c r="B490" s="1">
+        <v>322600000</v>
+      </c>
+      <c r="C490" s="1">
+        <v>5</v>
+      </c>
+      <c r="D490" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E490" s="1">
+        <v>5</v>
+      </c>
+      <c r="F490" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>312</v>
+      </c>
+      <c r="B491" s="1">
+        <v>323400000</v>
+      </c>
+      <c r="C491" s="1">
+        <v>30</v>
+      </c>
+      <c r="D491" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E491" s="1">
+        <v>30</v>
+      </c>
+      <c r="F491" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>312</v>
+      </c>
+      <c r="B492" s="1">
+        <v>324200000</v>
+      </c>
+      <c r="C492" s="1">
+        <v>20</v>
+      </c>
+      <c r="D492" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E492" s="1">
+        <v>20</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>312</v>
+      </c>
+      <c r="B493" s="1">
+        <v>325000000</v>
+      </c>
+      <c r="C493" s="1">
+        <v>46</v>
+      </c>
+      <c r="D493" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E493" s="1">
+        <v>46</v>
+      </c>
+      <c r="F493" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>312</v>
+      </c>
+      <c r="B494" s="1">
+        <v>325800000</v>
+      </c>
+      <c r="C494" s="2">
+        <v>73</v>
+      </c>
+      <c r="D494" s="2">
+        <v>150</v>
+      </c>
+      <c r="E494" s="2">
+        <v>73</v>
+      </c>
+      <c r="F494" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>312</v>
+      </c>
+      <c r="B495" s="1">
+        <v>326600000</v>
+      </c>
+      <c r="C495" s="1">
+        <v>88</v>
+      </c>
+      <c r="D495" s="1">
+        <v>75</v>
+      </c>
+      <c r="E495" s="1">
+        <v>88</v>
+      </c>
+      <c r="F495" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>312</v>
+      </c>
+      <c r="B496" s="1">
+        <v>327400000</v>
+      </c>
+      <c r="C496" s="1">
+        <v>5</v>
+      </c>
+      <c r="D496" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E496" s="1">
+        <v>5</v>
+      </c>
+      <c r="F496" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>312</v>
+      </c>
+      <c r="B497" s="1">
+        <v>328200000</v>
+      </c>
+      <c r="C497" s="1">
+        <v>30</v>
+      </c>
+      <c r="D497" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E497" s="1">
+        <v>30</v>
+      </c>
+      <c r="F497" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>312</v>
+      </c>
+      <c r="B498" s="1">
+        <v>329000000</v>
+      </c>
+      <c r="C498" s="1">
+        <v>20</v>
+      </c>
+      <c r="D498" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E498" s="1">
+        <v>20</v>
+      </c>
+      <c r="F498" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>312</v>
+      </c>
+      <c r="B499" s="1">
+        <v>329800000</v>
+      </c>
+      <c r="C499" s="1">
+        <v>46</v>
+      </c>
+      <c r="D499" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E499" s="1">
+        <v>46</v>
+      </c>
+      <c r="F499" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>312</v>
+      </c>
+      <c r="B500" s="1">
+        <v>330600000</v>
+      </c>
+      <c r="C500" s="2">
+        <v>73</v>
+      </c>
+      <c r="D500" s="2">
+        <v>150</v>
+      </c>
+      <c r="E500" s="2">
+        <v>73</v>
+      </c>
+      <c r="F500" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>312</v>
+      </c>
+      <c r="B501" s="1">
+        <v>331400000</v>
+      </c>
+      <c r="C501" s="1">
+        <v>88</v>
+      </c>
+      <c r="D501" s="1">
+        <v>75</v>
+      </c>
+      <c r="E501" s="1">
+        <v>88</v>
+      </c>
+      <c r="F501" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>312</v>
+      </c>
+      <c r="B502" s="1">
+        <v>332200000</v>
+      </c>
+      <c r="C502" s="1">
+        <v>5</v>
+      </c>
+      <c r="D502" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E502" s="1">
+        <v>5</v>
+      </c>
+      <c r="F502" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>312</v>
+      </c>
+      <c r="B503" s="1">
+        <v>333000000</v>
+      </c>
+      <c r="C503" s="1">
+        <v>30</v>
+      </c>
+      <c r="D503" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E503" s="1">
+        <v>30</v>
+      </c>
+      <c r="F503" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>312</v>
+      </c>
+      <c r="B504" s="1">
+        <v>333800000</v>
+      </c>
+      <c r="C504" s="1">
+        <v>20</v>
+      </c>
+      <c r="D504" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E504" s="1">
+        <v>20</v>
+      </c>
+      <c r="F504" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>312</v>
+      </c>
+      <c r="B505" s="1">
+        <v>334600000</v>
+      </c>
+      <c r="C505" s="1">
+        <v>46</v>
+      </c>
+      <c r="D505" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E505" s="1">
+        <v>46</v>
+      </c>
+      <c r="F505" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>312</v>
+      </c>
+      <c r="B506" s="1">
+        <v>335400000</v>
+      </c>
+      <c r="C506" s="2">
+        <v>73</v>
+      </c>
+      <c r="D506" s="2">
+        <v>150</v>
+      </c>
+      <c r="E506" s="2">
+        <v>73</v>
+      </c>
+      <c r="F506" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>312</v>
+      </c>
+      <c r="B507" s="1">
+        <v>336200000</v>
+      </c>
+      <c r="C507" s="1">
+        <v>88</v>
+      </c>
+      <c r="D507" s="1">
+        <v>75</v>
+      </c>
+      <c r="E507" s="1">
+        <v>88</v>
+      </c>
+      <c r="F507" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>312</v>
+      </c>
+      <c r="B508" s="1">
+        <v>337000000</v>
+      </c>
+      <c r="C508" s="1">
+        <v>5</v>
+      </c>
+      <c r="D508" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E508" s="1">
+        <v>5</v>
+      </c>
+      <c r="F508" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>312</v>
+      </c>
+      <c r="B509" s="1">
+        <v>337800000</v>
+      </c>
+      <c r="C509" s="1">
+        <v>30</v>
+      </c>
+      <c r="D509" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E509" s="1">
+        <v>30</v>
+      </c>
+      <c r="F509" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>312</v>
+      </c>
+      <c r="B510" s="1">
+        <v>338600000</v>
+      </c>
+      <c r="C510" s="1">
+        <v>20</v>
+      </c>
+      <c r="D510" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E510" s="1">
+        <v>20</v>
+      </c>
+      <c r="F510" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>312</v>
+      </c>
+      <c r="B511" s="1">
+        <v>339400000</v>
+      </c>
+      <c r="C511" s="1">
+        <v>46</v>
+      </c>
+      <c r="D511" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E511" s="1">
+        <v>46</v>
+      </c>
+      <c r="F511" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>312</v>
+      </c>
+      <c r="B512" s="1">
+        <v>340200000</v>
+      </c>
+      <c r="C512" s="2">
+        <v>73</v>
+      </c>
+      <c r="D512" s="2">
+        <v>150</v>
+      </c>
+      <c r="E512" s="2">
+        <v>73</v>
+      </c>
+      <c r="F512" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>312</v>
+      </c>
+      <c r="B513" s="1">
+        <v>341000000</v>
+      </c>
+      <c r="C513" s="1">
+        <v>88</v>
+      </c>
+      <c r="D513" s="1">
+        <v>75</v>
+      </c>
+      <c r="E513" s="1">
+        <v>88</v>
+      </c>
+      <c r="F513" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>312</v>
+      </c>
+      <c r="B514" s="1">
+        <v>341800000</v>
+      </c>
+      <c r="C514" s="1">
+        <v>5</v>
+      </c>
+      <c r="D514" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E514" s="1">
+        <v>5</v>
+      </c>
+      <c r="F514" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>312</v>
+      </c>
+      <c r="B515" s="1">
+        <v>342600000</v>
+      </c>
+      <c r="C515" s="1">
+        <v>30</v>
+      </c>
+      <c r="D515" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E515" s="1">
+        <v>30</v>
+      </c>
+      <c r="F515" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>312</v>
+      </c>
+      <c r="B516" s="1">
+        <v>343400000</v>
+      </c>
+      <c r="C516" s="1">
+        <v>20</v>
+      </c>
+      <c r="D516" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E516" s="1">
+        <v>20</v>
+      </c>
+      <c r="F516" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>312</v>
+      </c>
+      <c r="B517" s="1">
+        <v>344200000</v>
+      </c>
+      <c r="C517" s="1">
+        <v>46</v>
+      </c>
+      <c r="D517" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E517" s="1">
+        <v>46</v>
+      </c>
+      <c r="F517" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>312</v>
+      </c>
+      <c r="B518" s="1">
+        <v>345000000</v>
+      </c>
+      <c r="C518" s="2">
+        <v>73</v>
+      </c>
+      <c r="D518" s="2">
+        <v>150</v>
+      </c>
+      <c r="E518" s="2">
+        <v>73</v>
+      </c>
+      <c r="F518" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>312</v>
+      </c>
+      <c r="B519" s="1">
+        <v>345800000</v>
+      </c>
+      <c r="C519" s="1">
+        <v>88</v>
+      </c>
+      <c r="D519" s="1">
+        <v>75</v>
+      </c>
+      <c r="E519" s="1">
+        <v>88</v>
+      </c>
+      <c r="F519" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>312</v>
+      </c>
+      <c r="B520" s="1">
+        <v>346600000</v>
+      </c>
+      <c r="C520" s="1">
+        <v>5</v>
+      </c>
+      <c r="D520" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E520" s="1">
+        <v>5</v>
+      </c>
+      <c r="F520" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>312</v>
+      </c>
+      <c r="B521" s="1">
+        <v>347400000</v>
+      </c>
+      <c r="C521" s="1">
+        <v>30</v>
+      </c>
+      <c r="D521" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E521" s="1">
+        <v>30</v>
+      </c>
+      <c r="F521" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>312</v>
+      </c>
+      <c r="B522" s="1">
+        <v>348200000</v>
+      </c>
+      <c r="C522" s="1">
+        <v>20</v>
+      </c>
+      <c r="D522" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E522" s="1">
+        <v>20</v>
+      </c>
+      <c r="F522" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>312</v>
+      </c>
+      <c r="B523" s="1">
+        <v>349000000</v>
+      </c>
+      <c r="C523" s="1">
+        <v>46</v>
+      </c>
+      <c r="D523" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E523" s="1">
+        <v>46</v>
+      </c>
+      <c r="F523" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>312</v>
+      </c>
+      <c r="B524" s="1">
+        <v>349800000</v>
+      </c>
+      <c r="C524" s="2">
+        <v>73</v>
+      </c>
+      <c r="D524" s="2">
+        <v>150</v>
+      </c>
+      <c r="E524" s="2">
+        <v>73</v>
+      </c>
+      <c r="F524" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>312</v>
+      </c>
+      <c r="B525" s="1">
+        <v>350600000</v>
+      </c>
+      <c r="C525" s="1">
+        <v>88</v>
+      </c>
+      <c r="D525" s="1">
+        <v>75</v>
+      </c>
+      <c r="E525" s="1">
+        <v>88</v>
+      </c>
+      <c r="F525" s="1">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F400" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F400">

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8669BEE-85A9-472F-B77B-BF3C29471458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBABAAA5-0D24-4FE1-9C89-5C5B0063EE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C536" sqref="C536"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B401" s="1">
         <v>251400000</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B402" s="1">
         <v>252200000</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B403" s="1">
         <v>253000000</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B404" s="1">
         <v>253800000</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B405" s="1">
         <v>254600000</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B406" s="1">
         <v>255400000</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B407" s="1">
         <v>256200000</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B408" s="1">
         <v>257000000</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B409" s="1">
         <v>257800000</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B410" s="1">
         <v>258600000</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B411" s="1">
         <v>259400000</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B412" s="1">
         <v>260200000</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B413" s="1">
         <v>261000000</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B414" s="1">
         <v>261800000</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B415" s="1">
         <v>262600000</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B416" s="1">
         <v>263400000</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B417" s="1">
         <v>264200000</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B418" s="1">
         <v>265000000</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B419" s="1">
         <v>265800000</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B420" s="1">
         <v>266600000</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B421" s="1">
         <v>267400000</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B422" s="1">
         <v>268200000</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B423" s="1">
         <v>269000000</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B424" s="1">
         <v>269800000</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B425" s="1">
         <v>270600000</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B426" s="1">
         <v>271400000</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B427" s="1">
         <v>272200000</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B428" s="1">
         <v>273000000</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B429" s="1">
         <v>273800000</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="B430" s="1">
         <v>274600000</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="B431" s="1">
         <v>275400000</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="B432" s="1">
         <v>276200000</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B433" s="1">
         <v>277000000</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B434" s="1">
         <v>277800000</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B435" s="1">
         <v>278600000</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="B436" s="1">
         <v>279400000</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B437" s="1">
         <v>280200000</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="B438" s="1">
         <v>281000000</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="B439" s="1">
         <v>281800000</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="B440" s="1">
         <v>282600000</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="B441" s="1">
         <v>283400000</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B442" s="1">
         <v>284200000</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B443" s="1">
         <v>285000000</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="B444" s="1">
         <v>285800000</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="B445" s="1">
         <v>286600000</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="B446" s="1">
         <v>287400000</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="B447" s="1">
         <v>288200000</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="B448" s="1">
         <v>289000000</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="B449" s="1">
         <v>289800000</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B450" s="1">
         <v>290600000</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="B451" s="1">
         <v>291400000</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="B452" s="1">
         <v>292200000</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="B453" s="1">
         <v>293000000</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="B454" s="1">
         <v>293800000</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="B455" s="1">
         <v>294600000</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="B456" s="1">
         <v>295400000</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="B457" s="1">
         <v>296200000</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="B458" s="1">
         <v>297000000</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="B459" s="1">
         <v>297800000</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="B460" s="1">
         <v>298600000</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B461" s="1">
         <v>299400000</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="B462" s="1">
         <v>300200000</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="B463" s="1">
         <v>301000000</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="B464" s="1">
         <v>301800000</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="B465" s="1">
         <v>302600000</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="B466" s="1">
         <v>303400000</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="B467" s="1">
         <v>304200000</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="B468" s="1">
         <v>305000000</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="B469" s="1">
         <v>305800000</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="B470" s="1">
         <v>306600000</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="B471" s="1">
         <v>307400000</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="B472" s="1">
         <v>308200000</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="B473" s="1">
         <v>309000000</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="B474" s="1">
         <v>309800000</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="B475" s="1">
         <v>310600000</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="B476" s="1">
         <v>311400000</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="B477" s="1">
         <v>312200000</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="B478" s="1">
         <v>313000000</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="B479" s="1">
         <v>313800000</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="B480" s="1">
         <v>314600000</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="B481" s="1">
         <v>315400000</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="B482" s="1">
         <v>316200000</v>
@@ -10117,7 +10117,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="B483" s="1">
         <v>317000000</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B484" s="1">
         <v>317800000</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="B485" s="1">
         <v>318600000</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="B486" s="1">
         <v>319400000</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="B487" s="1">
         <v>320200000</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="B488" s="1">
         <v>321000000</v>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="B489" s="1">
         <v>321800000</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="B490" s="1">
         <v>322600000</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="B491" s="1">
         <v>323400000</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="B492" s="1">
         <v>324200000</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="B493" s="1">
         <v>325000000</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="B494" s="1">
         <v>325800000</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="B495" s="1">
         <v>326600000</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="B496" s="1">
         <v>327400000</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="B497" s="1">
         <v>328200000</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="B498" s="1">
         <v>329000000</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="B499" s="1">
         <v>329800000</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="B500" s="1">
         <v>330600000</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="B501" s="1">
         <v>331400000</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="B502" s="1">
         <v>332200000</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="B503" s="1">
         <v>333000000</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="B504" s="1">
         <v>333800000</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="B505" s="1">
         <v>334600000</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="B506" s="1">
         <v>335400000</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="B507" s="1">
         <v>336200000</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="B508" s="1">
         <v>337000000</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="B509" s="1">
         <v>337800000</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="B510" s="1">
         <v>338600000</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="B511" s="1">
         <v>339400000</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="B512" s="1">
         <v>340200000</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="B513" s="1">
         <v>341000000</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="B514" s="1">
         <v>341800000</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="B515" s="1">
         <v>342600000</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="B516" s="1">
         <v>343400000</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="B517" s="1">
         <v>344200000</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
-        <v>312</v>
+        <v>430</v>
       </c>
       <c r="B518" s="1">
         <v>345000000</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="B519" s="1">
         <v>345800000</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="B520" s="1">
         <v>346600000</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="B521" s="1">
         <v>347400000</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="B522" s="1">
         <v>348200000</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="B523" s="1">
         <v>349000000</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="B524" s="1">
         <v>349800000</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="B525" s="1">
         <v>350600000</v>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBABAAA5-0D24-4FE1-9C89-5C5B0063EE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96461D63-3320-4315-BE1B-A4463F82AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="B401" s="1">
         <v>251400000</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="B402" s="1">
         <v>252200000</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="B403" s="1">
         <v>253000000</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="B404" s="1">
         <v>253800000</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="B405" s="1">
         <v>254600000</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="B406" s="1">
         <v>255400000</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="B407" s="1">
         <v>256200000</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="B408" s="1">
         <v>257000000</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="B409" s="1">
         <v>257800000</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="B410" s="1">
         <v>258600000</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="B411" s="1">
         <v>259400000</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="B412" s="1">
         <v>260200000</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="B413" s="1">
         <v>261000000</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="B414" s="1">
         <v>261800000</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="B415" s="1">
         <v>262600000</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="B416" s="1">
         <v>263400000</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="B417" s="1">
         <v>264200000</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B418" s="1">
         <v>265000000</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="B419" s="1">
         <v>265800000</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="B420" s="1">
         <v>266600000</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="B421" s="1">
         <v>267400000</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="B422" s="1">
         <v>268200000</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="B423" s="1">
         <v>269000000</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="B424" s="1">
         <v>269800000</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="B425" s="1">
         <v>270600000</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="B426" s="1">
         <v>271400000</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="B427" s="1">
         <v>272200000</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="B428" s="1">
         <v>273000000</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="B429" s="1">
         <v>273800000</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="B430" s="1">
         <v>274600000</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="B431" s="1">
         <v>275400000</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="B432" s="1">
         <v>276200000</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="B433" s="1">
         <v>277000000</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="B434" s="1">
         <v>277800000</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="B435" s="1">
         <v>278600000</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="B436" s="1">
         <v>279400000</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="B437" s="1">
         <v>280200000</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="B438" s="1">
         <v>281000000</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="B439" s="1">
         <v>281800000</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="B440" s="1">
         <v>282600000</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="B441" s="1">
         <v>283400000</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="B442" s="1">
         <v>284200000</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="B443" s="1">
         <v>285000000</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="B444" s="1">
         <v>285800000</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="B445" s="1">
         <v>286600000</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="B446" s="1">
         <v>287400000</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="B447" s="1">
         <v>288200000</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="B448" s="1">
         <v>289000000</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="B449" s="1">
         <v>289800000</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="B450" s="1">
         <v>290600000</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="B451" s="1">
         <v>291400000</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="B452" s="1">
         <v>292200000</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="B453" s="1">
         <v>293000000</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="B454" s="1">
         <v>293800000</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="B455" s="1">
         <v>294600000</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="B456" s="1">
         <v>295400000</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="B457" s="1">
         <v>296200000</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="B458" s="1">
         <v>297000000</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="B459" s="1">
         <v>297800000</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="B460" s="1">
         <v>298600000</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="B461" s="1">
         <v>299400000</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="B462" s="1">
         <v>300200000</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="B463" s="1">
         <v>301000000</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="B464" s="1">
         <v>301800000</v>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="B465" s="1">
         <v>302600000</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="B466" s="1">
         <v>303400000</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="B467" s="1">
         <v>304200000</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="B468" s="1">
         <v>305000000</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="B469" s="1">
         <v>305800000</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="B470" s="1">
         <v>306600000</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="B471" s="1">
         <v>307400000</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="B472" s="1">
         <v>308200000</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="B473" s="1">
         <v>309000000</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="B474" s="1">
         <v>309800000</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="B475" s="1">
         <v>310600000</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="B476" s="1">
         <v>311400000</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="B477" s="1">
         <v>312200000</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="B478" s="1">
         <v>313000000</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="B479" s="1">
         <v>313800000</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="B480" s="1">
         <v>314600000</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="B481" s="1">
         <v>315400000</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="B482" s="1">
         <v>316200000</v>
@@ -10117,7 +10117,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="B483" s="1">
         <v>317000000</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="B484" s="1">
         <v>317800000</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="B485" s="1">
         <v>318600000</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="B486" s="1">
         <v>319400000</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="B487" s="1">
         <v>320200000</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="B488" s="1">
         <v>321000000</v>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="B489" s="1">
         <v>321800000</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="B490" s="1">
         <v>322600000</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="B491" s="1">
         <v>323400000</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="B492" s="1">
         <v>324200000</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="B493" s="1">
         <v>325000000</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="B494" s="1">
         <v>325800000</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
-        <v>407</v>
+        <v>493</v>
       </c>
       <c r="B495" s="1">
         <v>326600000</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="B496" s="1">
         <v>327400000</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="B497" s="1">
         <v>328200000</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="B498" s="1">
         <v>329000000</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="B499" s="1">
         <v>329800000</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="B500" s="1">
         <v>330600000</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="B501" s="1">
         <v>331400000</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="B502" s="1">
         <v>332200000</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="B503" s="1">
         <v>333000000</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="B504" s="1">
         <v>333800000</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="B505" s="1">
         <v>334600000</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="B506" s="1">
         <v>335400000</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="B507" s="1">
         <v>336200000</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="B508" s="1">
         <v>337000000</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="B509" s="1">
         <v>337800000</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="B510" s="1">
         <v>338600000</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="B511" s="1">
         <v>339400000</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="B512" s="1">
         <v>340200000</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="B513" s="1">
         <v>341000000</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="B514" s="1">
         <v>341800000</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
-        <v>427</v>
+        <v>513</v>
       </c>
       <c r="B515" s="1">
         <v>342600000</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="B516" s="1">
         <v>343400000</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
-        <v>429</v>
+        <v>515</v>
       </c>
       <c r="B517" s="1">
         <v>344200000</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="B518" s="1">
         <v>345000000</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="B519" s="1">
         <v>345800000</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="B520" s="1">
         <v>346600000</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
-        <v>433</v>
+        <v>519</v>
       </c>
       <c r="B521" s="1">
         <v>347400000</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="B522" s="1">
         <v>348200000</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
-        <v>435</v>
+        <v>521</v>
       </c>
       <c r="B523" s="1">
         <v>349000000</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="B524" s="1">
         <v>349800000</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="B525" s="1">
         <v>350600000</v>

--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96461D63-3320-4315-BE1B-A4463F82AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921E7E3-F1D6-4909-B923-7EE6E8F5ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F525"/>
+  <dimension ref="A1:F587"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A525"/>
+    <sheetView tabSelected="1" topLeftCell="A564" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J575" sqref="J575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10975,6 +10975,1246 @@
         <v>75</v>
       </c>
     </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" s="1">
+        <v>351400000</v>
+      </c>
+      <c r="C526" s="1">
+        <v>5</v>
+      </c>
+      <c r="D526" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E526" s="1">
+        <v>5</v>
+      </c>
+      <c r="F526" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" s="1">
+        <v>352200000</v>
+      </c>
+      <c r="C527" s="1">
+        <v>30</v>
+      </c>
+      <c r="D527" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E527" s="1">
+        <v>30</v>
+      </c>
+      <c r="F527" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" s="1">
+        <v>353000000</v>
+      </c>
+      <c r="C528" s="1">
+        <v>20</v>
+      </c>
+      <c r="D528" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E528" s="1">
+        <v>20</v>
+      </c>
+      <c r="F528" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" s="1">
+        <v>353800000</v>
+      </c>
+      <c r="C529" s="1">
+        <v>46</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E529" s="1">
+        <v>46</v>
+      </c>
+      <c r="F529" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" s="1">
+        <v>354600000</v>
+      </c>
+      <c r="C530" s="2">
+        <v>73</v>
+      </c>
+      <c r="D530" s="2">
+        <v>150</v>
+      </c>
+      <c r="E530" s="2">
+        <v>73</v>
+      </c>
+      <c r="F530" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" s="1">
+        <v>355400000</v>
+      </c>
+      <c r="C531" s="1">
+        <v>88</v>
+      </c>
+      <c r="D531" s="1">
+        <v>75</v>
+      </c>
+      <c r="E531" s="1">
+        <v>88</v>
+      </c>
+      <c r="F531" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" s="1">
+        <v>356200000</v>
+      </c>
+      <c r="C532" s="1">
+        <v>5</v>
+      </c>
+      <c r="D532" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E532" s="1">
+        <v>5</v>
+      </c>
+      <c r="F532" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" s="1">
+        <v>357000000</v>
+      </c>
+      <c r="C533" s="1">
+        <v>30</v>
+      </c>
+      <c r="D533" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E533" s="1">
+        <v>30</v>
+      </c>
+      <c r="F533" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" s="1">
+        <v>357800000</v>
+      </c>
+      <c r="C534" s="1">
+        <v>20</v>
+      </c>
+      <c r="D534" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E534" s="1">
+        <v>20</v>
+      </c>
+      <c r="F534" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" s="1">
+        <v>358600000</v>
+      </c>
+      <c r="C535" s="1">
+        <v>46</v>
+      </c>
+      <c r="D535" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E535" s="1">
+        <v>46</v>
+      </c>
+      <c r="F535" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" s="1">
+        <v>359400000</v>
+      </c>
+      <c r="C536" s="2">
+        <v>73</v>
+      </c>
+      <c r="D536" s="2">
+        <v>150</v>
+      </c>
+      <c r="E536" s="2">
+        <v>73</v>
+      </c>
+      <c r="F536" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" s="1">
+        <v>360200000</v>
+      </c>
+      <c r="C537" s="1">
+        <v>88</v>
+      </c>
+      <c r="D537" s="1">
+        <v>75</v>
+      </c>
+      <c r="E537" s="1">
+        <v>88</v>
+      </c>
+      <c r="F537" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" s="1">
+        <v>361000000</v>
+      </c>
+      <c r="C538" s="1">
+        <v>5</v>
+      </c>
+      <c r="D538" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E538" s="1">
+        <v>5</v>
+      </c>
+      <c r="F538" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" s="1">
+        <v>361800000</v>
+      </c>
+      <c r="C539" s="1">
+        <v>30</v>
+      </c>
+      <c r="D539" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E539" s="1">
+        <v>30</v>
+      </c>
+      <c r="F539" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" s="1">
+        <v>362600000</v>
+      </c>
+      <c r="C540" s="1">
+        <v>20</v>
+      </c>
+      <c r="D540" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E540" s="1">
+        <v>20</v>
+      </c>
+      <c r="F540" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" s="1">
+        <v>363400000</v>
+      </c>
+      <c r="C541" s="1">
+        <v>46</v>
+      </c>
+      <c r="D541" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E541" s="1">
+        <v>46</v>
+      </c>
+      <c r="F541" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" s="1">
+        <v>364200000</v>
+      </c>
+      <c r="C542" s="2">
+        <v>73</v>
+      </c>
+      <c r="D542" s="2">
+        <v>150</v>
+      </c>
+      <c r="E542" s="2">
+        <v>73</v>
+      </c>
+      <c r="F542" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" s="1">
+        <v>365000000</v>
+      </c>
+      <c r="C543" s="1">
+        <v>88</v>
+      </c>
+      <c r="D543" s="1">
+        <v>75</v>
+      </c>
+      <c r="E543" s="1">
+        <v>88</v>
+      </c>
+      <c r="F543" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" s="1">
+        <v>365800000</v>
+      </c>
+      <c r="C544" s="1">
+        <v>5</v>
+      </c>
+      <c r="D544" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E544" s="1">
+        <v>5</v>
+      </c>
+      <c r="F544" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" s="1">
+        <v>366600000</v>
+      </c>
+      <c r="C545" s="1">
+        <v>30</v>
+      </c>
+      <c r="D545" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E545" s="1">
+        <v>30</v>
+      </c>
+      <c r="F545" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" s="1">
+        <v>367400000</v>
+      </c>
+      <c r="C546" s="1">
+        <v>20</v>
+      </c>
+      <c r="D546" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E546" s="1">
+        <v>20</v>
+      </c>
+      <c r="F546" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" s="1">
+        <v>368200000</v>
+      </c>
+      <c r="C547" s="1">
+        <v>46</v>
+      </c>
+      <c r="D547" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E547" s="1">
+        <v>46</v>
+      </c>
+      <c r="F547" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" s="1">
+        <v>369000000</v>
+      </c>
+      <c r="C548" s="2">
+        <v>73</v>
+      </c>
+      <c r="D548" s="2">
+        <v>150</v>
+      </c>
+      <c r="E548" s="2">
+        <v>73</v>
+      </c>
+      <c r="F548" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" s="1">
+        <v>369800000</v>
+      </c>
+      <c r="C549" s="1">
+        <v>88</v>
+      </c>
+      <c r="D549" s="1">
+        <v>75</v>
+      </c>
+      <c r="E549" s="1">
+        <v>88</v>
+      </c>
+      <c r="F549" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" s="1">
+        <v>370600000</v>
+      </c>
+      <c r="C550" s="1">
+        <v>5</v>
+      </c>
+      <c r="D550" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E550" s="1">
+        <v>5</v>
+      </c>
+      <c r="F550" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" s="1">
+        <v>371400000</v>
+      </c>
+      <c r="C551" s="1">
+        <v>30</v>
+      </c>
+      <c r="D551" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E551" s="1">
+        <v>30</v>
+      </c>
+      <c r="F551" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" s="1">
+        <v>372200000</v>
+      </c>
+      <c r="C552" s="1">
+        <v>20</v>
+      </c>
+      <c r="D552" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E552" s="1">
+        <v>20</v>
+      </c>
+      <c r="F552" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" s="1">
+        <v>373000000</v>
+      </c>
+      <c r="C553" s="1">
+        <v>46</v>
+      </c>
+      <c r="D553" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E553" s="1">
+        <v>46</v>
+      </c>
+      <c r="F553" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" s="1">
+        <v>373800000</v>
+      </c>
+      <c r="C554" s="2">
+        <v>73</v>
+      </c>
+      <c r="D554" s="2">
+        <v>150</v>
+      </c>
+      <c r="E554" s="2">
+        <v>73</v>
+      </c>
+      <c r="F554" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" s="1">
+        <v>374600000</v>
+      </c>
+      <c r="C555" s="1">
+        <v>88</v>
+      </c>
+      <c r="D555" s="1">
+        <v>75</v>
+      </c>
+      <c r="E555" s="1">
+        <v>88</v>
+      </c>
+      <c r="F555" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" s="1">
+        <v>375400000</v>
+      </c>
+      <c r="C556" s="1">
+        <v>5</v>
+      </c>
+      <c r="D556" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E556" s="1">
+        <v>5</v>
+      </c>
+      <c r="F556" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" s="1">
+        <v>376200000</v>
+      </c>
+      <c r="C557" s="1">
+        <v>30</v>
+      </c>
+      <c r="D557" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E557" s="1">
+        <v>30</v>
+      </c>
+      <c r="F557" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" s="1">
+        <v>377000000</v>
+      </c>
+      <c r="C558" s="1">
+        <v>20</v>
+      </c>
+      <c r="D558" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E558" s="1">
+        <v>20</v>
+      </c>
+      <c r="F558" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" s="1">
+        <v>377800000</v>
+      </c>
+      <c r="C559" s="1">
+        <v>46</v>
+      </c>
+      <c r="D559" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E559" s="1">
+        <v>46</v>
+      </c>
+      <c r="F559" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" s="1">
+        <v>378600000</v>
+      </c>
+      <c r="C560" s="2">
+        <v>73</v>
+      </c>
+      <c r="D560" s="2">
+        <v>150</v>
+      </c>
+      <c r="E560" s="2">
+        <v>73</v>
+      </c>
+      <c r="F560" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" s="1">
+        <v>379400000</v>
+      </c>
+      <c r="C561" s="1">
+        <v>88</v>
+      </c>
+      <c r="D561" s="1">
+        <v>75</v>
+      </c>
+      <c r="E561" s="1">
+        <v>88</v>
+      </c>
+      <c r="F561" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" s="1">
+        <v>380200000</v>
+      </c>
+      <c r="C562" s="1">
+        <v>5</v>
+      </c>
+      <c r="D562" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E562" s="1">
+        <v>5</v>
+      </c>
+      <c r="F562" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" s="1">
+        <v>381000000</v>
+      </c>
+      <c r="C563" s="1">
+        <v>30</v>
+      </c>
+      <c r="D563" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E563" s="1">
+        <v>30</v>
+      </c>
+      <c r="F563" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" s="1">
+        <v>381800000</v>
+      </c>
+      <c r="C564" s="1">
+        <v>20</v>
+      </c>
+      <c r="D564" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E564" s="1">
+        <v>20</v>
+      </c>
+      <c r="F564" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" s="1">
+        <v>382600000</v>
+      </c>
+      <c r="C565" s="1">
+        <v>46</v>
+      </c>
+      <c r="D565" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E565" s="1">
+        <v>46</v>
+      </c>
+      <c r="F565" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" s="1">
+        <v>383400000</v>
+      </c>
+      <c r="C566" s="2">
+        <v>73</v>
+      </c>
+      <c r="D566" s="2">
+        <v>150</v>
+      </c>
+      <c r="E566" s="2">
+        <v>73</v>
+      </c>
+      <c r="F566" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" s="1">
+        <v>384200000</v>
+      </c>
+      <c r="C567" s="1">
+        <v>88</v>
+      </c>
+      <c r="D567" s="1">
+        <v>75</v>
+      </c>
+      <c r="E567" s="1">
+        <v>88</v>
+      </c>
+      <c r="F567" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" s="1">
+        <v>385000000</v>
+      </c>
+      <c r="C568" s="1">
+        <v>5</v>
+      </c>
+      <c r="D568" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E568" s="1">
+        <v>5</v>
+      </c>
+      <c r="F568" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" s="1">
+        <v>385800000</v>
+      </c>
+      <c r="C569" s="1">
+        <v>30</v>
+      </c>
+      <c r="D569" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E569" s="1">
+        <v>30</v>
+      </c>
+      <c r="F569" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" s="1">
+        <v>386600000</v>
+      </c>
+      <c r="C570" s="1">
+        <v>20</v>
+      </c>
+      <c r="D570" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E570" s="1">
+        <v>20</v>
+      </c>
+      <c r="F570" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" s="1">
+        <v>387400000</v>
+      </c>
+      <c r="C571" s="1">
+        <v>46</v>
+      </c>
+      <c r="D571" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E571" s="1">
+        <v>46</v>
+      </c>
+      <c r="F571" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" s="1">
+        <v>388200000</v>
+      </c>
+      <c r="C572" s="2">
+        <v>73</v>
+      </c>
+      <c r="D572" s="2">
+        <v>150</v>
+      </c>
+      <c r="E572" s="2">
+        <v>73</v>
+      </c>
+      <c r="F572" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" s="1">
+        <v>389000000</v>
+      </c>
+      <c r="C573" s="1">
+        <v>88</v>
+      </c>
+      <c r="D573" s="1">
+        <v>75</v>
+      </c>
+      <c r="E573" s="1">
+        <v>88</v>
+      </c>
+      <c r="F573" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" s="1">
+        <v>389800000</v>
+      </c>
+      <c r="C574" s="1">
+        <v>5</v>
+      </c>
+      <c r="D574" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E574" s="1">
+        <v>5</v>
+      </c>
+      <c r="F574" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" s="1">
+        <v>390600000</v>
+      </c>
+      <c r="C575" s="1">
+        <v>30</v>
+      </c>
+      <c r="D575" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E575" s="1">
+        <v>30</v>
+      </c>
+      <c r="F575" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" s="1">
+        <v>391400000</v>
+      </c>
+      <c r="C576" s="1">
+        <v>20</v>
+      </c>
+      <c r="D576" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E576" s="1">
+        <v>20</v>
+      </c>
+      <c r="F576" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" s="1">
+        <v>392200000</v>
+      </c>
+      <c r="C577" s="1">
+        <v>46</v>
+      </c>
+      <c r="D577" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E577" s="1">
+        <v>46</v>
+      </c>
+      <c r="F577" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" s="1">
+        <v>393000000</v>
+      </c>
+      <c r="C578" s="2">
+        <v>73</v>
+      </c>
+      <c r="D578" s="2">
+        <v>150</v>
+      </c>
+      <c r="E578" s="2">
+        <v>73</v>
+      </c>
+      <c r="F578" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" s="1">
+        <v>393800000</v>
+      </c>
+      <c r="C579" s="1">
+        <v>88</v>
+      </c>
+      <c r="D579" s="1">
+        <v>75</v>
+      </c>
+      <c r="E579" s="1">
+        <v>88</v>
+      </c>
+      <c r="F579" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" s="1">
+        <v>394600000</v>
+      </c>
+      <c r="C580" s="1">
+        <v>5</v>
+      </c>
+      <c r="D580" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E580" s="1">
+        <v>5</v>
+      </c>
+      <c r="F580" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" s="1">
+        <v>395400000</v>
+      </c>
+      <c r="C581" s="1">
+        <v>30</v>
+      </c>
+      <c r="D581" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E581" s="1">
+        <v>30</v>
+      </c>
+      <c r="F581" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" s="1">
+        <v>396200000</v>
+      </c>
+      <c r="C582" s="1">
+        <v>20</v>
+      </c>
+      <c r="D582" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E582" s="1">
+        <v>20</v>
+      </c>
+      <c r="F582" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" s="1">
+        <v>397000000</v>
+      </c>
+      <c r="C583" s="1">
+        <v>46</v>
+      </c>
+      <c r="D583" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E583" s="1">
+        <v>46</v>
+      </c>
+      <c r="F583" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" s="1">
+        <v>397800000</v>
+      </c>
+      <c r="C584" s="2">
+        <v>73</v>
+      </c>
+      <c r="D584" s="2">
+        <v>150</v>
+      </c>
+      <c r="E584" s="2">
+        <v>73</v>
+      </c>
+      <c r="F584" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" s="1">
+        <v>398600000</v>
+      </c>
+      <c r="C585" s="1">
+        <v>88</v>
+      </c>
+      <c r="D585" s="1">
+        <v>75</v>
+      </c>
+      <c r="E585" s="1">
+        <v>88</v>
+      </c>
+      <c r="F585" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" s="1">
+        <v>399400000</v>
+      </c>
+      <c r="C586" s="1">
+        <v>5</v>
+      </c>
+      <c r="D586" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E586" s="1">
+        <v>5</v>
+      </c>
+      <c r="F586" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" s="1">
+        <v>400200000</v>
+      </c>
+      <c r="C587" s="1">
+        <v>30</v>
+      </c>
+      <c r="D587" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E587" s="1">
+        <v>30</v>
+      </c>
+      <c r="F587" s="1">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F400" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F400">
